--- a/BackTest/2019-11-02 BackTest MTL.xlsx
+++ b/BackTest/2019-11-02 BackTest MTL.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>12</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L12" t="n">
         <v>428.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>12</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L13" t="n">
         <v>428.7</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>14</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>71.42857142857143</v>
+      </c>
       <c r="L14" t="n">
         <v>428.8</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>15</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>75</v>
+      </c>
       <c r="L15" t="n">
         <v>429.4</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>17</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>40</v>
+      </c>
       <c r="L16" t="n">
         <v>429.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>19</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>50</v>
+      </c>
       <c r="L17" t="n">
         <v>430.4</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>19</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>431</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>22</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L19" t="n">
         <v>431</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>23</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L20" t="n">
         <v>431.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>24</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>431.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>26</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>431.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>-10.3448275862069</v>
+        <v>-37.5</v>
       </c>
       <c r="L23" t="n">
         <v>431.1</v>
@@ -1466,7 +1488,7 @@
         <v>32</v>
       </c>
       <c r="K24" t="n">
-        <v>-10.3448275862069</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L24" t="n">
         <v>430.7</v>
@@ -1515,7 +1537,7 @@
         <v>32</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="L25" t="n">
         <v>430.2</v>
@@ -1564,7 +1586,7 @@
         <v>33</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L26" t="n">
         <v>429.8</v>
@@ -1613,7 +1635,7 @@
         <v>34</v>
       </c>
       <c r="K27" t="n">
-        <v>3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>429.3</v>
@@ -1662,7 +1684,7 @@
         <v>36</v>
       </c>
       <c r="K28" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>429</v>
@@ -1711,7 +1733,7 @@
         <v>36</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L29" t="n">
         <v>429</v>
@@ -1760,7 +1782,7 @@
         <v>36</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L30" t="n">
         <v>428.9</v>
@@ -1809,7 +1831,7 @@
         <v>37</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L31" t="n">
         <v>428.6</v>
@@ -1860,7 +1882,7 @@
         <v>37</v>
       </c>
       <c r="K32" t="n">
-        <v>-4</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L32" t="n">
         <v>428.5</v>
@@ -1911,7 +1933,7 @@
         <v>38</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>428.7</v>
@@ -1962,7 +1984,7 @@
         <v>39</v>
       </c>
       <c r="K34" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L34" t="n">
         <v>428.6</v>
@@ -2013,7 +2035,7 @@
         <v>39</v>
       </c>
       <c r="K35" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>428.5</v>
@@ -2064,7 +2086,7 @@
         <v>41</v>
       </c>
       <c r="K36" t="n">
-        <v>-8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L36" t="n">
         <v>428.7</v>
@@ -2115,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="K37" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>428.9</v>
@@ -2166,7 +2188,7 @@
         <v>42</v>
       </c>
       <c r="K38" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>428.9</v>
@@ -2217,7 +2239,7 @@
         <v>43</v>
       </c>
       <c r="K39" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L39" t="n">
         <v>429</v>
@@ -2268,7 +2290,7 @@
         <v>43</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>429.1</v>
@@ -2319,7 +2341,7 @@
         <v>44</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L41" t="n">
         <v>429.4</v>
@@ -2370,7 +2392,7 @@
         <v>44</v>
       </c>
       <c r="K42" t="n">
-        <v>11.11111111111111</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L42" t="n">
         <v>429.7</v>
@@ -2421,7 +2443,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="n">
-        <v>46.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
         <v>430.2</v>
@@ -2472,7 +2494,7 @@
         <v>46</v>
       </c>
       <c r="K44" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
         <v>430.9</v>
@@ -2574,7 +2596,7 @@
         <v>55</v>
       </c>
       <c r="K46" t="n">
-        <v>36.36363636363637</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L46" t="n">
         <v>431.8</v>
@@ -2625,7 +2647,7 @@
         <v>56</v>
       </c>
       <c r="K47" t="n">
-        <v>27.27272727272727</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L47" t="n">
         <v>432.2</v>
@@ -2676,7 +2698,7 @@
         <v>56</v>
       </c>
       <c r="K48" t="n">
-        <v>20</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L48" t="n">
         <v>432.6</v>
@@ -2727,7 +2749,7 @@
         <v>56</v>
       </c>
       <c r="K49" t="n">
-        <v>20</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L49" t="n">
         <v>432.9</v>
@@ -2778,7 +2800,7 @@
         <v>56</v>
       </c>
       <c r="K50" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L50" t="n">
         <v>433.2</v>
@@ -2829,7 +2851,7 @@
         <v>56</v>
       </c>
       <c r="K51" t="n">
-        <v>26.31578947368421</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L51" t="n">
         <v>433.4</v>
@@ -2880,7 +2902,7 @@
         <v>56</v>
       </c>
       <c r="K52" t="n">
-        <v>26.31578947368421</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L52" t="n">
         <v>433.6</v>
@@ -2931,7 +2953,7 @@
         <v>56</v>
       </c>
       <c r="K53" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>433.7</v>
@@ -2982,7 +3004,7 @@
         <v>57</v>
       </c>
       <c r="K54" t="n">
-        <v>44.44444444444444</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L54" t="n">
         <v>433.8</v>
@@ -3033,7 +3055,7 @@
         <v>59</v>
       </c>
       <c r="K55" t="n">
-        <v>30</v>
+        <v>-50</v>
       </c>
       <c r="L55" t="n">
         <v>434.1</v>
@@ -3084,7 +3106,7 @@
         <v>61</v>
       </c>
       <c r="K56" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L56" t="n">
         <v>434.1</v>
@@ -3135,7 +3157,7 @@
         <v>61</v>
       </c>
       <c r="K57" t="n">
-        <v>26.31578947368421</v>
+        <v>20</v>
       </c>
       <c r="L57" t="n">
         <v>434.2</v>
@@ -3186,7 +3208,7 @@
         <v>61</v>
       </c>
       <c r="K58" t="n">
-        <v>26.31578947368421</v>
+        <v>20</v>
       </c>
       <c r="L58" t="n">
         <v>434.3</v>
@@ -3237,7 +3259,7 @@
         <v>61</v>
       </c>
       <c r="K59" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L59" t="n">
         <v>434.4</v>
@@ -3288,7 +3310,7 @@
         <v>62</v>
       </c>
       <c r="K60" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>434.6</v>
@@ -3339,7 +3361,7 @@
         <v>62</v>
       </c>
       <c r="K61" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>434.8</v>
@@ -3390,7 +3412,7 @@
         <v>62</v>
       </c>
       <c r="K62" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>435</v>
@@ -3441,7 +3463,7 @@
         <v>63</v>
       </c>
       <c r="K63" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>435.1</v>
@@ -3492,7 +3514,7 @@
         <v>64</v>
       </c>
       <c r="K64" t="n">
-        <v>11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L64" t="n">
         <v>435.2</v>
@@ -3543,7 +3565,7 @@
         <v>64</v>
       </c>
       <c r="K65" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L65" t="n">
         <v>435.5</v>
@@ -3594,7 +3616,7 @@
         <v>64</v>
       </c>
       <c r="K66" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>435.6</v>
@@ -3645,7 +3667,7 @@
         <v>64</v>
       </c>
       <c r="K67" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>435.7</v>
@@ -3696,7 +3718,7 @@
         <v>65</v>
       </c>
       <c r="K68" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L68" t="n">
         <v>435.9</v>
@@ -3849,7 +3871,7 @@
         <v>66</v>
       </c>
       <c r="K71" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>436.2</v>
@@ -3900,7 +3922,7 @@
         <v>67</v>
       </c>
       <c r="K72" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L72" t="n">
         <v>436.3</v>
@@ -3951,7 +3973,7 @@
         <v>68</v>
       </c>
       <c r="K73" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>436.4</v>
@@ -4002,7 +4024,7 @@
         <v>69</v>
       </c>
       <c r="K74" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L74" t="n">
         <v>436.5</v>
@@ -4053,7 +4075,7 @@
         <v>70</v>
       </c>
       <c r="K75" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>436.5</v>
@@ -4104,7 +4126,7 @@
         <v>70</v>
       </c>
       <c r="K76" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>436.5</v>
@@ -4155,7 +4177,7 @@
         <v>71</v>
       </c>
       <c r="K77" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>436.6</v>
@@ -4206,7 +4228,7 @@
         <v>71</v>
       </c>
       <c r="K78" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>436.6</v>
@@ -4257,7 +4279,7 @@
         <v>72</v>
       </c>
       <c r="K79" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L79" t="n">
         <v>436.5</v>
@@ -4308,7 +4330,7 @@
         <v>86</v>
       </c>
       <c r="K80" t="n">
-        <v>58.33333333333334</v>
+        <v>70</v>
       </c>
       <c r="L80" t="n">
         <v>437.8</v>
@@ -4359,7 +4381,7 @@
         <v>88</v>
       </c>
       <c r="K81" t="n">
-        <v>61.53846153846154</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L81" t="n">
         <v>439.4</v>
@@ -4410,7 +4432,7 @@
         <v>90</v>
       </c>
       <c r="K82" t="n">
-        <v>50</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L82" t="n">
         <v>440.7</v>
@@ -4461,7 +4483,7 @@
         <v>96</v>
       </c>
       <c r="K83" t="n">
-        <v>63.63636363636363</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L83" t="n">
         <v>442.7</v>
@@ -4512,7 +4534,7 @@
         <v>100</v>
       </c>
       <c r="K84" t="n">
-        <v>44.44444444444444</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L84" t="n">
         <v>444.2</v>
@@ -4563,7 +4585,7 @@
         <v>105</v>
       </c>
       <c r="K85" t="n">
-        <v>51.21951219512195</v>
+        <v>60</v>
       </c>
       <c r="L85" t="n">
         <v>446.3</v>
@@ -4614,7 +4636,7 @@
         <v>109</v>
       </c>
       <c r="K86" t="n">
-        <v>37.77777777777778</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L86" t="n">
         <v>448</v>
@@ -4665,7 +4687,7 @@
         <v>109</v>
       </c>
       <c r="K87" t="n">
-        <v>37.77777777777778</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L87" t="n">
         <v>449.6</v>
@@ -4716,7 +4738,7 @@
         <v>111</v>
       </c>
       <c r="K88" t="n">
-        <v>30.43478260869566</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L88" t="n">
         <v>451</v>
@@ -4767,7 +4789,7 @@
         <v>114</v>
       </c>
       <c r="K89" t="n">
-        <v>22.44897959183674</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L89" t="n">
         <v>452.2</v>
@@ -4818,7 +4840,7 @@
         <v>116</v>
       </c>
       <c r="K90" t="n">
-        <v>17.64705882352941</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L90" t="n">
         <v>451.8</v>
@@ -4869,7 +4891,7 @@
         <v>118</v>
       </c>
       <c r="K91" t="n">
-        <v>15.38461538461539</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L91" t="n">
         <v>451</v>
@@ -4920,7 +4942,7 @@
         <v>121</v>
       </c>
       <c r="K92" t="n">
-        <v>7.407407407407407</v>
+        <v>-60</v>
       </c>
       <c r="L92" t="n">
         <v>450.1</v>
@@ -4971,7 +4993,7 @@
         <v>123</v>
       </c>
       <c r="K93" t="n">
-        <v>5.454545454545454</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L93" t="n">
         <v>448.4</v>
@@ -5022,7 +5044,7 @@
         <v>124</v>
       </c>
       <c r="K94" t="n">
-        <v>5.454545454545454</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L94" t="n">
         <v>447.2</v>
@@ -5073,7 +5095,7 @@
         <v>127</v>
       </c>
       <c r="K95" t="n">
-        <v>1.754385964912281</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L95" t="n">
         <v>445.2</v>
@@ -5124,7 +5146,7 @@
         <v>128</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L96" t="n">
         <v>443.5</v>
@@ -5175,7 +5197,7 @@
         <v>132</v>
       </c>
       <c r="K97" t="n">
-        <v>4.918032786885246</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L97" t="n">
         <v>442.2</v>
@@ -5226,7 +5248,7 @@
         <v>133</v>
       </c>
       <c r="K98" t="n">
-        <v>3.225806451612903</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L98" t="n">
         <v>441</v>
@@ -5277,7 +5299,7 @@
         <v>134</v>
       </c>
       <c r="K99" t="n">
-        <v>6.451612903225806</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>440.2</v>
@@ -5328,7 +5350,7 @@
         <v>135</v>
       </c>
       <c r="K100" t="n">
-        <v>-22.44897959183674</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L100" t="n">
         <v>439.5</v>
@@ -5379,7 +5401,7 @@
         <v>136</v>
       </c>
       <c r="K101" t="n">
-        <v>-25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L101" t="n">
         <v>439.1</v>
@@ -5430,7 +5452,7 @@
         <v>136</v>
       </c>
       <c r="K102" t="n">
-        <v>-21.73913043478261</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L102" t="n">
         <v>439</v>
@@ -5481,7 +5503,7 @@
         <v>136</v>
       </c>
       <c r="K103" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>439.1</v>
@@ -5532,7 +5554,7 @@
         <v>136</v>
       </c>
       <c r="K104" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>439.1</v>
@@ -5583,7 +5605,7 @@
         <v>137</v>
       </c>
       <c r="K105" t="n">
-        <v>-56.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>439.3</v>
@@ -5634,7 +5656,7 @@
         <v>139</v>
       </c>
       <c r="K106" t="n">
-        <v>-40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L106" t="n">
         <v>439.8</v>
@@ -5685,7 +5707,7 @@
         <v>141</v>
       </c>
       <c r="K107" t="n">
-        <v>-31.25</v>
+        <v>50</v>
       </c>
       <c r="L107" t="n">
         <v>440.1</v>
@@ -5736,7 +5758,7 @@
         <v>144</v>
       </c>
       <c r="K108" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>440.2</v>
@@ -5787,7 +5809,7 @@
         <v>144</v>
       </c>
       <c r="K109" t="n">
-        <v>-26.66666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L109" t="n">
         <v>440.2</v>
@@ -5838,7 +5860,7 @@
         <v>145</v>
       </c>
       <c r="K110" t="n">
-        <v>-17.24137931034483</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L110" t="n">
         <v>440.4</v>
@@ -5889,7 +5911,7 @@
         <v>145</v>
       </c>
       <c r="K111" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L111" t="n">
         <v>440.5</v>
@@ -5940,7 +5962,7 @@
         <v>147</v>
       </c>
       <c r="K112" t="n">
-        <v>7.692307692307693</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L112" t="n">
         <v>440.8</v>
@@ -5991,7 +6013,7 @@
         <v>148</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>441.2</v>
@@ -6042,7 +6064,7 @@
         <v>149</v>
       </c>
       <c r="K114" t="n">
-        <v>12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>441.5</v>
@@ -6144,7 +6166,7 @@
         <v>152</v>
       </c>
       <c r="K116" t="n">
-        <v>41.66666666666667</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L116" t="n">
         <v>442.6</v>
@@ -6195,7 +6217,7 @@
         <v>153</v>
       </c>
       <c r="K117" t="n">
-        <v>33.33333333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L117" t="n">
         <v>443</v>
@@ -6246,7 +6268,7 @@
         <v>154</v>
       </c>
       <c r="K118" t="n">
-        <v>42.85714285714285</v>
+        <v>80</v>
       </c>
       <c r="L118" t="n">
         <v>443.8</v>
@@ -6297,7 +6319,7 @@
         <v>154</v>
       </c>
       <c r="K119" t="n">
-        <v>40</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L119" t="n">
         <v>444.6</v>
@@ -6348,7 +6370,7 @@
         <v>154</v>
       </c>
       <c r="K120" t="n">
-        <v>47.36842105263158</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L120" t="n">
         <v>445.3</v>
@@ -6399,7 +6421,7 @@
         <v>154</v>
       </c>
       <c r="K121" t="n">
-        <v>44.44444444444444</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L121" t="n">
         <v>446</v>
@@ -6450,7 +6472,7 @@
         <v>155</v>
       </c>
       <c r="K122" t="n">
-        <v>36.84210526315789</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L122" t="n">
         <v>446.4</v>
@@ -6501,7 +6523,7 @@
         <v>155</v>
       </c>
       <c r="K123" t="n">
-        <v>36.84210526315789</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L123" t="n">
         <v>446.7</v>
@@ -6552,7 +6574,7 @@
         <v>156</v>
       </c>
       <c r="K124" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L124" t="n">
         <v>447</v>
@@ -6603,7 +6625,7 @@
         <v>158</v>
       </c>
       <c r="K125" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>447.3</v>
@@ -6654,7 +6676,7 @@
         <v>159</v>
       </c>
       <c r="K126" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>447.6</v>
@@ -6705,7 +6727,7 @@
         <v>159</v>
       </c>
       <c r="K127" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L127" t="n">
         <v>447.8</v>
@@ -6756,7 +6778,7 @@
         <v>159</v>
       </c>
       <c r="K128" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L128" t="n">
         <v>447.9</v>
@@ -6807,7 +6829,7 @@
         <v>159</v>
       </c>
       <c r="K129" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L129" t="n">
         <v>448</v>
@@ -6858,7 +6880,7 @@
         <v>159</v>
       </c>
       <c r="K130" t="n">
-        <v>57.14285714285714</v>
+        <v>20</v>
       </c>
       <c r="L130" t="n">
         <v>448.1</v>
@@ -6960,7 +6982,7 @@
         <v>160</v>
       </c>
       <c r="K132" t="n">
-        <v>53.84615384615385</v>
+        <v>60</v>
       </c>
       <c r="L132" t="n">
         <v>448.6</v>
@@ -7011,7 +7033,7 @@
         <v>160</v>
       </c>
       <c r="K133" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>448.9</v>
@@ -7062,7 +7084,7 @@
         <v>164</v>
       </c>
       <c r="K134" t="n">
-        <v>73.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>449.7</v>
@@ -7113,7 +7135,7 @@
         <v>164</v>
       </c>
       <c r="K135" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>450.3</v>
@@ -7164,7 +7186,7 @@
         <v>164</v>
       </c>
       <c r="K136" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>450.8</v>
@@ -7215,7 +7237,7 @@
         <v>165</v>
       </c>
       <c r="K137" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
         <v>451.4</v>
@@ -7266,7 +7288,7 @@
         <v>167</v>
       </c>
       <c r="K138" t="n">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="L138" t="n">
         <v>451.8</v>
@@ -7317,7 +7339,7 @@
         <v>173</v>
       </c>
       <c r="K139" t="n">
-        <v>57.89473684210527</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L139" t="n">
         <v>452.8</v>
@@ -7368,7 +7390,7 @@
         <v>174</v>
       </c>
       <c r="K140" t="n">
-        <v>60</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L140" t="n">
         <v>453.9</v>
@@ -7419,7 +7441,7 @@
         <v>177</v>
       </c>
       <c r="K141" t="n">
-        <v>39.1304347826087</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L141" t="n">
         <v>454.6</v>
@@ -7470,7 +7492,7 @@
         <v>178</v>
       </c>
       <c r="K142" t="n">
-        <v>47.82608695652174</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L142" t="n">
         <v>455.4</v>
@@ -7521,7 +7543,7 @@
         <v>178</v>
       </c>
       <c r="K143" t="n">
-        <v>47.82608695652174</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L143" t="n">
         <v>456.2</v>
@@ -7572,7 +7594,7 @@
         <v>178</v>
       </c>
       <c r="K144" t="n">
-        <v>54.54545454545454</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L144" t="n">
         <v>456.6</v>
@@ -7623,7 +7645,7 @@
         <v>179</v>
       </c>
       <c r="K145" t="n">
-        <v>52.38095238095239</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>457.1</v>
@@ -7674,7 +7696,7 @@
         <v>182</v>
       </c>
       <c r="K146" t="n">
-        <v>30.43478260869566</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L146" t="n">
         <v>457.3</v>
@@ -7725,7 +7747,7 @@
         <v>184</v>
       </c>
       <c r="K147" t="n">
-        <v>20</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L147" t="n">
         <v>457.2</v>
@@ -7776,7 +7798,7 @@
         <v>184</v>
       </c>
       <c r="K148" t="n">
-        <v>20</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L148" t="n">
         <v>457.3</v>
@@ -7827,7 +7849,7 @@
         <v>185</v>
       </c>
       <c r="K149" t="n">
-        <v>23.07692307692308</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L149" t="n">
         <v>456.9</v>
@@ -7878,7 +7900,7 @@
         <v>189</v>
       </c>
       <c r="K150" t="n">
-        <v>6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L150" t="n">
         <v>456</v>
@@ -7929,7 +7951,7 @@
         <v>190</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L151" t="n">
         <v>455.3</v>
@@ -7980,7 +8002,7 @@
         <v>193</v>
       </c>
       <c r="K152" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>454.8</v>
@@ -8031,7 +8053,7 @@
         <v>194</v>
       </c>
       <c r="K153" t="n">
-        <v>5.88235294117647</v>
+        <v>-37.5</v>
       </c>
       <c r="L153" t="n">
         <v>454.2</v>
@@ -8082,7 +8104,7 @@
         <v>197</v>
       </c>
       <c r="K154" t="n">
-        <v>3.03030303030303</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L154" t="n">
         <v>453.9</v>
@@ -8133,7 +8155,7 @@
         <v>197</v>
       </c>
       <c r="K155" t="n">
-        <v>3.03030303030303</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L155" t="n">
         <v>453.5</v>
@@ -8184,7 +8206,7 @@
         <v>200</v>
       </c>
       <c r="K156" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L156" t="n">
         <v>453.7</v>
@@ -8235,7 +8257,7 @@
         <v>200</v>
       </c>
       <c r="K157" t="n">
-        <v>8.571428571428571</v>
+        <v>25</v>
       </c>
       <c r="L157" t="n">
         <v>454.1</v>
@@ -8286,7 +8308,7 @@
         <v>200</v>
       </c>
       <c r="K158" t="n">
-        <v>15.15151515151515</v>
+        <v>20</v>
       </c>
       <c r="L158" t="n">
         <v>454.5</v>
@@ -8337,7 +8359,7 @@
         <v>202</v>
       </c>
       <c r="K159" t="n">
-        <v>-10.3448275862069</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L159" t="n">
         <v>454.6</v>
@@ -8388,7 +8410,7 @@
         <v>203</v>
       </c>
       <c r="K160" t="n">
-        <v>-17.24137931034483</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L160" t="n">
         <v>455</v>
@@ -8439,7 +8461,7 @@
         <v>203</v>
       </c>
       <c r="K161" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L161" t="n">
         <v>455.5</v>
@@ -8490,7 +8512,7 @@
         <v>206</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L162" t="n">
         <v>456</v>
@@ -8541,7 +8563,7 @@
         <v>206</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>456.6</v>
@@ -8592,7 +8614,7 @@
         <v>208</v>
       </c>
       <c r="K164" t="n">
-        <v>6.666666666666667</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L164" t="n">
         <v>457.1</v>
@@ -8643,7 +8665,7 @@
         <v>208</v>
       </c>
       <c r="K165" t="n">
-        <v>3.448275862068965</v>
+        <v>25</v>
       </c>
       <c r="L165" t="n">
         <v>457.6</v>
@@ -8694,7 +8716,7 @@
         <v>209</v>
       </c>
       <c r="K166" t="n">
-        <v>18.51851851851852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>457.9</v>
@@ -8745,7 +8767,7 @@
         <v>209</v>
       </c>
       <c r="K167" t="n">
-        <v>28</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>458.2</v>
@@ -8796,7 +8818,7 @@
         <v>211</v>
       </c>
       <c r="K168" t="n">
-        <v>33.33333333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L168" t="n">
         <v>458.7</v>
@@ -8847,7 +8869,7 @@
         <v>211</v>
       </c>
       <c r="K169" t="n">
-        <v>30.76923076923077</v>
+        <v>100</v>
       </c>
       <c r="L169" t="n">
         <v>459.4</v>
@@ -8898,7 +8920,7 @@
         <v>213</v>
       </c>
       <c r="K170" t="n">
-        <v>41.66666666666667</v>
+        <v>60</v>
       </c>
       <c r="L170" t="n">
         <v>460</v>
@@ -8949,7 +8971,7 @@
         <v>215</v>
       </c>
       <c r="K171" t="n">
-        <v>52</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L171" t="n">
         <v>460.8</v>
@@ -9000,7 +9022,7 @@
         <v>216</v>
       </c>
       <c r="K172" t="n">
-        <v>39.1304347826087</v>
+        <v>40</v>
       </c>
       <c r="L172" t="n">
         <v>461.2</v>
@@ -9051,7 +9073,7 @@
         <v>216</v>
       </c>
       <c r="K173" t="n">
-        <v>45.45454545454545</v>
+        <v>25</v>
       </c>
       <c r="L173" t="n">
         <v>461.6</v>
@@ -9102,7 +9124,7 @@
         <v>218</v>
       </c>
       <c r="K174" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="L174" t="n">
         <v>462</v>
@@ -9153,7 +9175,7 @@
         <v>219</v>
       </c>
       <c r="K175" t="n">
-        <v>36.36363636363637</v>
+        <v>20</v>
       </c>
       <c r="L175" t="n">
         <v>462.3</v>
@@ -9204,7 +9226,7 @@
         <v>222</v>
       </c>
       <c r="K176" t="n">
-        <v>36.36363636363637</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L176" t="n">
         <v>462.8</v>
@@ -9255,7 +9277,7 @@
         <v>227</v>
       </c>
       <c r="K177" t="n">
-        <v>48.14814814814815</v>
+        <v>50</v>
       </c>
       <c r="L177" t="n">
         <v>463.8</v>
@@ -9306,7 +9328,7 @@
         <v>231</v>
       </c>
       <c r="K178" t="n">
-        <v>54.83870967741935</v>
+        <v>60</v>
       </c>
       <c r="L178" t="n">
         <v>465</v>
@@ -9357,7 +9379,7 @@
         <v>233</v>
       </c>
       <c r="K179" t="n">
-        <v>67.74193548387096</v>
+        <v>80</v>
       </c>
       <c r="L179" t="n">
         <v>466.4</v>
@@ -9408,7 +9430,7 @@
         <v>233</v>
       </c>
       <c r="K180" t="n">
-        <v>73.33333333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L180" t="n">
         <v>468</v>
@@ -9459,7 +9481,7 @@
         <v>233</v>
       </c>
       <c r="K181" t="n">
-        <v>73.33333333333333</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L181" t="n">
         <v>469.4</v>
@@ -9510,7 +9532,7 @@
         <v>236</v>
       </c>
       <c r="K182" t="n">
-        <v>73.33333333333333</v>
+        <v>90</v>
       </c>
       <c r="L182" t="n">
         <v>471.2</v>
@@ -9561,7 +9583,7 @@
         <v>238</v>
       </c>
       <c r="K183" t="n">
-        <v>62.5</v>
+        <v>70</v>
       </c>
       <c r="L183" t="n">
         <v>472.8</v>
@@ -9612,7 +9634,7 @@
         <v>241</v>
       </c>
       <c r="K184" t="n">
-        <v>45.45454545454545</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L184" t="n">
         <v>473.9</v>
@@ -9663,7 +9685,7 @@
         <v>242</v>
       </c>
       <c r="K185" t="n">
-        <v>47.05882352941176</v>
+        <v>50</v>
       </c>
       <c r="L185" t="n">
         <v>475.2</v>
@@ -9714,7 +9736,7 @@
         <v>244</v>
       </c>
       <c r="K186" t="n">
-        <v>48.57142857142857</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L186" t="n">
         <v>476.4</v>
@@ -9765,7 +9787,7 @@
         <v>246</v>
       </c>
       <c r="K187" t="n">
-        <v>51.35135135135135</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>477.3</v>
@@ -9816,7 +9838,7 @@
         <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>53.84615384615385</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L188" t="n">
         <v>478.2</v>
@@ -9867,7 +9889,7 @@
         <v>251</v>
       </c>
       <c r="K189" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>478.8</v>
@@ -9918,7 +9940,7 @@
         <v>253</v>
       </c>
       <c r="K190" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L190" t="n">
         <v>479.6</v>
@@ -9969,7 +9991,7 @@
         <v>256</v>
       </c>
       <c r="K191" t="n">
-        <v>60.97560975609756</v>
+        <v>40</v>
       </c>
       <c r="L191" t="n">
         <v>480.7</v>
@@ -10020,7 +10042,7 @@
         <v>257</v>
       </c>
       <c r="K192" t="n">
-        <v>65.85365853658537</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L192" t="n">
         <v>481.6</v>
@@ -10071,7 +10093,7 @@
         <v>264</v>
       </c>
       <c r="K193" t="n">
-        <v>70.83333333333334</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L193" t="n">
         <v>483.4</v>
@@ -10122,7 +10144,7 @@
         <v>267</v>
       </c>
       <c r="K194" t="n">
-        <v>59.18367346938776</v>
+        <v>68</v>
       </c>
       <c r="L194" t="n">
         <v>485.2</v>
@@ -10173,7 +10195,7 @@
         <v>271</v>
       </c>
       <c r="K195" t="n">
-        <v>65.38461538461539</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L195" t="n">
         <v>487.3</v>
@@ -10224,7 +10246,7 @@
         <v>279</v>
       </c>
       <c r="K196" t="n">
-        <v>40.35087719298245</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L196" t="n">
         <v>488.4</v>
@@ -10275,7 +10297,7 @@
         <v>280</v>
       </c>
       <c r="K197" t="n">
-        <v>32.0754716981132</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>489.2</v>
@@ -10326,7 +10348,7 @@
         <v>282</v>
       </c>
       <c r="K198" t="n">
-        <v>29.41176470588236</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L198" t="n">
         <v>489.8</v>
@@ -10377,7 +10399,7 @@
         <v>282</v>
       </c>
       <c r="K199" t="n">
-        <v>26.53061224489796</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L199" t="n">
         <v>490.5</v>
@@ -10428,7 +10450,7 @@
         <v>282</v>
       </c>
       <c r="K200" t="n">
-        <v>26.53061224489796</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L200" t="n">
         <v>491</v>
@@ -10479,7 +10501,7 @@
         <v>286</v>
       </c>
       <c r="K201" t="n">
-        <v>16.9811320754717</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L201" t="n">
         <v>490.8</v>
@@ -10530,7 +10552,7 @@
         <v>287</v>
       </c>
       <c r="K202" t="n">
-        <v>9.803921568627452</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L202" t="n">
         <v>490.4</v>
@@ -10581,7 +10603,7 @@
         <v>289</v>
       </c>
       <c r="K203" t="n">
-        <v>9.803921568627452</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L203" t="n">
         <v>489.1</v>
@@ -10632,7 +10654,7 @@
         <v>296</v>
       </c>
       <c r="K204" t="n">
-        <v>1.818181818181818</v>
+        <v>-84</v>
       </c>
       <c r="L204" t="n">
         <v>487.4</v>
@@ -10683,7 +10705,7 @@
         <v>296</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L205" t="n">
         <v>485.3</v>
@@ -10734,7 +10756,7 @@
         <v>298</v>
       </c>
       <c r="K206" t="n">
-        <v>-7.407407407407407</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L206" t="n">
         <v>483.8</v>
@@ -10785,7 +10807,7 @@
         <v>300</v>
       </c>
       <c r="K207" t="n">
-        <v>-7.407407407407407</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L207" t="n">
         <v>482.6</v>
@@ -10836,7 +10858,7 @@
         <v>303</v>
       </c>
       <c r="K208" t="n">
-        <v>-9.433962264150944</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L208" t="n">
         <v>481.5</v>
@@ -10887,7 +10909,7 @@
         <v>304</v>
       </c>
       <c r="K209" t="n">
-        <v>-5.660377358490567</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L209" t="n">
         <v>480.5</v>
@@ -10938,7 +10960,7 @@
         <v>305</v>
       </c>
       <c r="K210" t="n">
-        <v>-11.53846153846154</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L210" t="n">
         <v>479.4</v>
@@ -10989,7 +11011,7 @@
         <v>305</v>
       </c>
       <c r="K211" t="n">
-        <v>-18.36734693877551</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>478.7</v>
@@ -11040,7 +11062,7 @@
         <v>308</v>
       </c>
       <c r="K212" t="n">
-        <v>-25.49019607843137</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L212" t="n">
         <v>477.8</v>
@@ -11091,7 +11113,7 @@
         <v>308</v>
       </c>
       <c r="K213" t="n">
-        <v>-45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>477.1</v>
@@ -11142,7 +11164,7 @@
         <v>310</v>
       </c>
       <c r="K214" t="n">
-        <v>-34.88372093023256</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L214" t="n">
         <v>477.3</v>
@@ -11193,7 +11215,7 @@
         <v>313</v>
       </c>
       <c r="K215" t="n">
-        <v>-52.38095238095239</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L215" t="n">
         <v>477.2</v>
@@ -11244,7 +11266,7 @@
         <v>316</v>
       </c>
       <c r="K216" t="n">
-        <v>-45.94594594594595</v>
+        <v>-25</v>
       </c>
       <c r="L216" t="n">
         <v>477</v>
@@ -11295,7 +11317,7 @@
         <v>320</v>
       </c>
       <c r="K217" t="n">
-        <v>-30</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L217" t="n">
         <v>477</v>
@@ -11346,7 +11368,7 @@
         <v>321</v>
       </c>
       <c r="K218" t="n">
-        <v>-38.46153846153847</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L218" t="n">
         <v>476.6</v>
@@ -11397,7 +11419,7 @@
         <v>324</v>
       </c>
       <c r="K219" t="n">
-        <v>-28.57142857142857</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L219" t="n">
         <v>476.4</v>
@@ -11448,7 +11470,7 @@
         <v>326</v>
       </c>
       <c r="K220" t="n">
-        <v>-31.81818181818182</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L220" t="n">
         <v>476.1</v>
@@ -11499,7 +11521,7 @@
         <v>329</v>
       </c>
       <c r="K221" t="n">
-        <v>-16.27906976744186</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L221" t="n">
         <v>476.1</v>
@@ -11550,7 +11572,7 @@
         <v>333</v>
       </c>
       <c r="K222" t="n">
-        <v>-4.347826086956522</v>
+        <v>28</v>
       </c>
       <c r="L222" t="n">
         <v>476.8</v>
@@ -11601,7 +11623,7 @@
         <v>335</v>
       </c>
       <c r="K223" t="n">
-        <v>4.347826086956522</v>
+        <v>28</v>
       </c>
       <c r="L223" t="n">
         <v>477.7</v>
@@ -11652,7 +11674,7 @@
         <v>337</v>
       </c>
       <c r="K224" t="n">
-        <v>26.82926829268293</v>
+        <v>50</v>
       </c>
       <c r="L224" t="n">
         <v>478.6</v>
@@ -11703,7 +11725,7 @@
         <v>339</v>
       </c>
       <c r="K225" t="n">
-        <v>20.93023255813954</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L225" t="n">
         <v>479.6</v>
@@ -11754,7 +11776,7 @@
         <v>341</v>
       </c>
       <c r="K226" t="n">
-        <v>30.23255813953488</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L226" t="n">
         <v>481.1</v>
@@ -11805,7 +11827,7 @@
         <v>344</v>
       </c>
       <c r="K227" t="n">
-        <v>31.81818181818182</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L227" t="n">
         <v>482.5</v>
@@ -11856,7 +11878,7 @@
         <v>347</v>
       </c>
       <c r="K228" t="n">
-        <v>31.81818181818182</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L228" t="n">
         <v>484.3</v>
@@ -11907,7 +11929,7 @@
         <v>349</v>
       </c>
       <c r="K229" t="n">
-        <v>24.44444444444444</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L229" t="n">
         <v>485.6</v>
@@ -11958,7 +11980,7 @@
         <v>353</v>
       </c>
       <c r="K230" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L230" t="n">
         <v>487.5</v>
@@ -12009,7 +12031,7 @@
         <v>353</v>
       </c>
       <c r="K231" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L231" t="n">
         <v>489.1</v>
@@ -12060,7 +12082,7 @@
         <v>356</v>
       </c>
       <c r="K232" t="n">
-        <v>45.83333333333333</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L232" t="n">
         <v>490.6</v>
@@ -12111,7 +12133,7 @@
         <v>357</v>
       </c>
       <c r="K233" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L233" t="n">
         <v>491.8</v>
@@ -12162,7 +12184,7 @@
         <v>362</v>
       </c>
       <c r="K234" t="n">
-        <v>26.92307692307692</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L234" t="n">
         <v>492.3</v>
@@ -12213,7 +12235,7 @@
         <v>363</v>
       </c>
       <c r="K235" t="n">
-        <v>32</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L235" t="n">
         <v>492.9</v>
@@ -12264,7 +12286,7 @@
         <v>365</v>
       </c>
       <c r="K236" t="n">
-        <v>42.85714285714285</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L236" t="n">
         <v>493.5</v>
@@ -12315,7 +12337,7 @@
         <v>370</v>
       </c>
       <c r="K237" t="n">
-        <v>44</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L237" t="n">
         <v>494.3</v>
@@ -12366,7 +12388,7 @@
         <v>372</v>
       </c>
       <c r="K238" t="n">
-        <v>49.01960784313725</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L238" t="n">
         <v>495</v>
@@ -12417,7 +12439,7 @@
         <v>374</v>
       </c>
       <c r="K239" t="n">
-        <v>48</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L239" t="n">
         <v>496.1</v>
@@ -12468,7 +12490,7 @@
         <v>382</v>
       </c>
       <c r="K240" t="n">
-        <v>60.71428571428571</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L240" t="n">
         <v>497.6</v>
@@ -12519,7 +12541,7 @@
         <v>384</v>
       </c>
       <c r="K241" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L241" t="n">
         <v>499.3</v>
@@ -12570,7 +12592,7 @@
         <v>388</v>
       </c>
       <c r="K242" t="n">
-        <v>45.45454545454545</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L242" t="n">
         <v>500.3</v>
@@ -12621,7 +12643,7 @@
         <v>390</v>
       </c>
       <c r="K243" t="n">
-        <v>38.18181818181819</v>
+        <v>50</v>
       </c>
       <c r="L243" t="n">
         <v>501.2</v>
@@ -12672,7 +12694,7 @@
         <v>391</v>
       </c>
       <c r="K244" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L244" t="n">
         <v>502.5</v>
@@ -12723,7 +12745,7 @@
         <v>392</v>
       </c>
       <c r="K245" t="n">
-        <v>35.84905660377358</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L245" t="n">
         <v>503.8</v>
@@ -12774,7 +12796,7 @@
         <v>393</v>
       </c>
       <c r="K246" t="n">
-        <v>34.61538461538461</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L246" t="n">
         <v>505</v>
@@ -12825,7 +12847,7 @@
         <v>395</v>
       </c>
       <c r="K247" t="n">
-        <v>25.49019607843137</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L247" t="n">
         <v>505.5</v>
@@ -12876,7 +12898,7 @@
         <v>399</v>
       </c>
       <c r="K248" t="n">
-        <v>11.53846153846154</v>
+        <v>-12</v>
       </c>
       <c r="L248" t="n">
         <v>505.4</v>
@@ -12927,7 +12949,7 @@
         <v>400</v>
       </c>
       <c r="K249" t="n">
-        <v>17.64705882352941</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L249" t="n">
         <v>505.2</v>
@@ -12978,7 +13000,7 @@
         <v>407</v>
       </c>
       <c r="K250" t="n">
-        <v>22.22222222222222</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L250" t="n">
         <v>504.9</v>
@@ -13029,7 +13051,7 @@
         <v>414</v>
       </c>
       <c r="K251" t="n">
-        <v>31.14754098360656</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L251" t="n">
         <v>505.1</v>
@@ -13080,7 +13102,7 @@
         <v>419</v>
       </c>
       <c r="K252" t="n">
-        <v>17.46031746031746</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L252" t="n">
         <v>505.2</v>
@@ -13131,7 +13153,7 @@
         <v>419</v>
       </c>
       <c r="K253" t="n">
-        <v>19.35483870967742</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L253" t="n">
         <v>505.5</v>
@@ -13182,7 +13204,7 @@
         <v>421</v>
       </c>
       <c r="K254" t="n">
-        <v>25.42372881355932</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L254" t="n">
         <v>505.7</v>
@@ -13233,7 +13255,7 @@
         <v>423</v>
       </c>
       <c r="K255" t="n">
-        <v>30</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>506.2</v>
@@ -13335,7 +13357,7 @@
         <v>433</v>
       </c>
       <c r="K257" t="n">
-        <v>17.46031746031746</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L257" t="n">
         <v>507.7</v>
@@ -13386,7 +13408,7 @@
         <v>436</v>
       </c>
       <c r="K258" t="n">
-        <v>18.75</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>509</v>
@@ -13437,7 +13459,7 @@
         <v>436</v>
       </c>
       <c r="K259" t="n">
-        <v>16.12903225806452</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L259" t="n">
         <v>510.2</v>
@@ -13488,7 +13510,7 @@
         <v>437</v>
       </c>
       <c r="K260" t="n">
-        <v>1.818181818181818</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L260" t="n">
         <v>510.6</v>
@@ -13539,7 +13561,7 @@
         <v>440</v>
       </c>
       <c r="K261" t="n">
-        <v>-7.142857142857142</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L261" t="n">
         <v>510</v>
@@ -13590,7 +13612,7 @@
         <v>442</v>
       </c>
       <c r="K262" t="n">
-        <v>-3.703703703703703</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L262" t="n">
         <v>509.7</v>
@@ -13641,7 +13663,7 @@
         <v>445</v>
       </c>
       <c r="K263" t="n">
-        <v>5.454545454545454</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L263" t="n">
         <v>509.7</v>
@@ -13692,7 +13714,7 @@
         <v>446</v>
       </c>
       <c r="K264" t="n">
-        <v>9.090909090909092</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L264" t="n">
         <v>510</v>
@@ -13743,7 +13765,7 @@
         <v>446</v>
       </c>
       <c r="K265" t="n">
-        <v>11.11111111111111</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L265" t="n">
         <v>510.1</v>
@@ -13794,7 +13816,7 @@
         <v>452</v>
       </c>
       <c r="K266" t="n">
-        <v>18.64406779661017</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L266" t="n">
         <v>510.3</v>
@@ -13845,7 +13867,7 @@
         <v>455</v>
       </c>
       <c r="K267" t="n">
-        <v>26.66666666666667</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L267" t="n">
         <v>511.3</v>
@@ -13896,7 +13918,7 @@
         <v>458</v>
       </c>
       <c r="K268" t="n">
-        <v>28.8135593220339</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L268" t="n">
         <v>511.7</v>
@@ -13947,7 +13969,7 @@
         <v>460</v>
       </c>
       <c r="K269" t="n">
-        <v>23.33333333333333</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L269" t="n">
         <v>511.9</v>
@@ -13998,7 +14020,7 @@
         <v>463</v>
       </c>
       <c r="K270" t="n">
-        <v>17.85714285714286</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L270" t="n">
         <v>512.5</v>
@@ -14049,7 +14071,7 @@
         <v>465</v>
       </c>
       <c r="K271" t="n">
-        <v>1.96078431372549</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L271" t="n">
         <v>513.2</v>
@@ -14100,7 +14122,7 @@
         <v>465</v>
       </c>
       <c r="K272" t="n">
-        <v>13.04347826086956</v>
+        <v>30</v>
       </c>
       <c r="L272" t="n">
         <v>514.1</v>
@@ -14151,7 +14173,7 @@
         <v>467</v>
       </c>
       <c r="K273" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>514.9</v>
@@ -14202,7 +14224,7 @@
         <v>470</v>
       </c>
       <c r="K274" t="n">
-        <v>14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L274" t="n">
         <v>515.3</v>
@@ -14253,7 +14275,7 @@
         <v>470</v>
       </c>
       <c r="K275" t="n">
-        <v>10.63829787234043</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L275" t="n">
         <v>515.7</v>
@@ -14304,7 +14326,7 @@
         <v>473</v>
       </c>
       <c r="K276" t="n">
-        <v>-6.666666666666667</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L276" t="n">
         <v>515.2</v>
@@ -14355,7 +14377,7 @@
         <v>476</v>
       </c>
       <c r="K277" t="n">
-        <v>11.62790697674419</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L277" t="n">
         <v>514.7</v>
@@ -14406,7 +14428,7 @@
         <v>477</v>
       </c>
       <c r="K278" t="n">
-        <v>2.439024390243902</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L278" t="n">
         <v>514.4</v>
@@ -14457,7 +14479,7 @@
         <v>478</v>
       </c>
       <c r="K279" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L279" t="n">
         <v>514.4</v>
@@ -14508,7 +14530,7 @@
         <v>480</v>
       </c>
       <c r="K280" t="n">
-        <v>11.62790697674419</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L280" t="n">
         <v>514.3</v>
@@ -14559,7 +14581,7 @@
         <v>481</v>
       </c>
       <c r="K281" t="n">
-        <v>21.95121951219512</v>
+        <v>12.5</v>
       </c>
       <c r="L281" t="n">
         <v>514.5</v>
@@ -14610,7 +14632,7 @@
         <v>482</v>
       </c>
       <c r="K282" t="n">
-        <v>25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L282" t="n">
         <v>514.6</v>
@@ -14661,7 +14683,7 @@
         <v>482</v>
       </c>
       <c r="K283" t="n">
-        <v>18.91891891891892</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L283" t="n">
         <v>514.5</v>
@@ -14712,7 +14734,7 @@
         <v>483</v>
       </c>
       <c r="K284" t="n">
-        <v>18.91891891891892</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L284" t="n">
         <v>514.8</v>
@@ -14763,7 +14785,7 @@
         <v>485</v>
       </c>
       <c r="K285" t="n">
-        <v>23.07692307692308</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L285" t="n">
         <v>515.3</v>
@@ -14814,7 +14836,7 @@
         <v>486</v>
       </c>
       <c r="K286" t="n">
-        <v>5.88235294117647</v>
+        <v>40</v>
       </c>
       <c r="L286" t="n">
         <v>516</v>
@@ -14865,7 +14887,7 @@
         <v>487</v>
       </c>
       <c r="K287" t="n">
-        <v>-6.25</v>
+        <v>40</v>
       </c>
       <c r="L287" t="n">
         <v>516.3</v>
@@ -14916,7 +14938,7 @@
         <v>488</v>
       </c>
       <c r="K288" t="n">
-        <v>6.666666666666667</v>
+        <v>40</v>
       </c>
       <c r="L288" t="n">
         <v>516.8</v>
@@ -14967,7 +14989,7 @@
         <v>490</v>
       </c>
       <c r="K289" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>517</v>
@@ -15018,7 +15040,7 @@
         <v>490</v>
       </c>
       <c r="K290" t="n">
-        <v>-3.703703703703703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L290" t="n">
         <v>517</v>
@@ -15069,7 +15091,7 @@
         <v>491</v>
       </c>
       <c r="K291" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L291" t="n">
         <v>517</v>
@@ -15120,7 +15142,7 @@
         <v>492</v>
       </c>
       <c r="K292" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>517</v>
@@ -15171,7 +15193,7 @@
         <v>493</v>
       </c>
       <c r="K293" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L293" t="n">
         <v>516.9</v>
@@ -15222,7 +15244,7 @@
         <v>497</v>
       </c>
       <c r="K294" t="n">
-        <v>-11.11111111111111</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L294" t="n">
         <v>516.3</v>
@@ -15273,7 +15295,7 @@
         <v>500</v>
       </c>
       <c r="K295" t="n">
-        <v>-20</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L295" t="n">
         <v>515.2</v>
@@ -15324,7 +15346,7 @@
         <v>507</v>
       </c>
       <c r="K296" t="n">
-        <v>-29.41176470588236</v>
+        <v>-80</v>
       </c>
       <c r="L296" t="n">
         <v>513.5</v>
@@ -15375,7 +15397,7 @@
         <v>512</v>
       </c>
       <c r="K297" t="n">
-        <v>-22.22222222222222</v>
+        <v>-50</v>
       </c>
       <c r="L297" t="n">
         <v>512.4</v>
@@ -15426,7 +15448,7 @@
         <v>513</v>
       </c>
       <c r="K298" t="n">
-        <v>-16.66666666666666</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L298" t="n">
         <v>511.3</v>
@@ -15477,7 +15499,7 @@
         <v>513</v>
       </c>
       <c r="K299" t="n">
-        <v>-20</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L299" t="n">
         <v>510.4</v>
@@ -15528,7 +15550,7 @@
         <v>514</v>
       </c>
       <c r="K300" t="n">
-        <v>-23.52941176470588</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L300" t="n">
         <v>509.6</v>
@@ -15579,7 +15601,7 @@
         <v>517</v>
       </c>
       <c r="K301" t="n">
-        <v>-33.33333333333333</v>
+        <v>-44</v>
       </c>
       <c r="L301" t="n">
         <v>508.4</v>
@@ -15630,7 +15652,7 @@
         <v>517</v>
       </c>
       <c r="K302" t="n">
-        <v>-31.42857142857143</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L302" t="n">
         <v>507.3</v>
@@ -15681,7 +15703,7 @@
         <v>518</v>
       </c>
       <c r="K303" t="n">
-        <v>-27.77777777777778</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L303" t="n">
         <v>506.4</v>
@@ -15732,7 +15754,7 @@
         <v>518</v>
       </c>
       <c r="K304" t="n">
-        <v>-31.42857142857143</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L304" t="n">
         <v>505.9</v>
@@ -15783,7 +15805,7 @@
         <v>518</v>
       </c>
       <c r="K305" t="n">
-        <v>-39.39393939393939</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L305" t="n">
         <v>505.7</v>
@@ -15834,7 +15856,7 @@
         <v>518</v>
       </c>
       <c r="K306" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>506.2</v>
@@ -15885,7 +15907,7 @@
         <v>521</v>
       </c>
       <c r="K307" t="n">
-        <v>-23.52941176470588</v>
+        <v>25</v>
       </c>
       <c r="L307" t="n">
         <v>506.5</v>
@@ -15936,7 +15958,7 @@
         <v>522</v>
       </c>
       <c r="K308" t="n">
-        <v>-29.41176470588236</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L308" t="n">
         <v>506.6</v>
@@ -15987,7 +16009,7 @@
         <v>523</v>
       </c>
       <c r="K309" t="n">
-        <v>-27.27272727272727</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L309" t="n">
         <v>506.6</v>
@@ -16038,7 +16060,7 @@
         <v>527</v>
       </c>
       <c r="K310" t="n">
-        <v>-35.13513513513514</v>
+        <v>-20</v>
       </c>
       <c r="L310" t="n">
         <v>506.1</v>
@@ -16089,7 +16111,7 @@
         <v>535</v>
       </c>
       <c r="K311" t="n">
-        <v>-13.63636363636363</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L311" t="n">
         <v>506.7</v>
@@ -16140,7 +16162,7 @@
         <v>539</v>
       </c>
       <c r="K312" t="n">
-        <v>-19.14893617021277</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L312" t="n">
         <v>506.9</v>
@@ -16191,7 +16213,7 @@
         <v>540</v>
       </c>
       <c r="K313" t="n">
-        <v>-19.14893617021277</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>506.9</v>
@@ -16242,7 +16264,7 @@
         <v>543</v>
       </c>
       <c r="K314" t="n">
-        <v>-4.347826086956522</v>
+        <v>12</v>
       </c>
       <c r="L314" t="n">
         <v>507.2</v>
@@ -16293,7 +16315,7 @@
         <v>546</v>
       </c>
       <c r="K315" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>507.2</v>
@@ -16344,7 +16366,7 @@
         <v>548</v>
       </c>
       <c r="K316" t="n">
-        <v>7.317073170731707</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L316" t="n">
         <v>507</v>
@@ -16395,7 +16417,7 @@
         <v>549</v>
       </c>
       <c r="K317" t="n">
-        <v>-8.108108108108109</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L317" t="n">
         <v>506.4</v>
@@ -16446,7 +16468,7 @@
         <v>549</v>
       </c>
       <c r="K318" t="n">
-        <v>-11.11111111111111</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L318" t="n">
         <v>505.9</v>
@@ -16497,7 +16519,7 @@
         <v>549</v>
       </c>
       <c r="K319" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>505.5</v>
@@ -16548,7 +16570,7 @@
         <v>549</v>
       </c>
       <c r="K320" t="n">
-        <v>-14.28571428571428</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L320" t="n">
         <v>505.5</v>
@@ -16599,7 +16621,7 @@
         <v>550</v>
       </c>
       <c r="K321" t="n">
-        <v>-3.03030303030303</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L321" t="n">
         <v>504.8</v>
@@ -16650,7 +16672,7 @@
         <v>551</v>
       </c>
       <c r="K322" t="n">
-        <v>-5.88235294117647</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L322" t="n">
         <v>504.4</v>
@@ -16701,7 +16723,7 @@
         <v>554</v>
       </c>
       <c r="K323" t="n">
-        <v>-16.66666666666666</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L323" t="n">
         <v>503.8</v>
@@ -16752,7 +16774,7 @@
         <v>559</v>
       </c>
       <c r="K324" t="n">
-        <v>-26.82926829268293</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L324" t="n">
         <v>502.4</v>
@@ -16803,7 +16825,7 @@
         <v>560</v>
       </c>
       <c r="K325" t="n">
-        <v>-23.80952380952381</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L325" t="n">
         <v>501.4</v>
@@ -16854,7 +16876,7 @@
         <v>562</v>
       </c>
       <c r="K326" t="n">
-        <v>-27.27272727272727</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L326" t="n">
         <v>500.4</v>
@@ -16905,7 +16927,7 @@
         <v>564</v>
       </c>
       <c r="K327" t="n">
-        <v>-39.53488372093023</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L327" t="n">
         <v>499.3</v>
@@ -16956,7 +16978,7 @@
         <v>565</v>
       </c>
       <c r="K328" t="n">
-        <v>-39.53488372093023</v>
+        <v>-75</v>
       </c>
       <c r="L328" t="n">
         <v>498.1</v>
@@ -17007,7 +17029,7 @@
         <v>568</v>
       </c>
       <c r="K329" t="n">
-        <v>-28.88888888888889</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L329" t="n">
         <v>497.2</v>
@@ -17058,7 +17080,7 @@
         <v>572</v>
       </c>
       <c r="K330" t="n">
-        <v>-11.11111111111111</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L330" t="n">
         <v>496.7</v>
@@ -17109,7 +17131,7 @@
         <v>572</v>
       </c>
       <c r="K331" t="n">
-        <v>-35.13513513513514</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L331" t="n">
         <v>496.1</v>
@@ -17160,7 +17182,7 @@
         <v>573</v>
       </c>
       <c r="K332" t="n">
-        <v>-29.41176470588236</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L332" t="n">
         <v>495.5</v>
@@ -17211,7 +17233,7 @@
         <v>573</v>
       </c>
       <c r="K333" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L333" t="n">
         <v>495.2</v>
@@ -17262,7 +17284,7 @@
         <v>574</v>
       </c>
       <c r="K334" t="n">
-        <v>-35.48387096774194</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L334" t="n">
         <v>495.5</v>
@@ -17313,7 +17335,7 @@
         <v>575</v>
       </c>
       <c r="K335" t="n">
-        <v>-31.03448275862069</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L335" t="n">
         <v>495.6</v>
@@ -17364,7 +17386,7 @@
         <v>576</v>
       </c>
       <c r="K336" t="n">
-        <v>-21.42857142857143</v>
+        <v>50</v>
       </c>
       <c r="L336" t="n">
         <v>496</v>
@@ -17415,7 +17437,7 @@
         <v>577</v>
       </c>
       <c r="K337" t="n">
-        <v>-21.42857142857143</v>
+        <v>50</v>
       </c>
       <c r="L337" t="n">
         <v>496.5</v>
@@ -17466,7 +17488,7 @@
         <v>577</v>
       </c>
       <c r="K338" t="n">
-        <v>-21.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L338" t="n">
         <v>497.1</v>
@@ -17517,7 +17539,7 @@
         <v>579</v>
       </c>
       <c r="K339" t="n">
-        <v>-13.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L339" t="n">
         <v>497.6</v>
@@ -17568,7 +17590,7 @@
         <v>580</v>
       </c>
       <c r="K340" t="n">
-        <v>-16.12903225806452</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>497.6</v>
@@ -17619,7 +17641,7 @@
         <v>582</v>
       </c>
       <c r="K341" t="n">
-        <v>-12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L341" t="n">
         <v>497.8</v>
@@ -17670,7 +17692,7 @@
         <v>584</v>
       </c>
       <c r="K342" t="n">
-        <v>-3.03030303030303</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L342" t="n">
         <v>498.3</v>
@@ -17721,7 +17743,7 @@
         <v>585</v>
       </c>
       <c r="K343" t="n">
-        <v>9.67741935483871</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L343" t="n">
         <v>498.9</v>
@@ -17772,7 +17794,7 @@
         <v>588</v>
       </c>
       <c r="K344" t="n">
-        <v>37.93103448275862</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L344" t="n">
         <v>499.7</v>
@@ -17823,7 +17845,7 @@
         <v>589</v>
       </c>
       <c r="K345" t="n">
-        <v>31.03448275862069</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L345" t="n">
         <v>500.5</v>
@@ -17874,7 +17896,7 @@
         <v>590</v>
       </c>
       <c r="K346" t="n">
-        <v>42.85714285714285</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L346" t="n">
         <v>501.3</v>
@@ -17925,7 +17947,7 @@
         <v>590</v>
       </c>
       <c r="K347" t="n">
-        <v>53.84615384615385</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L347" t="n">
         <v>502.2</v>
@@ -17976,7 +17998,7 @@
         <v>594</v>
       </c>
       <c r="K348" t="n">
-        <v>37.93103448275862</v>
+        <v>20</v>
       </c>
       <c r="L348" t="n">
         <v>502.7</v>
@@ -18027,7 +18049,7 @@
         <v>594</v>
       </c>
       <c r="K349" t="n">
-        <v>30.76923076923077</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L349" t="n">
         <v>503</v>
@@ -18078,7 +18100,7 @@
         <v>596</v>
       </c>
       <c r="K350" t="n">
-        <v>25</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L350" t="n">
         <v>503.6</v>
@@ -18129,7 +18151,7 @@
         <v>596</v>
       </c>
       <c r="K351" t="n">
-        <v>25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L351" t="n">
         <v>504</v>
@@ -18180,7 +18202,7 @@
         <v>598</v>
       </c>
       <c r="K352" t="n">
-        <v>36</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L352" t="n">
         <v>504.4</v>
@@ -18231,7 +18253,7 @@
         <v>599</v>
       </c>
       <c r="K353" t="n">
-        <v>38.46153846153847</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L353" t="n">
         <v>504.8</v>
@@ -18282,7 +18304,7 @@
         <v>600</v>
       </c>
       <c r="K354" t="n">
-        <v>38.46153846153847</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L354" t="n">
         <v>505</v>
@@ -18333,7 +18355,7 @@
         <v>602</v>
       </c>
       <c r="K355" t="n">
-        <v>48.14814814814815</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>505.5</v>
@@ -18384,7 +18406,7 @@
         <v>602</v>
       </c>
       <c r="K356" t="n">
-        <v>46.15384615384615</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L356" t="n">
         <v>505.9</v>
@@ -18435,7 +18457,7 @@
         <v>604</v>
       </c>
       <c r="K357" t="n">
-        <v>40.74074074074074</v>
+        <v>60</v>
       </c>
       <c r="L357" t="n">
         <v>506.1</v>
@@ -18486,7 +18508,7 @@
         <v>605</v>
       </c>
       <c r="K358" t="n">
-        <v>35.71428571428572</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L358" t="n">
         <v>506.6</v>
@@ -18537,7 +18559,7 @@
         <v>607</v>
       </c>
       <c r="K359" t="n">
-        <v>35.71428571428572</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L359" t="n">
         <v>507.3</v>
@@ -18588,7 +18610,7 @@
         <v>608</v>
       </c>
       <c r="K360" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L360" t="n">
         <v>507.9</v>
@@ -18639,7 +18661,7 @@
         <v>610</v>
       </c>
       <c r="K361" t="n">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L361" t="n">
         <v>508.3</v>
@@ -18690,7 +18712,7 @@
         <v>611</v>
       </c>
       <c r="K362" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>508.4</v>
@@ -18741,7 +18763,7 @@
         <v>612</v>
       </c>
       <c r="K363" t="n">
-        <v>11.11111111111111</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L363" t="n">
         <v>508.3</v>
@@ -18792,7 +18814,7 @@
         <v>612</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L364" t="n">
         <v>508.1</v>
@@ -18843,7 +18865,7 @@
         <v>615</v>
       </c>
       <c r="K365" t="n">
-        <v>-7.692307692307693</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L365" t="n">
         <v>507.4</v>
@@ -18894,7 +18916,7 @@
         <v>616</v>
       </c>
       <c r="K366" t="n">
-        <v>-15.38461538461539</v>
+        <v>-50</v>
       </c>
       <c r="L366" t="n">
         <v>506.6</v>
@@ -18945,7 +18967,7 @@
         <v>617</v>
       </c>
       <c r="K367" t="n">
-        <v>-18.51851851851852</v>
+        <v>-50</v>
       </c>
       <c r="L367" t="n">
         <v>505.9</v>
@@ -18996,7 +19018,7 @@
         <v>618</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L368" t="n">
         <v>505.4</v>
@@ -19047,7 +19069,7 @@
         <v>618</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="L369" t="n">
         <v>504.7</v>
@@ -19098,7 +19120,7 @@
         <v>618</v>
       </c>
       <c r="K370" t="n">
-        <v>-9.090909090909092</v>
+        <v>-75</v>
       </c>
       <c r="L370" t="n">
         <v>503.9</v>
@@ -19149,7 +19171,7 @@
         <v>619</v>
       </c>
       <c r="K371" t="n">
-        <v>-13.04347826086956</v>
+        <v>-75</v>
       </c>
       <c r="L371" t="n">
         <v>503.2</v>
@@ -19200,7 +19222,7 @@
         <v>621</v>
       </c>
       <c r="K372" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L372" t="n">
         <v>502.8</v>
@@ -19251,7 +19273,7 @@
         <v>623</v>
       </c>
       <c r="K373" t="n">
-        <v>-25</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L373" t="n">
         <v>502.3</v>
@@ -19353,7 +19375,7 @@
         <v>626</v>
       </c>
       <c r="K375" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>501.6</v>
@@ -19404,7 +19426,7 @@
         <v>628</v>
       </c>
       <c r="K376" t="n">
-        <v>-23.07692307692308</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L376" t="n">
         <v>501.8</v>
@@ -19455,7 +19477,7 @@
         <v>628</v>
       </c>
       <c r="K377" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L377" t="n">
         <v>502.1</v>
@@ -19506,7 +19528,7 @@
         <v>629</v>
       </c>
       <c r="K378" t="n">
-        <v>-16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L378" t="n">
         <v>502.2</v>
@@ -19557,7 +19579,7 @@
         <v>631</v>
       </c>
       <c r="K379" t="n">
-        <v>-33.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L379" t="n">
         <v>502.1</v>
@@ -19608,7 +19630,7 @@
         <v>631</v>
       </c>
       <c r="K380" t="n">
-        <v>-39.1304347826087</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>502</v>
@@ -19659,7 +19681,7 @@
         <v>632</v>
       </c>
       <c r="K381" t="n">
-        <v>-36.36363636363637</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L381" t="n">
         <v>501.9</v>
@@ -19710,7 +19732,7 @@
         <v>632</v>
       </c>
       <c r="K382" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L382" t="n">
         <v>501.6</v>
@@ -19761,7 +19783,7 @@
         <v>632</v>
       </c>
       <c r="K383" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>501.5</v>
@@ -19812,7 +19834,7 @@
         <v>632</v>
       </c>
       <c r="K384" t="n">
-        <v>-30</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L384" t="n">
         <v>501.5</v>
@@ -19863,7 +19885,7 @@
         <v>632</v>
       </c>
       <c r="K385" t="n">
-        <v>-17.64705882352941</v>
+        <v>-100</v>
       </c>
       <c r="L385" t="n">
         <v>501.3</v>
@@ -19914,7 +19936,7 @@
         <v>632</v>
       </c>
       <c r="K386" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L386" t="n">
         <v>500.9</v>
@@ -19965,7 +19987,7 @@
         <v>633</v>
       </c>
       <c r="K387" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L387" t="n">
         <v>500.4</v>
@@ -20016,7 +20038,7 @@
         <v>634</v>
       </c>
       <c r="K388" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L388" t="n">
         <v>500.1</v>
@@ -20067,7 +20089,7 @@
         <v>636</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L389" t="n">
         <v>500.2</v>
@@ -20118,7 +20140,7 @@
         <v>637</v>
       </c>
       <c r="K390" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L390" t="n">
         <v>500.2</v>
@@ -20169,7 +20191,7 @@
         <v>638</v>
       </c>
       <c r="K391" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>500.2</v>
@@ -20220,7 +20242,7 @@
         <v>638</v>
       </c>
       <c r="K392" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>500.2</v>
@@ -20271,7 +20293,7 @@
         <v>639</v>
       </c>
       <c r="K393" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L393" t="n">
         <v>500.1</v>
@@ -20373,7 +20395,7 @@
         <v>640</v>
       </c>
       <c r="K395" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>500.1</v>
@@ -20424,7 +20446,7 @@
         <v>640</v>
       </c>
       <c r="K396" t="n">
-        <v>-33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L396" t="n">
         <v>500.1</v>
@@ -20475,7 +20497,7 @@
         <v>642</v>
       </c>
       <c r="K397" t="n">
-        <v>-42.85714285714285</v>
+        <v>-25</v>
       </c>
       <c r="L397" t="n">
         <v>500</v>
@@ -20526,7 +20548,7 @@
         <v>644</v>
       </c>
       <c r="K398" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L398" t="n">
         <v>500</v>
@@ -20628,7 +20650,7 @@
         <v>645</v>
       </c>
       <c r="K400" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L400" t="n">
         <v>499.9</v>
@@ -20679,7 +20701,7 @@
         <v>645</v>
       </c>
       <c r="K401" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L401" t="n">
         <v>500</v>
@@ -20730,7 +20752,7 @@
         <v>648</v>
       </c>
       <c r="K402" t="n">
-        <v>25</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L402" t="n">
         <v>500.4</v>
@@ -20781,7 +20803,7 @@
         <v>649</v>
       </c>
       <c r="K403" t="n">
-        <v>29.41176470588236</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L403" t="n">
         <v>501</v>
@@ -20832,7 +20854,7 @@
         <v>649</v>
       </c>
       <c r="K404" t="n">
-        <v>29.41176470588236</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L404" t="n">
         <v>501.5</v>
@@ -20883,7 +20905,7 @@
         <v>651</v>
       </c>
       <c r="K405" t="n">
-        <v>15.78947368421053</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L405" t="n">
         <v>501.8</v>
@@ -20934,7 +20956,7 @@
         <v>654</v>
       </c>
       <c r="K406" t="n">
-        <v>27.27272727272727</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L406" t="n">
         <v>502.4</v>
@@ -20985,7 +21007,7 @@
         <v>654</v>
       </c>
       <c r="K407" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L407" t="n">
         <v>503.2</v>
@@ -21036,7 +21058,7 @@
         <v>657</v>
       </c>
       <c r="K408" t="n">
-        <v>39.1304347826087</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L408" t="n">
         <v>504.1</v>
@@ -21087,7 +21109,7 @@
         <v>660</v>
       </c>
       <c r="K409" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L409" t="n">
         <v>504.6</v>
@@ -21138,7 +21160,7 @@
         <v>662</v>
       </c>
       <c r="K410" t="n">
-        <v>28</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L410" t="n">
         <v>505.3</v>
@@ -21189,7 +21211,7 @@
         <v>663</v>
       </c>
       <c r="K411" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L411" t="n">
         <v>505.9</v>
@@ -21240,7 +21262,7 @@
         <v>664</v>
       </c>
       <c r="K412" t="n">
-        <v>30.76923076923077</v>
+        <v>20</v>
       </c>
       <c r="L412" t="n">
         <v>506.3</v>
@@ -21291,7 +21313,7 @@
         <v>666</v>
       </c>
       <c r="K413" t="n">
-        <v>25.92592592592592</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L413" t="n">
         <v>506.4</v>
@@ -21342,7 +21364,7 @@
         <v>669</v>
       </c>
       <c r="K414" t="n">
-        <v>31.03448275862069</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L414" t="n">
         <v>506.8</v>
@@ -21393,7 +21415,7 @@
         <v>670</v>
       </c>
       <c r="K415" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L415" t="n">
         <v>507.5</v>
@@ -21444,7 +21466,7 @@
         <v>673</v>
       </c>
       <c r="K416" t="n">
-        <v>39.39393939393939</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L416" t="n">
         <v>508.2</v>
@@ -21495,7 +21517,7 @@
         <v>674</v>
       </c>
       <c r="K417" t="n">
-        <v>50</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L417" t="n">
         <v>509</v>
@@ -21546,7 +21568,7 @@
         <v>675</v>
       </c>
       <c r="K418" t="n">
-        <v>48.38709677419355</v>
+        <v>60</v>
       </c>
       <c r="L418" t="n">
         <v>509.6</v>
@@ -21597,7 +21619,7 @@
         <v>676</v>
       </c>
       <c r="K419" t="n">
-        <v>41.93548387096774</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L419" t="n">
         <v>510.4</v>
@@ -21648,7 +21670,7 @@
         <v>676</v>
       </c>
       <c r="K420" t="n">
-        <v>41.93548387096774</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L420" t="n">
         <v>511</v>
@@ -21699,7 +21721,7 @@
         <v>676</v>
       </c>
       <c r="K421" t="n">
-        <v>41.93548387096774</v>
+        <v>50</v>
       </c>
       <c r="L421" t="n">
         <v>511.7</v>
@@ -21750,7 +21772,7 @@
         <v>676</v>
       </c>
       <c r="K422" t="n">
-        <v>35.71428571428572</v>
+        <v>80</v>
       </c>
       <c r="L422" t="n">
         <v>512.3</v>
@@ -21801,7 +21823,7 @@
         <v>677</v>
       </c>
       <c r="K423" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L423" t="n">
         <v>513</v>
@@ -21852,7 +21874,7 @@
         <v>678</v>
       </c>
       <c r="K424" t="n">
-        <v>24.13793103448276</v>
+        <v>25</v>
       </c>
       <c r="L424" t="n">
         <v>513.3</v>
@@ -21903,7 +21925,7 @@
         <v>681</v>
       </c>
       <c r="K425" t="n">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="L425" t="n">
         <v>513.2</v>
@@ -21954,7 +21976,7 @@
         <v>685</v>
       </c>
       <c r="K426" t="n">
-        <v>-3.225806451612903</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L426" t="n">
         <v>512.4</v>
@@ -22005,7 +22027,7 @@
         <v>691</v>
       </c>
       <c r="K427" t="n">
-        <v>13.51351351351351</v>
+        <v>-25</v>
       </c>
       <c r="L427" t="n">
         <v>512.1</v>
@@ -22056,7 +22078,7 @@
         <v>691</v>
       </c>
       <c r="K428" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L428" t="n">
         <v>511.7</v>
@@ -22107,7 +22129,7 @@
         <v>691</v>
       </c>
       <c r="K429" t="n">
-        <v>16.12903225806452</v>
+        <v>-20</v>
       </c>
       <c r="L429" t="n">
         <v>511.4</v>
@@ -22158,7 +22180,7 @@
         <v>692</v>
       </c>
       <c r="K430" t="n">
-        <v>13.33333333333333</v>
+        <v>-12.5</v>
       </c>
       <c r="L430" t="n">
         <v>511.2</v>
@@ -22209,7 +22231,7 @@
         <v>695</v>
       </c>
       <c r="K431" t="n">
-        <v>6.25</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L431" t="n">
         <v>510.7</v>
@@ -22260,7 +22282,7 @@
         <v>696</v>
       </c>
       <c r="K432" t="n">
-        <v>6.25</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L432" t="n">
         <v>510.3</v>
@@ -22311,7 +22333,7 @@
         <v>697</v>
       </c>
       <c r="K433" t="n">
-        <v>9.67741935483871</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L433" t="n">
         <v>509.9</v>
@@ -22362,7 +22384,7 @@
         <v>698</v>
       </c>
       <c r="K434" t="n">
-        <v>-3.448275862068965</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L434" t="n">
         <v>509.5</v>
@@ -22413,7 +22435,7 @@
         <v>700</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>509.6</v>
@@ -22464,7 +22486,7 @@
         <v>701</v>
       </c>
       <c r="K436" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>510.2</v>
@@ -22515,7 +22537,7 @@
         <v>702</v>
       </c>
       <c r="K437" t="n">
-        <v>-7.142857142857142</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L437" t="n">
         <v>510.3</v>
@@ -22566,7 +22588,7 @@
         <v>703</v>
       </c>
       <c r="K438" t="n">
-        <v>-7.142857142857142</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L438" t="n">
         <v>510.5</v>
@@ -22617,7 +22639,7 @@
         <v>704</v>
       </c>
       <c r="K439" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>510.6</v>
@@ -22668,7 +22690,7 @@
         <v>705</v>
       </c>
       <c r="K440" t="n">
-        <v>-10.3448275862069</v>
+        <v>20</v>
       </c>
       <c r="L440" t="n">
         <v>510.5</v>
@@ -22719,7 +22741,7 @@
         <v>706</v>
       </c>
       <c r="K441" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>510.6</v>
@@ -22770,7 +22792,7 @@
         <v>709</v>
       </c>
       <c r="K442" t="n">
-        <v>-3.03030303030303</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L442" t="n">
         <v>510.9</v>
@@ -22821,7 +22843,7 @@
         <v>711</v>
       </c>
       <c r="K443" t="n">
-        <v>-5.88235294117647</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L443" t="n">
         <v>511.1</v>
@@ -22872,7 +22894,7 @@
         <v>711</v>
       </c>
       <c r="K444" t="n">
-        <v>-3.03030303030303</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L444" t="n">
         <v>511.4</v>
@@ -22923,7 +22945,7 @@
         <v>712</v>
       </c>
       <c r="K445" t="n">
-        <v>3.225806451612903</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L445" t="n">
         <v>511.4</v>
@@ -22974,7 +22996,7 @@
         <v>712</v>
       </c>
       <c r="K446" t="n">
-        <v>18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L446" t="n">
         <v>511.3</v>
@@ -23025,7 +23047,7 @@
         <v>712</v>
       </c>
       <c r="K447" t="n">
-        <v>-4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L447" t="n">
         <v>511.1</v>
@@ -23076,7 +23098,7 @@
         <v>712</v>
       </c>
       <c r="K448" t="n">
-        <v>-4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L448" t="n">
         <v>510.8</v>
@@ -23178,7 +23200,7 @@
         <v>714</v>
       </c>
       <c r="K450" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
         <v>510.6</v>
@@ -23229,7 +23251,7 @@
         <v>714</v>
       </c>
       <c r="K451" t="n">
-        <v>5.263157894736842</v>
+        <v>-60</v>
       </c>
       <c r="L451" t="n">
         <v>510.6</v>
@@ -23280,7 +23302,7 @@
         <v>714</v>
       </c>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L452" t="n">
         <v>510.3</v>
@@ -23331,7 +23353,7 @@
         <v>716</v>
       </c>
       <c r="K453" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L453" t="n">
         <v>510.4</v>
@@ -23382,7 +23404,7 @@
         <v>717</v>
       </c>
       <c r="K454" t="n">
-        <v>26.31578947368421</v>
+        <v>60</v>
       </c>
       <c r="L454" t="n">
         <v>510.6</v>
@@ -23433,7 +23455,7 @@
         <v>719</v>
       </c>
       <c r="K455" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L455" t="n">
         <v>510.7</v>
@@ -23484,7 +23506,7 @@
         <v>721</v>
       </c>
       <c r="K456" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L456" t="n">
         <v>511</v>
@@ -23535,7 +23557,7 @@
         <v>722</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L457" t="n">
         <v>511.2</v>
@@ -23586,7 +23608,7 @@
         <v>723</v>
       </c>
       <c r="K458" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>511.3</v>
@@ -23637,7 +23659,7 @@
         <v>723</v>
       </c>
       <c r="K459" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L459" t="n">
         <v>511.3</v>
@@ -23688,7 +23710,7 @@
         <v>723</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L460" t="n">
         <v>511.4</v>
@@ -23739,7 +23761,7 @@
         <v>723</v>
       </c>
       <c r="K461" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L461" t="n">
         <v>511.5</v>
@@ -23790,7 +23812,7 @@
         <v>724</v>
       </c>
       <c r="K462" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>511.7</v>
@@ -23841,7 +23863,7 @@
         <v>724</v>
       </c>
       <c r="K463" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L463" t="n">
         <v>511.7</v>
@@ -23892,7 +23914,7 @@
         <v>724</v>
       </c>
       <c r="K464" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L464" t="n">
         <v>511.6</v>
@@ -23943,7 +23965,7 @@
         <v>726</v>
       </c>
       <c r="K465" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L465" t="n">
         <v>511.5</v>
@@ -23994,7 +24016,7 @@
         <v>727</v>
       </c>
       <c r="K466" t="n">
-        <v>-6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L466" t="n">
         <v>511.1</v>
@@ -24045,7 +24067,7 @@
         <v>728</v>
       </c>
       <c r="K467" t="n">
-        <v>-12.5</v>
+        <v>-60</v>
       </c>
       <c r="L467" t="n">
         <v>510.7</v>
@@ -24096,7 +24118,7 @@
         <v>729</v>
       </c>
       <c r="K468" t="n">
-        <v>-17.64705882352941</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L468" t="n">
         <v>510.3</v>
@@ -24147,7 +24169,7 @@
         <v>730</v>
       </c>
       <c r="K469" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L469" t="n">
         <v>510</v>
@@ -24198,7 +24220,7 @@
         <v>731</v>
       </c>
       <c r="K470" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L470" t="n">
         <v>509.8</v>
@@ -24249,7 +24271,7 @@
         <v>733</v>
       </c>
       <c r="K471" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L471" t="n">
         <v>509.8</v>
@@ -24300,7 +24322,7 @@
         <v>734</v>
       </c>
       <c r="K472" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L472" t="n">
         <v>509.6</v>
@@ -24351,7 +24373,7 @@
         <v>735</v>
       </c>
       <c r="K473" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L473" t="n">
         <v>509.5</v>
@@ -24402,7 +24424,7 @@
         <v>736</v>
       </c>
       <c r="K474" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>509.3</v>
@@ -24453,7 +24475,7 @@
         <v>738</v>
       </c>
       <c r="K475" t="n">
-        <v>5.263157894736842</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L475" t="n">
         <v>509.5</v>
@@ -24504,7 +24526,7 @@
         <v>740</v>
       </c>
       <c r="K476" t="n">
-        <v>-15.78947368421053</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L476" t="n">
         <v>509.6</v>
@@ -24555,7 +24577,7 @@
         <v>740</v>
       </c>
       <c r="K477" t="n">
-        <v>-11.11111111111111</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L477" t="n">
         <v>509.8</v>
@@ -24606,7 +24628,7 @@
         <v>742</v>
       </c>
       <c r="K478" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>509.9</v>
@@ -24657,7 +24679,7 @@
         <v>742</v>
       </c>
       <c r="K479" t="n">
-        <v>-15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L479" t="n">
         <v>509.9</v>
@@ -24708,7 +24730,7 @@
         <v>744</v>
       </c>
       <c r="K480" t="n">
-        <v>-4.761904761904762</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L480" t="n">
         <v>510</v>
@@ -24759,7 +24781,7 @@
         <v>746</v>
       </c>
       <c r="K481" t="n">
-        <v>-13.04347826086956</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L481" t="n">
         <v>509.7</v>
@@ -24810,7 +24832,7 @@
         <v>747</v>
       </c>
       <c r="K482" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L482" t="n">
         <v>509.4</v>
@@ -24861,7 +24883,7 @@
         <v>749</v>
       </c>
       <c r="K483" t="n">
-        <v>-12</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L483" t="n">
         <v>509.2</v>
@@ -24912,7 +24934,7 @@
         <v>751</v>
       </c>
       <c r="K484" t="n">
-        <v>-18.51851851851852</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L484" t="n">
         <v>508.9</v>
@@ -24963,7 +24985,7 @@
         <v>752</v>
       </c>
       <c r="K485" t="n">
-        <v>-15.38461538461539</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L485" t="n">
         <v>508.3</v>
@@ -25014,7 +25036,7 @@
         <v>753</v>
       </c>
       <c r="K486" t="n">
-        <v>-7.692307692307693</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L486" t="n">
         <v>508</v>
@@ -25065,7 +25087,7 @@
         <v>754</v>
       </c>
       <c r="K487" t="n">
-        <v>-7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L487" t="n">
         <v>507.6</v>
@@ -25116,7 +25138,7 @@
         <v>756</v>
       </c>
       <c r="K488" t="n">
-        <v>-11.11111111111111</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L488" t="n">
         <v>507.2</v>
@@ -25167,7 +25189,7 @@
         <v>756</v>
       </c>
       <c r="K489" t="n">
-        <v>-15.38461538461539</v>
+        <v>-50</v>
       </c>
       <c r="L489" t="n">
         <v>506.8</v>
@@ -25218,7 +25240,7 @@
         <v>757</v>
       </c>
       <c r="K490" t="n">
-        <v>-23.07692307692308</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L490" t="n">
         <v>506.1</v>
@@ -25269,7 +25291,7 @@
         <v>758</v>
       </c>
       <c r="K491" t="n">
-        <v>-28</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L491" t="n">
         <v>505.7</v>
@@ -25320,7 +25342,7 @@
         <v>759</v>
       </c>
       <c r="K492" t="n">
-        <v>-28</v>
+        <v>-60</v>
       </c>
       <c r="L492" t="n">
         <v>505.3</v>
@@ -25371,7 +25393,7 @@
         <v>760</v>
       </c>
       <c r="K493" t="n">
-        <v>-36</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L493" t="n">
         <v>504.6</v>
@@ -25422,7 +25444,7 @@
         <v>763</v>
       </c>
       <c r="K494" t="n">
-        <v>-18.51851851851852</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L494" t="n">
         <v>504.4</v>
@@ -25473,7 +25495,7 @@
         <v>766</v>
       </c>
       <c r="K495" t="n">
-        <v>-14.28571428571428</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L495" t="n">
         <v>504.6</v>
@@ -25524,7 +25546,7 @@
         <v>766</v>
       </c>
       <c r="K496" t="n">
-        <v>-7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L496" t="n">
         <v>504.7</v>
@@ -25575,7 +25597,7 @@
         <v>768</v>
       </c>
       <c r="K497" t="n">
-        <v>-14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L497" t="n">
         <v>504.7</v>
@@ -25626,7 +25648,7 @@
         <v>768</v>
       </c>
       <c r="K498" t="n">
-        <v>-7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L498" t="n">
         <v>504.9</v>
@@ -25677,7 +25699,7 @@
         <v>768</v>
       </c>
       <c r="K499" t="n">
-        <v>-7.692307692307693</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L499" t="n">
         <v>505.1</v>
@@ -25728,7 +25750,7 @@
         <v>771</v>
       </c>
       <c r="K500" t="n">
-        <v>-25.92592592592592</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L500" t="n">
         <v>505.1</v>
@@ -25779,7 +25801,7 @@
         <v>772</v>
       </c>
       <c r="K501" t="n">
-        <v>-15.38461538461539</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L501" t="n">
         <v>505.1</v>
@@ -25830,7 +25852,7 @@
         <v>775</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L502" t="n">
         <v>505.5</v>
@@ -25881,7 +25903,7 @@
         <v>778</v>
       </c>
       <c r="K503" t="n">
-        <v>-17.24137931034483</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L503" t="n">
         <v>505.7</v>
@@ -25932,7 +25954,7 @@
         <v>778</v>
       </c>
       <c r="K504" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L504" t="n">
         <v>505.6</v>
@@ -25983,7 +26005,7 @@
         <v>779</v>
       </c>
       <c r="K505" t="n">
-        <v>-11.11111111111111</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L505" t="n">
         <v>505.1</v>
@@ -26034,7 +26056,7 @@
         <v>780</v>
       </c>
       <c r="K506" t="n">
-        <v>-18.51851851851852</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L506" t="n">
         <v>504.5</v>
@@ -26085,7 +26107,7 @@
         <v>780</v>
       </c>
       <c r="K507" t="n">
-        <v>-15.38461538461539</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L507" t="n">
         <v>504.1</v>
@@ -26136,7 +26158,7 @@
         <v>780</v>
       </c>
       <c r="K508" t="n">
-        <v>-8.333333333333332</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L508" t="n">
         <v>503.7</v>
@@ -26187,7 +26209,7 @@
         <v>781</v>
       </c>
       <c r="K509" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L509" t="n">
         <v>503.4</v>
@@ -26238,7 +26260,7 @@
         <v>781</v>
       </c>
       <c r="K510" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L510" t="n">
         <v>503.4</v>
@@ -26289,7 +26311,7 @@
         <v>782</v>
       </c>
       <c r="K511" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L511" t="n">
         <v>503.4</v>
@@ -26340,7 +26362,7 @@
         <v>782</v>
       </c>
       <c r="K512" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L512" t="n">
         <v>503.1</v>
@@ -26391,7 +26413,7 @@
         <v>783</v>
       </c>
       <c r="K513" t="n">
-        <v>4.347826086956522</v>
+        <v>-20</v>
       </c>
       <c r="L513" t="n">
         <v>503</v>
@@ -26442,7 +26464,7 @@
         <v>784</v>
       </c>
       <c r="K514" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L514" t="n">
         <v>502.8</v>
@@ -26493,7 +26515,7 @@
         <v>787</v>
       </c>
       <c r="K515" t="n">
-        <v>-14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L515" t="n">
         <v>503</v>
@@ -26544,7 +26566,7 @@
         <v>787</v>
       </c>
       <c r="K516" t="n">
-        <v>-14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L516" t="n">
         <v>503.3</v>
@@ -26595,7 +26617,7 @@
         <v>791</v>
       </c>
       <c r="K517" t="n">
-        <v>-21.73913043478261</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L517" t="n">
         <v>503.2</v>
@@ -26646,7 +26668,7 @@
         <v>791</v>
       </c>
       <c r="K518" t="n">
-        <v>-21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L518" t="n">
         <v>503.1</v>
@@ -26697,7 +26719,7 @@
         <v>791</v>
       </c>
       <c r="K519" t="n">
-        <v>-21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L519" t="n">
         <v>502.9</v>
@@ -26748,7 +26770,7 @@
         <v>791</v>
       </c>
       <c r="K520" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L520" t="n">
         <v>502.7</v>
@@ -26799,7 +26821,7 @@
         <v>793</v>
       </c>
       <c r="K521" t="n">
-        <v>-4.761904761904762</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L521" t="n">
         <v>502.6</v>
@@ -26850,7 +26872,7 @@
         <v>793</v>
       </c>
       <c r="K522" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
         <v>502.5</v>
@@ -26901,7 +26923,7 @@
         <v>794</v>
       </c>
       <c r="K523" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L523" t="n">
         <v>502.6</v>
@@ -26952,7 +26974,7 @@
         <v>796</v>
       </c>
       <c r="K524" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L524" t="n">
         <v>502.6</v>
@@ -27003,7 +27025,7 @@
         <v>797</v>
       </c>
       <c r="K525" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L525" t="n">
         <v>502.4</v>
@@ -27054,7 +27076,7 @@
         <v>799</v>
       </c>
       <c r="K526" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L526" t="n">
         <v>502.4</v>
@@ -27105,7 +27127,7 @@
         <v>799</v>
       </c>
       <c r="K527" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L527" t="n">
         <v>502.8</v>
@@ -27156,7 +27178,7 @@
         <v>800</v>
       </c>
       <c r="K528" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>503.1</v>
@@ -27207,7 +27229,7 @@
         <v>801</v>
       </c>
       <c r="K529" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L529" t="n">
         <v>503.5</v>
@@ -27258,7 +27280,7 @@
         <v>801</v>
       </c>
       <c r="K530" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L530" t="n">
         <v>503.9</v>
@@ -27309,7 +27331,7 @@
         <v>802</v>
       </c>
       <c r="K531" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L531" t="n">
         <v>504</v>
@@ -27360,7 +27382,7 @@
         <v>805</v>
       </c>
       <c r="K532" t="n">
-        <v>13.04347826086956</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L532" t="n">
         <v>504.4</v>
@@ -27411,7 +27433,7 @@
         <v>805</v>
       </c>
       <c r="K533" t="n">
-        <v>18.18181818181818</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L533" t="n">
         <v>504.7</v>
@@ -27462,7 +27484,7 @@
         <v>805</v>
       </c>
       <c r="K534" t="n">
-        <v>23.80952380952381</v>
+        <v>50</v>
       </c>
       <c r="L534" t="n">
         <v>505.2</v>
@@ -27513,7 +27535,7 @@
         <v>808</v>
       </c>
       <c r="K535" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L535" t="n">
         <v>505.3</v>
@@ -27564,7 +27586,7 @@
         <v>808</v>
       </c>
       <c r="K536" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L536" t="n">
         <v>505.2</v>
@@ -27615,7 +27637,7 @@
         <v>808</v>
       </c>
       <c r="K537" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L537" t="n">
         <v>505.1</v>
@@ -27666,7 +27688,7 @@
         <v>808</v>
       </c>
       <c r="K538" t="n">
-        <v>17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L538" t="n">
         <v>505.1</v>
@@ -27717,7 +27739,7 @@
         <v>809</v>
       </c>
       <c r="K539" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L539" t="n">
         <v>505.1</v>
@@ -27768,7 +27790,7 @@
         <v>809</v>
       </c>
       <c r="K540" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L540" t="n">
         <v>505.1</v>
@@ -27819,7 +27841,7 @@
         <v>810</v>
       </c>
       <c r="K541" t="n">
-        <v>17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L541" t="n">
         <v>505.3</v>
@@ -27870,7 +27892,7 @@
         <v>810</v>
       </c>
       <c r="K542" t="n">
-        <v>17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L542" t="n">
         <v>505.2</v>
@@ -27921,7 +27943,7 @@
         <v>810</v>
       </c>
       <c r="K543" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L543" t="n">
         <v>505.1</v>
@@ -27972,7 +27994,7 @@
         <v>812</v>
       </c>
       <c r="K544" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L544" t="n">
         <v>504.8</v>
@@ -28023,7 +28045,7 @@
         <v>814</v>
       </c>
       <c r="K545" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L545" t="n">
         <v>505</v>
@@ -28074,7 +28096,7 @@
         <v>816</v>
       </c>
       <c r="K546" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L546" t="n">
         <v>505</v>
@@ -28176,7 +28198,7 @@
         <v>819</v>
       </c>
       <c r="K548" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L548" t="n">
         <v>505</v>
@@ -28227,7 +28249,7 @@
         <v>820</v>
       </c>
       <c r="K549" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L549" t="n">
         <v>505.1</v>
@@ -28278,7 +28300,7 @@
         <v>821</v>
       </c>
       <c r="K550" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L550" t="n">
         <v>505.3</v>
@@ -28329,7 +28351,7 @@
         <v>821</v>
       </c>
       <c r="K551" t="n">
-        <v>15.78947368421053</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L551" t="n">
         <v>505.4</v>
@@ -28380,7 +28402,7 @@
         <v>821</v>
       </c>
       <c r="K552" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L552" t="n">
         <v>505.5</v>
@@ -28431,7 +28453,7 @@
         <v>822</v>
       </c>
       <c r="K553" t="n">
-        <v>5.88235294117647</v>
+        <v>40</v>
       </c>
       <c r="L553" t="n">
         <v>505.7</v>
@@ -28482,7 +28504,7 @@
         <v>824</v>
       </c>
       <c r="K554" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
         <v>505.9</v>
@@ -28533,7 +28555,7 @@
         <v>825</v>
       </c>
       <c r="K555" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L555" t="n">
         <v>506</v>
@@ -28584,7 +28606,7 @@
         <v>827</v>
       </c>
       <c r="K556" t="n">
-        <v>26.31578947368421</v>
+        <v>60</v>
       </c>
       <c r="L556" t="n">
         <v>506.5</v>
@@ -28635,7 +28657,7 @@
         <v>828</v>
       </c>
       <c r="K557" t="n">
-        <v>30</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L557" t="n">
         <v>507.2</v>
@@ -28686,7 +28708,7 @@
         <v>830</v>
       </c>
       <c r="K558" t="n">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L558" t="n">
         <v>507.5</v>
@@ -28737,7 +28759,7 @@
         <v>833</v>
       </c>
       <c r="K559" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L559" t="n">
         <v>508</v>
@@ -28788,7 +28810,7 @@
         <v>833</v>
       </c>
       <c r="K560" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L560" t="n">
         <v>508.4</v>
@@ -28839,7 +28861,7 @@
         <v>833</v>
       </c>
       <c r="K561" t="n">
-        <v>21.73913043478261</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L561" t="n">
         <v>508.8</v>
@@ -28941,7 +28963,7 @@
         <v>836</v>
       </c>
       <c r="K563" t="n">
-        <v>7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L563" t="n">
         <v>509.1</v>
@@ -28992,7 +29014,7 @@
         <v>836</v>
       </c>
       <c r="K564" t="n">
-        <v>16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L564" t="n">
         <v>509.3</v>
@@ -29043,7 +29065,7 @@
         <v>836</v>
       </c>
       <c r="K565" t="n">
-        <v>9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L565" t="n">
         <v>509.4</v>
@@ -29094,7 +29116,7 @@
         <v>838</v>
       </c>
       <c r="K566" t="n">
-        <v>9.090909090909092</v>
+        <v>-40</v>
       </c>
       <c r="L566" t="n">
         <v>509.1</v>
@@ -29145,7 +29167,7 @@
         <v>839</v>
       </c>
       <c r="K567" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L567" t="n">
         <v>508.6</v>
@@ -29196,7 +29218,7 @@
         <v>840</v>
       </c>
       <c r="K568" t="n">
-        <v>-4.761904761904762</v>
+        <v>-100</v>
       </c>
       <c r="L568" t="n">
         <v>508.2</v>
@@ -29247,7 +29269,7 @@
         <v>842</v>
       </c>
       <c r="K569" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L569" t="n">
         <v>507.7</v>
@@ -29298,7 +29320,7 @@
         <v>843</v>
       </c>
       <c r="K570" t="n">
-        <v>-9.090909090909092</v>
+        <v>-60</v>
       </c>
       <c r="L570" t="n">
         <v>507.1</v>
@@ -29349,7 +29371,7 @@
         <v>843</v>
       </c>
       <c r="K571" t="n">
-        <v>-9.090909090909092</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L571" t="n">
         <v>506.5</v>
@@ -29400,7 +29422,7 @@
         <v>843</v>
       </c>
       <c r="K572" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L572" t="n">
         <v>506</v>
@@ -29451,7 +29473,7 @@
         <v>844</v>
       </c>
       <c r="K573" t="n">
-        <v>-18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L573" t="n">
         <v>505.6</v>
@@ -29502,7 +29524,7 @@
         <v>844</v>
       </c>
       <c r="K574" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="L574" t="n">
         <v>505.2</v>
@@ -29553,7 +29575,7 @@
         <v>846</v>
       </c>
       <c r="K575" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L575" t="n">
         <v>505</v>
@@ -29604,7 +29626,7 @@
         <v>847</v>
       </c>
       <c r="K576" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L576" t="n">
         <v>504.9</v>
@@ -29655,7 +29677,7 @@
         <v>848</v>
       </c>
       <c r="K577" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L577" t="n">
         <v>504.8</v>
@@ -29706,7 +29728,7 @@
         <v>849</v>
       </c>
       <c r="K578" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L578" t="n">
         <v>504.7</v>
@@ -29757,7 +29779,7 @@
         <v>851</v>
       </c>
       <c r="K579" t="n">
-        <v>-55.55555555555556</v>
+        <v>-50</v>
       </c>
       <c r="L579" t="n">
         <v>504.2</v>
@@ -29808,7 +29830,7 @@
         <v>851</v>
       </c>
       <c r="K580" t="n">
-        <v>-55.55555555555556</v>
+        <v>-50</v>
       </c>
       <c r="L580" t="n">
         <v>503.8</v>
@@ -29859,7 +29881,7 @@
         <v>852</v>
       </c>
       <c r="K581" t="n">
-        <v>-47.36842105263158</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L581" t="n">
         <v>503.5</v>
@@ -29910,7 +29932,7 @@
         <v>852</v>
       </c>
       <c r="K582" t="n">
-        <v>-44.44444444444444</v>
+        <v>-25</v>
       </c>
       <c r="L582" t="n">
         <v>503.2</v>
@@ -29961,7 +29983,7 @@
         <v>853</v>
       </c>
       <c r="K583" t="n">
-        <v>-41.17647058823529</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L583" t="n">
         <v>502.9</v>
@@ -30012,7 +30034,7 @@
         <v>854</v>
       </c>
       <c r="K584" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L584" t="n">
         <v>502.7</v>
@@ -30063,7 +30085,7 @@
         <v>854</v>
       </c>
       <c r="K585" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L585" t="n">
         <v>502.3</v>
@@ -30114,7 +30136,7 @@
         <v>854</v>
       </c>
       <c r="K586" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L586" t="n">
         <v>502</v>
@@ -30216,7 +30238,7 @@
         <v>855</v>
       </c>
       <c r="K588" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L588" t="n">
         <v>501.6</v>
@@ -30267,7 +30289,7 @@
         <v>855</v>
       </c>
       <c r="K589" t="n">
-        <v>-38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>501.6</v>
@@ -30369,7 +30391,7 @@
         <v>856</v>
       </c>
       <c r="K591" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L591" t="n">
         <v>501.6</v>
@@ -30420,7 +30442,7 @@
         <v>856</v>
       </c>
       <c r="K592" t="n">
-        <v>-23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L592" t="n">
         <v>501.6</v>
@@ -30471,7 +30493,7 @@
         <v>858</v>
       </c>
       <c r="K593" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L593" t="n">
         <v>501.5</v>
@@ -30522,7 +30544,7 @@
         <v>859</v>
       </c>
       <c r="K594" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L594" t="n">
         <v>501.2</v>
@@ -30573,7 +30595,7 @@
         <v>862</v>
       </c>
       <c r="K595" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L595" t="n">
         <v>501.2</v>
@@ -30624,7 +30646,7 @@
         <v>862</v>
       </c>
       <c r="K596" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L596" t="n">
         <v>501.2</v>
@@ -30675,7 +30697,7 @@
         <v>864</v>
       </c>
       <c r="K597" t="n">
-        <v>-25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L597" t="n">
         <v>501</v>
@@ -30726,7 +30748,7 @@
         <v>866</v>
       </c>
       <c r="K598" t="n">
-        <v>-5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L598" t="n">
         <v>501.1</v>
@@ -30777,7 +30799,7 @@
         <v>868</v>
       </c>
       <c r="K599" t="n">
-        <v>-5.88235294117647</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L599" t="n">
         <v>501</v>
@@ -30828,7 +30850,7 @@
         <v>868</v>
       </c>
       <c r="K600" t="n">
-        <v>-5.88235294117647</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L600" t="n">
         <v>500.9</v>
@@ -30879,7 +30901,7 @@
         <v>869</v>
       </c>
       <c r="K601" t="n">
-        <v>-17.64705882352941</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L601" t="n">
         <v>500.6</v>
@@ -30930,7 +30952,7 @@
         <v>870</v>
       </c>
       <c r="K602" t="n">
-        <v>-22.22222222222222</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L602" t="n">
         <v>500.2</v>
@@ -30981,7 +31003,7 @@
         <v>870</v>
       </c>
       <c r="K603" t="n">
-        <v>-17.64705882352941</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L603" t="n">
         <v>500</v>
@@ -31032,7 +31054,7 @@
         <v>870</v>
       </c>
       <c r="K604" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L604" t="n">
         <v>499.9</v>
@@ -31083,7 +31105,7 @@
         <v>870</v>
       </c>
       <c r="K605" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L605" t="n">
         <v>499.5</v>
@@ -31134,7 +31156,7 @@
         <v>870</v>
       </c>
       <c r="K606" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L606" t="n">
         <v>499.1</v>
@@ -31185,7 +31207,7 @@
         <v>872</v>
       </c>
       <c r="K607" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L607" t="n">
         <v>499.1</v>
@@ -31236,7 +31258,7 @@
         <v>873</v>
       </c>
       <c r="K608" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L608" t="n">
         <v>498.8</v>
@@ -31287,7 +31309,7 @@
         <v>873</v>
       </c>
       <c r="K609" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L609" t="n">
         <v>498.7</v>
@@ -31338,7 +31360,7 @@
         <v>874</v>
       </c>
       <c r="K610" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L610" t="n">
         <v>498.5</v>
@@ -31389,7 +31411,7 @@
         <v>876</v>
       </c>
       <c r="K611" t="n">
-        <v>-10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L611" t="n">
         <v>498.6</v>
@@ -31440,7 +31462,7 @@
         <v>876</v>
       </c>
       <c r="K612" t="n">
-        <v>-10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L612" t="n">
         <v>498.8</v>
@@ -31491,7 +31513,7 @@
         <v>879</v>
       </c>
       <c r="K613" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L613" t="n">
         <v>498.7</v>
@@ -31542,7 +31564,7 @@
         <v>879</v>
       </c>
       <c r="K614" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L614" t="n">
         <v>498.6</v>
@@ -31593,7 +31615,7 @@
         <v>880</v>
       </c>
       <c r="K615" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L615" t="n">
         <v>498.4</v>
@@ -31644,7 +31666,7 @@
         <v>881</v>
       </c>
       <c r="K616" t="n">
-        <v>-36.84210526315789</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L616" t="n">
         <v>498.1</v>
@@ -31695,7 +31717,7 @@
         <v>881</v>
       </c>
       <c r="K617" t="n">
-        <v>-29.41176470588236</v>
+        <v>-50</v>
       </c>
       <c r="L617" t="n">
         <v>497.6</v>
@@ -31746,7 +31768,7 @@
         <v>882</v>
       </c>
       <c r="K618" t="n">
-        <v>-50</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L618" t="n">
         <v>497.1</v>
@@ -31797,7 +31819,7 @@
         <v>882</v>
       </c>
       <c r="K619" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L619" t="n">
         <v>496.6</v>
@@ -31848,7 +31870,7 @@
         <v>885</v>
       </c>
       <c r="K620" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L620" t="n">
         <v>496.5</v>
@@ -31899,7 +31921,7 @@
         <v>885</v>
       </c>
       <c r="K621" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L621" t="n">
         <v>496.2</v>
@@ -31950,7 +31972,7 @@
         <v>885</v>
       </c>
       <c r="K622" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L622" t="n">
         <v>495.9</v>
@@ -32001,7 +32023,7 @@
         <v>886</v>
       </c>
       <c r="K623" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L623" t="n">
         <v>496</v>
@@ -32052,7 +32074,7 @@
         <v>887</v>
       </c>
       <c r="K624" t="n">
-        <v>5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L624" t="n">
         <v>496.2</v>
@@ -32103,7 +32125,7 @@
         <v>887</v>
       </c>
       <c r="K625" t="n">
-        <v>5.88235294117647</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L625" t="n">
         <v>496.5</v>
@@ -32154,7 +32176,7 @@
         <v>888</v>
       </c>
       <c r="K626" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L626" t="n">
         <v>496.8</v>
@@ -32205,7 +32227,7 @@
         <v>888</v>
       </c>
       <c r="K627" t="n">
-        <v>-12.5</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L627" t="n">
         <v>497.1</v>
@@ -32256,7 +32278,7 @@
         <v>889</v>
       </c>
       <c r="K628" t="n">
-        <v>-12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L628" t="n">
         <v>497.4</v>
@@ -32307,7 +32329,7 @@
         <v>891</v>
       </c>
       <c r="K629" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L629" t="n">
         <v>497.5</v>
@@ -32358,7 +32380,7 @@
         <v>891</v>
       </c>
       <c r="K630" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L630" t="n">
         <v>497.3</v>
@@ -32460,7 +32482,7 @@
         <v>893</v>
       </c>
       <c r="K632" t="n">
-        <v>-41.17647058823529</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L632" t="n">
         <v>496.7</v>
@@ -32511,7 +32533,7 @@
         <v>893</v>
       </c>
       <c r="K633" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L633" t="n">
         <v>496.2</v>
@@ -32562,7 +32584,7 @@
         <v>893</v>
       </c>
       <c r="K634" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L634" t="n">
         <v>495.6</v>
@@ -32613,7 +32635,7 @@
         <v>893</v>
       </c>
       <c r="K635" t="n">
-        <v>-23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L635" t="n">
         <v>495</v>
@@ -32664,7 +32686,7 @@
         <v>893</v>
       </c>
       <c r="K636" t="n">
-        <v>-16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L636" t="n">
         <v>494.5</v>
@@ -32715,7 +32737,7 @@
         <v>893</v>
       </c>
       <c r="K637" t="n">
-        <v>-16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L637" t="n">
         <v>494</v>
@@ -32766,7 +32788,7 @@
         <v>893</v>
       </c>
       <c r="K638" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L638" t="n">
         <v>493.6</v>
@@ -32817,7 +32839,7 @@
         <v>894</v>
       </c>
       <c r="K639" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L639" t="n">
         <v>493.5</v>
@@ -32868,7 +32890,7 @@
         <v>895</v>
       </c>
       <c r="K640" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L640" t="n">
         <v>493.5</v>
@@ -32919,7 +32941,7 @@
         <v>896</v>
       </c>
       <c r="K641" t="n">
-        <v>-27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L641" t="n">
         <v>493.4</v>
@@ -32970,7 +32992,7 @@
         <v>897</v>
       </c>
       <c r="K642" t="n">
-        <v>-16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L642" t="n">
         <v>493.6</v>
@@ -33021,7 +33043,7 @@
         <v>898</v>
       </c>
       <c r="K643" t="n">
-        <v>-33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L643" t="n">
         <v>493.7</v>
@@ -33072,7 +33094,7 @@
         <v>898</v>
       </c>
       <c r="K644" t="n">
-        <v>-45.45454545454545</v>
+        <v>20</v>
       </c>
       <c r="L644" t="n">
         <v>493.8</v>
@@ -33123,7 +33145,7 @@
         <v>900</v>
       </c>
       <c r="K645" t="n">
-        <v>-53.84615384615385</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L645" t="n">
         <v>493.7</v>
@@ -33174,7 +33196,7 @@
         <v>901</v>
       </c>
       <c r="K646" t="n">
-        <v>-53.84615384615385</v>
+        <v>-25</v>
       </c>
       <c r="L646" t="n">
         <v>493.5</v>
@@ -33225,7 +33247,7 @@
         <v>902</v>
       </c>
       <c r="K647" t="n">
-        <v>-57.14285714285714</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L647" t="n">
         <v>493.2</v>
@@ -33276,7 +33298,7 @@
         <v>902</v>
       </c>
       <c r="K648" t="n">
-        <v>-53.84615384615385</v>
+        <v>-50</v>
       </c>
       <c r="L648" t="n">
         <v>492.9</v>
@@ -33327,7 +33349,7 @@
         <v>902</v>
       </c>
       <c r="K649" t="n">
-        <v>-45.45454545454545</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L649" t="n">
         <v>492.5</v>
@@ -33378,7 +33400,7 @@
         <v>903</v>
       </c>
       <c r="K650" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L650" t="n">
         <v>492.1</v>
@@ -33429,7 +33451,7 @@
         <v>904</v>
       </c>
       <c r="K651" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L651" t="n">
         <v>491.9</v>
@@ -33480,7 +33502,7 @@
         <v>904</v>
       </c>
       <c r="K652" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L652" t="n">
         <v>491.6</v>
@@ -33531,7 +33553,7 @@
         <v>905</v>
       </c>
       <c r="K653" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L653" t="n">
         <v>491.3</v>
@@ -33582,7 +33604,7 @@
         <v>905</v>
       </c>
       <c r="K654" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L654" t="n">
         <v>491</v>
@@ -33633,7 +33655,7 @@
         <v>905</v>
       </c>
       <c r="K655" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L655" t="n">
         <v>490.9</v>
@@ -33684,7 +33706,7 @@
         <v>905</v>
       </c>
       <c r="K656" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L656" t="n">
         <v>490.9</v>
@@ -33735,7 +33757,7 @@
         <v>906</v>
       </c>
       <c r="K657" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L657" t="n">
         <v>490.9</v>
@@ -33786,7 +33808,7 @@
         <v>906</v>
       </c>
       <c r="K658" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L658" t="n">
         <v>490.9</v>
@@ -33837,7 +33859,7 @@
         <v>907</v>
       </c>
       <c r="K659" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L659" t="n">
         <v>490.8</v>
@@ -33888,7 +33910,7 @@
         <v>909</v>
       </c>
       <c r="K660" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L660" t="n">
         <v>490.8</v>
@@ -33939,7 +33961,7 @@
         <v>909</v>
       </c>
       <c r="K661" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L661" t="n">
         <v>490.7</v>
@@ -34041,7 +34063,7 @@
         <v>914</v>
       </c>
       <c r="K663" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L663" t="n">
         <v>489.9</v>
@@ -34092,7 +34114,7 @@
         <v>915</v>
       </c>
       <c r="K664" t="n">
-        <v>-29.41176470588236</v>
+        <v>-20</v>
       </c>
       <c r="L664" t="n">
         <v>489.7</v>
@@ -34143,7 +34165,7 @@
         <v>917</v>
       </c>
       <c r="K665" t="n">
-        <v>-29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L665" t="n">
         <v>489.3</v>
@@ -34194,7 +34216,7 @@
         <v>917</v>
       </c>
       <c r="K666" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L666" t="n">
         <v>488.9</v>
@@ -34245,7 +34267,7 @@
         <v>917</v>
       </c>
       <c r="K667" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L667" t="n">
         <v>488.6</v>
@@ -34296,7 +34318,7 @@
         <v>918</v>
       </c>
       <c r="K668" t="n">
-        <v>-12.5</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L668" t="n">
         <v>488.4</v>
@@ -34347,7 +34369,7 @@
         <v>919</v>
       </c>
       <c r="K669" t="n">
-        <v>-17.64705882352941</v>
+        <v>-40</v>
       </c>
       <c r="L669" t="n">
         <v>488.2</v>
@@ -34398,7 +34420,7 @@
         <v>920</v>
       </c>
       <c r="K670" t="n">
-        <v>-17.64705882352941</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L670" t="n">
         <v>487.9</v>
@@ -34449,7 +34471,7 @@
         <v>921</v>
       </c>
       <c r="K671" t="n">
-        <v>-29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L671" t="n">
         <v>487.5</v>
@@ -34500,7 +34522,7 @@
         <v>922</v>
       </c>
       <c r="K672" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L672" t="n">
         <v>487.6</v>
@@ -34551,7 +34573,7 @@
         <v>923</v>
       </c>
       <c r="K673" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L673" t="n">
         <v>487.5</v>
@@ -34602,7 +34624,7 @@
         <v>925</v>
       </c>
       <c r="K674" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L674" t="n">
         <v>487.5</v>
@@ -34653,7 +34675,7 @@
         <v>925</v>
       </c>
       <c r="K675" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L675" t="n">
         <v>487.7</v>
@@ -34704,7 +34726,7 @@
         <v>925</v>
       </c>
       <c r="K676" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L676" t="n">
         <v>487.9</v>
@@ -34755,7 +34777,7 @@
         <v>928</v>
       </c>
       <c r="K677" t="n">
-        <v>9.090909090909092</v>
+        <v>40</v>
       </c>
       <c r="L677" t="n">
         <v>488.4</v>
@@ -34806,7 +34828,7 @@
         <v>929</v>
       </c>
       <c r="K678" t="n">
-        <v>4.347826086956522</v>
+        <v>40</v>
       </c>
       <c r="L678" t="n">
         <v>488.7</v>
@@ -34857,7 +34879,7 @@
         <v>932</v>
       </c>
       <c r="K679" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L679" t="n">
         <v>489.4</v>
@@ -34908,7 +34930,7 @@
         <v>935</v>
       </c>
       <c r="K680" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L680" t="n">
         <v>489.7</v>
@@ -34959,7 +34981,7 @@
         <v>936</v>
       </c>
       <c r="K681" t="n">
-        <v>3.703703703703703</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L681" t="n">
         <v>490.2</v>
@@ -35010,7 +35032,7 @@
         <v>936</v>
       </c>
       <c r="K682" t="n">
-        <v>21.73913043478261</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L682" t="n">
         <v>490.6</v>
@@ -35061,7 +35083,7 @@
         <v>937</v>
       </c>
       <c r="K683" t="n">
-        <v>21.73913043478261</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L683" t="n">
         <v>491.2</v>
@@ -35112,7 +35134,7 @@
         <v>939</v>
       </c>
       <c r="K684" t="n">
-        <v>8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L684" t="n">
         <v>491.4</v>
@@ -35163,7 +35185,7 @@
         <v>940</v>
       </c>
       <c r="K685" t="n">
-        <v>21.73913043478261</v>
+        <v>20</v>
       </c>
       <c r="L685" t="n">
         <v>491.7</v>
@@ -35214,7 +35236,7 @@
         <v>941</v>
       </c>
       <c r="K686" t="n">
-        <v>25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L686" t="n">
         <v>492.1</v>
@@ -35265,7 +35287,7 @@
         <v>942</v>
       </c>
       <c r="K687" t="n">
-        <v>20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L687" t="n">
         <v>492.1</v>
@@ -35316,7 +35338,7 @@
         <v>942</v>
       </c>
       <c r="K688" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L688" t="n">
         <v>492.2</v>
@@ -35367,7 +35389,7 @@
         <v>942</v>
       </c>
       <c r="K689" t="n">
-        <v>21.73913043478261</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L689" t="n">
         <v>492</v>
@@ -35418,7 +35440,7 @@
         <v>943</v>
       </c>
       <c r="K690" t="n">
-        <v>21.73913043478261</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L690" t="n">
         <v>492.2</v>
@@ -35469,7 +35491,7 @@
         <v>943</v>
       </c>
       <c r="K691" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L691" t="n">
         <v>492.3</v>
@@ -35520,7 +35542,7 @@
         <v>944</v>
       </c>
       <c r="K692" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L692" t="n">
         <v>492.5</v>
@@ -35571,7 +35593,7 @@
         <v>946</v>
       </c>
       <c r="K693" t="n">
-        <v>21.73913043478261</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L693" t="n">
         <v>492.4</v>
@@ -35622,7 +35644,7 @@
         <v>948</v>
       </c>
       <c r="K694" t="n">
-        <v>21.73913043478261</v>
+        <v>25</v>
       </c>
       <c r="L694" t="n">
         <v>492.7</v>
@@ -35673,7 +35695,7 @@
         <v>950</v>
       </c>
       <c r="K695" t="n">
-        <v>12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L695" t="n">
         <v>492.7</v>
@@ -35724,7 +35746,7 @@
         <v>950</v>
       </c>
       <c r="K696" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L696" t="n">
         <v>492.6</v>
@@ -35826,7 +35848,7 @@
         <v>950</v>
       </c>
       <c r="K698" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L698" t="n">
         <v>492.6</v>
@@ -35877,7 +35899,7 @@
         <v>950</v>
       </c>
       <c r="K699" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L699" t="n">
         <v>492.6</v>
@@ -35928,7 +35950,7 @@
         <v>951</v>
       </c>
       <c r="K700" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L700" t="n">
         <v>492.4</v>
@@ -35979,7 +36001,7 @@
         <v>952</v>
       </c>
       <c r="K701" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L701" t="n">
         <v>492.3</v>
@@ -36081,7 +36103,7 @@
         <v>954</v>
       </c>
       <c r="K703" t="n">
-        <v>-17.64705882352941</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L703" t="n">
         <v>491.9</v>
@@ -36132,7 +36154,7 @@
         <v>956</v>
       </c>
       <c r="K704" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L704" t="n">
         <v>491.7</v>
@@ -36183,7 +36205,7 @@
         <v>957</v>
       </c>
       <c r="K705" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L705" t="n">
         <v>491.6</v>
@@ -36234,7 +36256,7 @@
         <v>958</v>
       </c>
       <c r="K706" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L706" t="n">
         <v>491.6</v>
@@ -36285,7 +36307,7 @@
         <v>962</v>
       </c>
       <c r="K707" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L707" t="n">
         <v>491.2</v>
@@ -36336,7 +36358,7 @@
         <v>964</v>
       </c>
       <c r="K708" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L708" t="n">
         <v>491</v>
@@ -36387,7 +36409,7 @@
         <v>966</v>
       </c>
       <c r="K709" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L709" t="n">
         <v>490.6</v>
@@ -36438,7 +36460,7 @@
         <v>967</v>
       </c>
       <c r="K710" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L710" t="n">
         <v>490.4</v>
@@ -36489,7 +36511,7 @@
         <v>968</v>
       </c>
       <c r="K711" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L711" t="n">
         <v>490</v>
@@ -36540,7 +36562,7 @@
         <v>968</v>
       </c>
       <c r="K712" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L712" t="n">
         <v>489.6</v>
@@ -36591,7 +36613,7 @@
         <v>969</v>
       </c>
       <c r="K713" t="n">
-        <v>-21.73913043478261</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L713" t="n">
         <v>489.3</v>
@@ -36693,7 +36715,7 @@
         <v>969</v>
       </c>
       <c r="K715" t="n">
-        <v>-26.31578947368421</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L715" t="n">
         <v>488.4</v>
@@ -36744,7 +36766,7 @@
         <v>969</v>
       </c>
       <c r="K716" t="n">
-        <v>-26.31578947368421</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L716" t="n">
         <v>487.9</v>
@@ -36846,7 +36868,7 @@
         <v>971</v>
       </c>
       <c r="K718" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L718" t="n">
         <v>487.9</v>
@@ -36897,7 +36919,7 @@
         <v>971</v>
       </c>
       <c r="K719" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L719" t="n">
         <v>488</v>
@@ -36948,7 +36970,7 @@
         <v>973</v>
       </c>
       <c r="K720" t="n">
-        <v>-18.18181818181818</v>
+        <v>-20</v>
       </c>
       <c r="L720" t="n">
         <v>487.8</v>
@@ -36999,7 +37021,7 @@
         <v>973</v>
       </c>
       <c r="K721" t="n">
-        <v>-23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L721" t="n">
         <v>487.7</v>
@@ -37050,7 +37072,7 @@
         <v>973</v>
       </c>
       <c r="K722" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L722" t="n">
         <v>487.6</v>
@@ -37101,7 +37123,7 @@
         <v>975</v>
       </c>
       <c r="K723" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L723" t="n">
         <v>487.8</v>
@@ -37152,7 +37174,7 @@
         <v>976</v>
       </c>
       <c r="K724" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L724" t="n">
         <v>487.9</v>
@@ -37203,7 +37225,7 @@
         <v>977</v>
       </c>
       <c r="K725" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L725" t="n">
         <v>488.1</v>
@@ -37254,7 +37276,7 @@
         <v>977</v>
       </c>
       <c r="K726" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L726" t="n">
         <v>488.3</v>
@@ -37305,7 +37327,7 @@
         <v>978</v>
       </c>
       <c r="K727" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L727" t="n">
         <v>488.2</v>
@@ -37407,7 +37429,7 @@
         <v>979</v>
       </c>
       <c r="K729" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L729" t="n">
         <v>487.9</v>
@@ -37458,7 +37480,7 @@
         <v>979</v>
       </c>
       <c r="K730" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L730" t="n">
         <v>487.9</v>
@@ -37509,7 +37531,7 @@
         <v>980</v>
       </c>
       <c r="K731" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L731" t="n">
         <v>487.8</v>
@@ -37560,7 +37582,7 @@
         <v>981</v>
       </c>
       <c r="K732" t="n">
-        <v>-23.07692307692308</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L732" t="n">
         <v>487.6</v>
@@ -37611,7 +37633,7 @@
         <v>982</v>
       </c>
       <c r="K733" t="n">
-        <v>-23.07692307692308</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L733" t="n">
         <v>487.1</v>
@@ -37662,7 +37684,7 @@
         <v>983</v>
       </c>
       <c r="K734" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L734" t="n">
         <v>486.6</v>
@@ -37713,7 +37735,7 @@
         <v>985</v>
       </c>
       <c r="K735" t="n">
-        <v>-12.5</v>
+        <v>-50</v>
       </c>
       <c r="L735" t="n">
         <v>486.2</v>
@@ -37764,7 +37786,7 @@
         <v>985</v>
       </c>
       <c r="K736" t="n">
-        <v>-12.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L736" t="n">
         <v>485.8</v>
@@ -37815,7 +37837,7 @@
         <v>987</v>
       </c>
       <c r="K737" t="n">
-        <v>-37.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L737" t="n">
         <v>485.3</v>
@@ -37866,7 +37888,7 @@
         <v>987</v>
       </c>
       <c r="K738" t="n">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="L738" t="n">
         <v>484.8</v>
@@ -37917,7 +37939,7 @@
         <v>987</v>
       </c>
       <c r="K739" t="n">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="L739" t="n">
         <v>484.4</v>
@@ -37968,7 +37990,7 @@
         <v>989</v>
       </c>
       <c r="K740" t="n">
-        <v>-37.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L740" t="n">
         <v>483.8</v>
@@ -38019,7 +38041,7 @@
         <v>990</v>
       </c>
       <c r="K741" t="n">
-        <v>-41.17647058823529</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L741" t="n">
         <v>483.2</v>
@@ -38121,7 +38143,7 @@
         <v>991</v>
       </c>
       <c r="K743" t="n">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="L743" t="n">
         <v>482.5</v>
@@ -38172,7 +38194,7 @@
         <v>991</v>
       </c>
       <c r="K744" t="n">
-        <v>-46.66666666666666</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L744" t="n">
         <v>482.3</v>
@@ -38223,7 +38245,7 @@
         <v>992</v>
       </c>
       <c r="K745" t="n">
-        <v>-60</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L745" t="n">
         <v>481.8</v>
@@ -38274,7 +38296,7 @@
         <v>993</v>
       </c>
       <c r="K746" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L746" t="n">
         <v>481.4</v>
@@ -38376,7 +38398,7 @@
         <v>999</v>
       </c>
       <c r="K748" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L748" t="n">
         <v>480.7</v>
@@ -38427,7 +38449,7 @@
         <v>1000</v>
       </c>
       <c r="K749" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L749" t="n">
         <v>480.4</v>
@@ -38478,7 +38500,7 @@
         <v>1001</v>
       </c>
       <c r="K750" t="n">
-        <v>-27.27272727272727</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L750" t="n">
         <v>480.4</v>
@@ -38529,7 +38551,7 @@
         <v>1001</v>
       </c>
       <c r="K751" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L751" t="n">
         <v>480.5</v>
@@ -38580,7 +38602,7 @@
         <v>1001</v>
       </c>
       <c r="K752" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L752" t="n">
         <v>480.5</v>
@@ -38631,7 +38653,7 @@
         <v>1001</v>
       </c>
       <c r="K753" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L753" t="n">
         <v>480.5</v>
@@ -38682,7 +38704,7 @@
         <v>1002</v>
       </c>
       <c r="K754" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L754" t="n">
         <v>480.6</v>
@@ -38733,7 +38755,7 @@
         <v>1006</v>
       </c>
       <c r="K755" t="n">
-        <v>-33.33333333333333</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L755" t="n">
         <v>480.4</v>
@@ -38784,7 +38806,7 @@
         <v>1011</v>
       </c>
       <c r="K756" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L756" t="n">
         <v>480.6</v>
@@ -38835,7 +38857,7 @@
         <v>1014</v>
       </c>
       <c r="K757" t="n">
-        <v>-11.11111111111111</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L757" t="n">
         <v>480.8</v>
@@ -38886,7 +38908,7 @@
         <v>1016</v>
       </c>
       <c r="K758" t="n">
-        <v>-3.448275862068965</v>
+        <v>12.5</v>
       </c>
       <c r="L758" t="n">
         <v>480.9</v>
@@ -38937,7 +38959,7 @@
         <v>1017</v>
       </c>
       <c r="K759" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L759" t="n">
         <v>481.2</v>
@@ -39039,7 +39061,7 @@
         <v>1022</v>
       </c>
       <c r="K761" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L761" t="n">
         <v>481.5</v>
@@ -39090,7 +39112,7 @@
         <v>1022</v>
       </c>
       <c r="K762" t="n">
-        <v>9.67741935483871</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L762" t="n">
         <v>481.8</v>
@@ -39141,7 +39163,7 @@
         <v>1023</v>
       </c>
       <c r="K763" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L763" t="n">
         <v>482.2</v>
@@ -39192,7 +39214,7 @@
         <v>1024</v>
       </c>
       <c r="K764" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L764" t="n">
         <v>482.4</v>
@@ -39243,7 +39265,7 @@
         <v>1024</v>
       </c>
       <c r="K765" t="n">
-        <v>12.5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L765" t="n">
         <v>483</v>
@@ -39294,7 +39316,7 @@
         <v>1025</v>
       </c>
       <c r="K766" t="n">
-        <v>12.5</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L766" t="n">
         <v>483.2</v>
@@ -39345,7 +39367,7 @@
         <v>1025</v>
       </c>
       <c r="K767" t="n">
-        <v>24.13793103448276</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L767" t="n">
         <v>483.7</v>
@@ -39447,7 +39469,7 @@
         <v>1027</v>
       </c>
       <c r="K769" t="n">
-        <v>18.51851851851852</v>
+        <v>50</v>
       </c>
       <c r="L769" t="n">
         <v>484.1</v>
@@ -39498,7 +39520,7 @@
         <v>1027</v>
       </c>
       <c r="K770" t="n">
-        <v>15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L770" t="n">
         <v>484.5</v>
@@ -39549,7 +39571,7 @@
         <v>1031</v>
       </c>
       <c r="K771" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L771" t="n">
         <v>484.2</v>
@@ -39600,7 +39622,7 @@
         <v>1032</v>
       </c>
       <c r="K772" t="n">
-        <v>3.225806451612903</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L772" t="n">
         <v>484</v>
@@ -39651,7 +39673,7 @@
         <v>1032</v>
       </c>
       <c r="K773" t="n">
-        <v>3.225806451612903</v>
+        <v>-25</v>
       </c>
       <c r="L773" t="n">
         <v>483.7</v>
@@ -39702,7 +39724,7 @@
         <v>1032</v>
       </c>
       <c r="K774" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L774" t="n">
         <v>483.5</v>
@@ -39753,7 +39775,7 @@
         <v>1032</v>
       </c>
       <c r="K775" t="n">
-        <v>15.38461538461539</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L775" t="n">
         <v>483.3</v>
@@ -39804,7 +39826,7 @@
         <v>1032</v>
       </c>
       <c r="K776" t="n">
-        <v>-4.761904761904762</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L776" t="n">
         <v>483</v>
@@ -39855,7 +39877,7 @@
         <v>1032</v>
       </c>
       <c r="K777" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L777" t="n">
         <v>482.7</v>
@@ -39906,7 +39928,7 @@
         <v>1033</v>
       </c>
       <c r="K778" t="n">
-        <v>5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L778" t="n">
         <v>482.6</v>
@@ -39957,7 +39979,7 @@
         <v>1038</v>
       </c>
       <c r="K779" t="n">
-        <v>-23.80952380952381</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L779" t="n">
         <v>481.9</v>
@@ -40008,7 +40030,7 @@
         <v>1040</v>
       </c>
       <c r="K780" t="n">
-        <v>-23.80952380952381</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L780" t="n">
         <v>481</v>
@@ -40059,7 +40081,7 @@
         <v>1040</v>
       </c>
       <c r="K781" t="n">
-        <v>-44.44444444444444</v>
+        <v>-75</v>
       </c>
       <c r="L781" t="n">
         <v>480.5</v>
@@ -40110,7 +40132,7 @@
         <v>1040</v>
       </c>
       <c r="K782" t="n">
-        <v>-44.44444444444444</v>
+        <v>-75</v>
       </c>
       <c r="L782" t="n">
         <v>479.9</v>
@@ -40161,7 +40183,7 @@
         <v>1040</v>
       </c>
       <c r="K783" t="n">
-        <v>-52.94117647058824</v>
+        <v>-75</v>
       </c>
       <c r="L783" t="n">
         <v>479.3</v>
@@ -40212,7 +40234,7 @@
         <v>1040</v>
       </c>
       <c r="K784" t="n">
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="L784" t="n">
         <v>478.7</v>
@@ -40263,7 +40285,7 @@
         <v>1041</v>
       </c>
       <c r="K785" t="n">
-        <v>-52.94117647058824</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L785" t="n">
         <v>478</v>
@@ -40314,7 +40336,7 @@
         <v>1042</v>
       </c>
       <c r="K786" t="n">
-        <v>-52.94117647058824</v>
+        <v>-60</v>
       </c>
       <c r="L786" t="n">
         <v>477.4</v>
@@ -40365,7 +40387,7 @@
         <v>1042</v>
       </c>
       <c r="K787" t="n">
-        <v>-52.94117647058824</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L787" t="n">
         <v>476.8</v>
@@ -40416,7 +40438,7 @@
         <v>1043</v>
       </c>
       <c r="K788" t="n">
-        <v>-41.17647058823529</v>
+        <v>-20</v>
       </c>
       <c r="L788" t="n">
         <v>476.2</v>
@@ -40467,7 +40489,7 @@
         <v>1044</v>
       </c>
       <c r="K789" t="n">
-        <v>-41.17647058823529</v>
+        <v>50</v>
       </c>
       <c r="L789" t="n">
         <v>476.2</v>
@@ -40518,7 +40540,7 @@
         <v>1044</v>
       </c>
       <c r="K790" t="n">
-        <v>-41.17647058823529</v>
+        <v>50</v>
       </c>
       <c r="L790" t="n">
         <v>476.4</v>
@@ -40569,7 +40591,7 @@
         <v>1046</v>
       </c>
       <c r="K791" t="n">
-        <v>-6.666666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L791" t="n">
         <v>476.8</v>
@@ -40620,7 +40642,7 @@
         <v>1047</v>
       </c>
       <c r="K792" t="n">
-        <v>-20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L792" t="n">
         <v>477.1</v>
@@ -40671,7 +40693,7 @@
         <v>1048</v>
       </c>
       <c r="K793" t="n">
-        <v>-12.5</v>
+        <v>50</v>
       </c>
       <c r="L793" t="n">
         <v>477.5</v>
@@ -40722,7 +40744,7 @@
         <v>1049</v>
       </c>
       <c r="K794" t="n">
-        <v>-5.88235294117647</v>
+        <v>75</v>
       </c>
       <c r="L794" t="n">
         <v>478</v>
@@ -40773,7 +40795,7 @@
         <v>1050</v>
       </c>
       <c r="K795" t="n">
-        <v>-11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L795" t="n">
         <v>478.5</v>
@@ -40824,7 +40846,7 @@
         <v>1050</v>
       </c>
       <c r="K796" t="n">
-        <v>-11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L796" t="n">
         <v>478.9</v>
@@ -40875,7 +40897,7 @@
         <v>1051</v>
       </c>
       <c r="K797" t="n">
-        <v>-5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L797" t="n">
         <v>479.4</v>
@@ -40926,7 +40948,7 @@
         <v>1051</v>
       </c>
       <c r="K798" t="n">
-        <v>-11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L798" t="n">
         <v>479.8</v>
@@ -40977,7 +40999,7 @@
         <v>1052</v>
       </c>
       <c r="K799" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L799" t="n">
         <v>480.2</v>
@@ -41028,7 +41050,7 @@
         <v>1052</v>
       </c>
       <c r="K800" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L800" t="n">
         <v>480.6</v>
@@ -41079,7 +41101,7 @@
         <v>1053</v>
       </c>
       <c r="K801" t="n">
-        <v>53.84615384615385</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L801" t="n">
         <v>480.9</v>
@@ -41130,7 +41152,7 @@
         <v>1054</v>
       </c>
       <c r="K802" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L802" t="n">
         <v>481.2</v>
@@ -41181,7 +41203,7 @@
         <v>1054</v>
       </c>
       <c r="K803" t="n">
-        <v>42.85714285714285</v>
+        <v>20</v>
       </c>
       <c r="L803" t="n">
         <v>481.4</v>
@@ -41232,7 +41254,7 @@
         <v>1054</v>
       </c>
       <c r="K804" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L804" t="n">
         <v>481.5</v>
@@ -41283,7 +41305,7 @@
         <v>1055</v>
       </c>
       <c r="K805" t="n">
-        <v>57.14285714285714</v>
+        <v>60</v>
       </c>
       <c r="L805" t="n">
         <v>481.8</v>
@@ -41334,7 +41356,7 @@
         <v>1057</v>
       </c>
       <c r="K806" t="n">
-        <v>60</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L806" t="n">
         <v>482.3</v>
@@ -41385,7 +41407,7 @@
         <v>1058</v>
       </c>
       <c r="K807" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L807" t="n">
         <v>482.6</v>
@@ -41436,7 +41458,7 @@
         <v>1060</v>
       </c>
       <c r="K808" t="n">
-        <v>29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L808" t="n">
         <v>482.7</v>
@@ -41487,7 +41509,7 @@
         <v>1062</v>
       </c>
       <c r="K809" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L809" t="n">
         <v>482.5</v>
@@ -41538,7 +41560,7 @@
         <v>1063</v>
       </c>
       <c r="K810" t="n">
-        <v>15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L810" t="n">
         <v>482.4</v>
@@ -41589,7 +41611,7 @@
         <v>1065</v>
       </c>
       <c r="K811" t="n">
-        <v>15.78947368421053</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L811" t="n">
         <v>482.4</v>
@@ -41640,7 +41662,7 @@
         <v>1066</v>
       </c>
       <c r="K812" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L812" t="n">
         <v>482.4</v>
@@ -41691,7 +41713,7 @@
         <v>1066</v>
       </c>
       <c r="K813" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L813" t="n">
         <v>482.4</v>
@@ -41742,7 +41764,7 @@
         <v>1066</v>
       </c>
       <c r="K814" t="n">
-        <v>5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L814" t="n">
         <v>482.4</v>
@@ -41793,7 +41815,7 @@
         <v>1067</v>
       </c>
       <c r="K815" t="n">
-        <v>17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L815" t="n">
         <v>482.4</v>
@@ -41844,7 +41866,7 @@
         <v>1067</v>
       </c>
       <c r="K816" t="n">
-        <v>17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L816" t="n">
         <v>482.2</v>
@@ -41895,7 +41917,7 @@
         <v>1068</v>
       </c>
       <c r="K817" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L817" t="n">
         <v>482</v>
@@ -41946,7 +41968,7 @@
         <v>1069</v>
       </c>
       <c r="K818" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L818" t="n">
         <v>481.9</v>
@@ -41997,7 +42019,7 @@
         <v>1071</v>
       </c>
       <c r="K819" t="n">
-        <v>5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L819" t="n">
         <v>482.2</v>
@@ -42048,7 +42070,7 @@
         <v>1073</v>
       </c>
       <c r="K820" t="n">
-        <v>-4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L820" t="n">
         <v>482.2</v>
@@ -42099,7 +42121,7 @@
         <v>1073</v>
       </c>
       <c r="K821" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L821" t="n">
         <v>482</v>
@@ -42150,7 +42172,7 @@
         <v>1073</v>
       </c>
       <c r="K822" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L822" t="n">
         <v>481.9</v>
@@ -42252,7 +42274,7 @@
         <v>1075</v>
       </c>
       <c r="K824" t="n">
-        <v>-4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L824" t="n">
         <v>481.8</v>
@@ -42303,7 +42325,7 @@
         <v>1075</v>
       </c>
       <c r="K825" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="L825" t="n">
         <v>481.6</v>
@@ -42354,7 +42376,7 @@
         <v>1075</v>
       </c>
       <c r="K826" t="n">
-        <v>-22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L826" t="n">
         <v>481.4</v>
@@ -42405,7 +42427,7 @@
         <v>1076</v>
       </c>
       <c r="K827" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L827" t="n">
         <v>481.4</v>
@@ -42456,7 +42478,7 @@
         <v>1078</v>
       </c>
       <c r="K828" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L828" t="n">
         <v>481.3</v>
@@ -42507,7 +42529,7 @@
         <v>1080</v>
       </c>
       <c r="K829" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L829" t="n">
         <v>481.2</v>
@@ -42558,7 +42580,7 @@
         <v>1080</v>
       </c>
       <c r="K830" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L830" t="n">
         <v>481.3</v>
@@ -42609,7 +42631,7 @@
         <v>1080</v>
       </c>
       <c r="K831" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L831" t="n">
         <v>481.4</v>
@@ -42711,7 +42733,7 @@
         <v>1081</v>
       </c>
       <c r="K833" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L833" t="n">
         <v>481.4</v>
@@ -42762,7 +42784,7 @@
         <v>1082</v>
       </c>
       <c r="K834" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L834" t="n">
         <v>481.5</v>
@@ -42813,7 +42835,7 @@
         <v>1082</v>
       </c>
       <c r="K835" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L835" t="n">
         <v>481.6</v>
@@ -42864,7 +42886,7 @@
         <v>1082</v>
       </c>
       <c r="K836" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L836" t="n">
         <v>481.7</v>
@@ -42915,7 +42937,7 @@
         <v>1082</v>
       </c>
       <c r="K837" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L837" t="n">
         <v>481.7</v>
@@ -42966,7 +42988,7 @@
         <v>1082</v>
       </c>
       <c r="K838" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L838" t="n">
         <v>481.9</v>
@@ -43017,7 +43039,7 @@
         <v>1082</v>
       </c>
       <c r="K839" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L839" t="n">
         <v>481.9</v>
@@ -43068,7 +43090,7 @@
         <v>1082</v>
       </c>
       <c r="K840" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L840" t="n">
         <v>481.9</v>
@@ -43119,7 +43141,7 @@
         <v>1083</v>
       </c>
       <c r="K841" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L841" t="n">
         <v>481.8</v>
@@ -43170,7 +43192,7 @@
         <v>1085</v>
       </c>
       <c r="K842" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L842" t="n">
         <v>481.9</v>
@@ -43272,7 +43294,7 @@
         <v>1088</v>
       </c>
       <c r="K844" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L844" t="n">
         <v>482.2</v>
@@ -43374,7 +43396,7 @@
         <v>1090</v>
       </c>
       <c r="K846" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L846" t="n">
         <v>482.3</v>

--- a/BackTest/2019-11-02 BackTest MTL.xlsx
+++ b/BackTest/2019-11-02 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>19859.7958</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>19859.7958</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>426</v>
@@ -523,7 +523,7 @@
         <v>19859.7958</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>426</v>
@@ -562,7 +562,7 @@
         <v>19862.0568</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>426</v>
@@ -601,7 +601,7 @@
         <v>23218.4125</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>428</v>
@@ -640,7 +640,7 @@
         <v>21718.4125</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>430</v>
@@ -679,7 +679,7 @@
         <v>24628.5716</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>425</v>
@@ -718,7 +718,7 @@
         <v>23688.5465</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>429</v>
@@ -757,7 +757,7 @@
         <v>23798.9616</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>428</v>
@@ -796,7 +796,7 @@
         <v>24877.529</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>429</v>
@@ -835,7 +835,7 @@
         <v>24577.5291</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>430</v>
@@ -874,7 +874,7 @@
         <v>25155.7772</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>427</v>
@@ -913,7 +913,7 @@
         <v>20143.0549</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>428</v>
@@ -952,7 +952,7 @@
         <v>19316.2549</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>427</v>
@@ -991,7 +991,7 @@
         <v>24242.3146</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>426</v>
@@ -1030,7 +1030,7 @@
         <v>24665.5704</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>430</v>
@@ -1069,7 +1069,7 @@
         <v>24665.5704</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>431</v>
@@ -1108,7 +1108,7 @@
         <v>24372.538</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>431</v>
@@ -1147,7 +1147,7 @@
         <v>24372.538</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>428</v>
@@ -1186,7 +1186,7 @@
         <v>24372.538</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>428</v>
@@ -1225,7 +1225,7 @@
         <v>24372.538</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>428</v>
@@ -1264,7 +1264,7 @@
         <v>25504.3502</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>428</v>
@@ -1303,7 +1303,7 @@
         <v>23641.8359</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>429</v>
@@ -1342,7 +1342,7 @@
         <v>23768.5359</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>427</v>
@@ -1381,7 +1381,7 @@
         <v>23768.5359</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>428</v>
@@ -1420,7 +1420,7 @@
         <v>23768.5359</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>428</v>
@@ -1459,7 +1459,7 @@
         <v>23768.5359</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>428</v>
@@ -1498,7 +1498,7 @@
         <v>23768.5359</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>428</v>
@@ -1537,7 +1537,7 @@
         <v>24624.5359</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>428</v>
@@ -1576,9 +1576,11 @@
         <v>24624.5359</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>431</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1613,9 +1615,11 @@
         <v>27417.1325</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>431</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1650,9 +1654,11 @@
         <v>27417.1325</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>433</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1687,9 +1693,11 @@
         <v>27360.5263</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>433</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1724,9 +1732,11 @@
         <v>24269.6267</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>432</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1761,9 +1771,11 @@
         <v>24514.6267</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>431</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1798,9 +1810,11 @@
         <v>24306.4643</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>433</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1835,9 +1849,11 @@
         <v>24306.4643</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>431</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1872,9 +1888,11 @@
         <v>24505.5038</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>431</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1909,9 +1927,11 @@
         <v>24505.5038</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>432</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1946,9 +1966,11 @@
         <v>28152.488</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>432</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1983,9 +2005,11 @@
         <v>28152.488</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>433</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2020,9 +2044,11 @@
         <v>28152.488</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>433</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2057,9 +2083,11 @@
         <v>28152.488</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>433</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2094,9 +2122,11 @@
         <v>21920.9559</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>433</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2131,9 +2161,11 @@
         <v>54486.4019</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>432</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2168,9 +2200,11 @@
         <v>54486.4019</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>436</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2205,9 +2239,11 @@
         <v>54428.157</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>436</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2242,9 +2278,11 @@
         <v>54428.157</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>434</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2279,9 +2317,11 @@
         <v>54400.9898</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>434</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2316,9 +2356,11 @@
         <v>53101.71459999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>433</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2353,9 +2395,11 @@
         <v>53101.71459999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>432</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2390,9 +2434,11 @@
         <v>53101.71459999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>432</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2427,9 +2473,11 @@
         <v>50695.39169999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>432</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2464,9 +2512,11 @@
         <v>51116.39379999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>431</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2501,9 +2551,11 @@
         <v>50998.74219999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>432</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2538,9 +2590,11 @@
         <v>50998.74219999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>431</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2575,9 +2629,11 @@
         <v>44466.0422</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>431</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2612,9 +2668,11 @@
         <v>44466.0422</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>430</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2649,9 +2707,11 @@
         <v>44466.0422</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>430</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2686,9 +2746,11 @@
         <v>44466.0422</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>430</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2723,9 +2785,11 @@
         <v>44166.0422</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>430</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2760,9 +2824,11 @@
         <v>45938.16439999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>429</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2797,9 +2863,11 @@
         <v>39940.03909999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>431</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2834,9 +2902,11 @@
         <v>39940.03909999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>427</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2871,9 +2941,11 @@
         <v>39940.03909999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>427</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2908,9 +2980,11 @@
         <v>39940.03909999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>427</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2945,9 +3019,11 @@
         <v>39941.1591</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>427</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2982,9 +3058,11 @@
         <v>39828.6346</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>430</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3019,9 +3097,11 @@
         <v>39828.6346</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>429</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3056,9 +3136,11 @@
         <v>39829.7546</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>429</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3093,9 +3175,11 @@
         <v>39829.7546</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>430</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3130,9 +3214,11 @@
         <v>46040.7092</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>430</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3167,7 +3253,7 @@
         <v>46340.7092</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>432</v>
@@ -3206,9 +3292,11 @@
         <v>45376.0092</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>433</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3243,9 +3331,11 @@
         <v>45676.0092</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>431</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3280,9 +3370,11 @@
         <v>45676.0092</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>433</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3317,9 +3409,11 @@
         <v>45048.6562</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>433</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3354,9 +3448,11 @@
         <v>49082.683</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>430</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3391,9 +3487,11 @@
         <v>50559.1876</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>431</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3428,9 +3526,11 @@
         <v>50527.3459</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>432</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3465,9 +3565,11 @@
         <v>42792.0874</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>430</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3502,9 +3604,11 @@
         <v>42823.9291</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>426</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3539,9 +3643,11 @@
         <v>42823.9291</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>428</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3576,9 +3682,11 @@
         <v>41917.7907</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>428</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3613,9 +3721,11 @@
         <v>41978.2356</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>427</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3650,7 +3760,7 @@
         <v>42000.427</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>428</v>
@@ -3689,7 +3799,7 @@
         <v>42000.427</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>430</v>
@@ -3728,7 +3838,7 @@
         <v>42000.427</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>430</v>
@@ -3767,7 +3877,7 @@
         <v>41447.4146</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>430</v>
@@ -3806,7 +3916,7 @@
         <v>41447.4146</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>429</v>
@@ -3845,7 +3955,7 @@
         <v>41338.4114</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>429</v>
@@ -3884,7 +3994,7 @@
         <v>31894.3469</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>428</v>
@@ -3923,9 +4033,11 @@
         <v>31894.3469</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>427</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3960,7 +4072,7 @@
         <v>31994.3469</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>427</v>
@@ -3999,7 +4111,7 @@
         <v>32766.9951</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>429</v>
@@ -4038,9 +4150,11 @@
         <v>32766.9951</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>430</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4075,9 +4189,11 @@
         <v>40548.84190000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>430</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4112,9 +4228,11 @@
         <v>40548.84190000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>431</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4149,9 +4267,11 @@
         <v>40612.02240000001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>431</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4186,9 +4306,11 @@
         <v>40612.02240000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>432</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4223,9 +4345,11 @@
         <v>47281.93520000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>432</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4260,9 +4384,11 @@
         <v>53932.93520000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>433</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4297,9 +4423,11 @@
         <v>33407.89430000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>434</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4334,9 +4462,11 @@
         <v>35202.25659218001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>430</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4371,9 +4501,11 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>435</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4408,9 +4540,11 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>434</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4445,9 +4579,11 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>434</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4482,9 +4618,11 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>434</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4519,9 +4657,11 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>434</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4556,9 +4696,11 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>434</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4593,9 +4735,11 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>434</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4630,9 +4774,11 @@
         <v>15944.57366684001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>434</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4667,9 +4813,11 @@
         <v>11056.93856684001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>435</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4704,9 +4852,11 @@
         <v>11057.93856684001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>433</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4741,9 +4891,11 @@
         <v>11057.93856684001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>435</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4778,9 +4930,11 @@
         <v>11057.93856684001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>435</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4815,9 +4969,11 @@
         <v>11057.93856684001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>435</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4852,9 +5008,11 @@
         <v>11058.93856684001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>435</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4889,9 +5047,11 @@
         <v>11058.93856684001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>436</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4926,9 +5086,11 @@
         <v>11058.93856684001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>436</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4963,9 +5125,11 @@
         <v>-38815.43956387999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>436</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5222,9 +5386,11 @@
         <v>-35928.48756387999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>437</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5259,9 +5425,11 @@
         <v>-37051.21226387999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>437</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5296,9 +5464,11 @@
         <v>-36958.50066387999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>436</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5333,9 +5503,11 @@
         <v>-38770.24976387999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>437</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5370,9 +5542,11 @@
         <v>-36052.20856387999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>436</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5407,9 +5581,11 @@
         <v>-40937.10126387999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>437</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5444,9 +5620,11 @@
         <v>-40937.10126387999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>436</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5481,9 +5659,11 @@
         <v>-40936.10126387999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>436</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5518,9 +5698,11 @@
         <v>-40936.10126387999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>437</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5555,9 +5737,11 @@
         <v>-42405.70581957999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>437</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5592,9 +5776,11 @@
         <v>91232.39838931001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>436</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5999,9 +6185,11 @@
         <v>-41544.05000105</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>446</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -6110,9 +6298,11 @@
         <v>-84319.59420104999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>439</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6147,9 +6337,11 @@
         <v>-90846.41570104999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>440</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6184,9 +6376,11 @@
         <v>-93507.17240104999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>437</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6517,9 +6711,11 @@
         <v>-83940.50830104998</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>440</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -9255,16 +9451,18 @@
         <v>235918.28082814</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L238" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
       <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
@@ -9290,11 +9488,15 @@
         <v>235918.28082814</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9323,11 +9525,15 @@
         <v>235918.28082814</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9356,11 +9562,15 @@
         <v>250587.50154184</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9389,11 +9599,15 @@
         <v>240609.69634184</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +9636,15 @@
         <v>232608.38074184</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9455,11 +9673,15 @@
         <v>247994.15134184</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9488,11 +9710,15 @@
         <v>250266.22394184</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9525,7 +9751,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +9788,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9591,7 +9825,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9624,7 +9862,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9653,11 +9895,15 @@
         <v>382622.53274184</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9686,11 +9932,15 @@
         <v>445888.47391515</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9723,7 +9973,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9752,11 +10006,15 @@
         <v>452704.15416701</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9785,11 +10043,15 @@
         <v>511318.74309338</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9818,11 +10080,15 @@
         <v>474695.55409338</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9851,11 +10117,15 @@
         <v>462312.48409338</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9884,11 +10154,15 @@
         <v>478045.60139338</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9917,11 +10191,15 @@
         <v>478045.60139338</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9950,11 +10228,15 @@
         <v>478045.60139338</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9987,7 +10269,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10020,7 +10306,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10053,7 +10343,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10086,7 +10380,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10119,7 +10417,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10152,7 +10454,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10185,7 +10491,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10218,7 +10528,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10251,7 +10565,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10284,7 +10602,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10317,7 +10639,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10350,7 +10676,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10383,7 +10713,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10416,7 +10750,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10449,7 +10787,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10482,7 +10824,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10515,7 +10861,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10548,7 +10898,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10581,7 +10935,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10614,7 +10972,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10647,7 +11009,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10676,11 +11042,15 @@
         <v>400324.64486121</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +11083,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10746,7 +11120,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10779,7 +11157,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10812,7 +11194,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10845,7 +11231,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10878,7 +11268,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10911,7 +11305,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10944,7 +11342,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10977,7 +11379,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11010,7 +11416,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11043,7 +11453,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11076,7 +11490,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11109,7 +11527,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +11560,15 @@
         <v>450646.63702596</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11171,11 +11597,15 @@
         <v>496858.74612596</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11208,7 +11638,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11237,11 +11671,15 @@
         <v>669400.6269211899</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11270,11 +11708,15 @@
         <v>785853.69392596</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11303,11 +11745,15 @@
         <v>936930.65512596</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11336,11 +11782,15 @@
         <v>858238.52962596</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11369,11 +11819,15 @@
         <v>827849.82579656</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11402,11 +11856,15 @@
         <v>777398.28819656</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11435,11 +11893,15 @@
         <v>755252.09869656</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11468,11 +11930,15 @@
         <v>791525.94209656</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11501,11 +11967,15 @@
         <v>744474.22044193</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11534,11 +12004,15 @@
         <v>694306.39284193</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11567,11 +12041,15 @@
         <v>712507.0095632001</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11600,11 +12078,15 @@
         <v>756357.2547632001</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11633,11 +12115,15 @@
         <v>788059.68129938</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11666,11 +12152,15 @@
         <v>740058.08719938</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11699,11 +12189,15 @@
         <v>740058.08719938</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11732,11 +12226,15 @@
         <v>720878.76519938</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11765,11 +12263,15 @@
         <v>764312.02419938</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11802,7 +12304,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11835,7 +12341,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11864,14 +12374,16 @@
         <v>792046.58585636</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
@@ -11897,7 +12409,7 @@
         <v>792046.58585636</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11930,7 +12442,7 @@
         <v>735876.9092768601</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11996,7 +12508,7 @@
         <v>699781.5500455</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12029,7 +12541,7 @@
         <v>708776.80117221</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12062,7 +12574,7 @@
         <v>721174.01674867</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12095,7 +12607,7 @@
         <v>721174.01674867</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12128,7 +12640,7 @@
         <v>769423.67449894</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12161,7 +12673,7 @@
         <v>852156.1102411901</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12194,7 +12706,7 @@
         <v>782385.6513411901</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12227,7 +12739,7 @@
         <v>733879.90494119</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12260,7 +12772,7 @@
         <v>758319.1402411901</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12293,7 +12805,7 @@
         <v>706253.8114411901</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12326,7 +12838,7 @@
         <v>706253.8114411901</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12359,7 +12871,7 @@
         <v>732942.5654001001</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12392,7 +12904,7 @@
         <v>718868.6407169001</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12425,7 +12937,7 @@
         <v>718868.6407169001</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12458,7 +12970,7 @@
         <v>697026.5565450601</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12491,7 +13003,7 @@
         <v>713289.7887450601</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12524,7 +13036,7 @@
         <v>705549.8315022601</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12557,7 +13069,7 @@
         <v>719545.44280226</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12590,7 +13102,7 @@
         <v>726344.4521503201</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12623,7 +13135,7 @@
         <v>730573.81842528</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12656,7 +13168,7 @@
         <v>714246.6359206301</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12689,7 +13201,7 @@
         <v>714246.6359206301</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12722,7 +13234,7 @@
         <v>728901.85662063</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12755,7 +13267,7 @@
         <v>784824.46502063</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12788,7 +13300,7 @@
         <v>770978.24232063</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12821,7 +13333,7 @@
         <v>764992.69172063</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12854,7 +13366,7 @@
         <v>775542.81222063</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12887,7 +13399,7 @@
         <v>764729.36892063</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12920,7 +13432,7 @@
         <v>764729.36892063</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12953,7 +13465,7 @@
         <v>771685.7485206299</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12986,7 +13498,7 @@
         <v>770813.4104206299</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13019,7 +13531,7 @@
         <v>717664.4522206299</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13052,7 +13564,7 @@
         <v>611323.1434206299</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13085,7 +13597,7 @@
         <v>584941.7844206298</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13118,7 +13630,7 @@
         <v>490178.9959783399</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13151,7 +13663,7 @@
         <v>505628.9518783399</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13184,7 +13696,7 @@
         <v>522476.9717783399</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13217,7 +13729,7 @@
         <v>522476.9717783399</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13250,7 +13762,7 @@
         <v>551530.1595783399</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13283,7 +13795,7 @@
         <v>544435.8278783399</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13316,7 +13828,7 @@
         <v>544435.8278783399</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13349,7 +13861,7 @@
         <v>555417.1272783399</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13382,7 +13894,7 @@
         <v>555417.1272783399</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13415,7 +13927,7 @@
         <v>555417.1272783399</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13448,7 +13960,7 @@
         <v>555417.1272783399</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13481,7 +13993,7 @@
         <v>557619.6163783399</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13514,7 +14026,7 @@
         <v>557347.1486783399</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13547,7 +14059,7 @@
         <v>556188.3289783399</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13580,7 +14092,7 @@
         <v>501104.8641783399</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13613,7 +14125,7 @@
         <v>512814.3818783399</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13646,7 +14158,7 @@
         <v>512796.0024783399</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13679,7 +14191,7 @@
         <v>503524.80537834</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13712,7 +14224,7 @@
         <v>504066.49297834</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13745,7 +14257,7 @@
         <v>499993.71647834</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13778,7 +14290,7 @@
         <v>487729.66777834</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13811,7 +14323,7 @@
         <v>478526.05507834</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13976,7 +14488,7 @@
         <v>479972.89557834</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14009,7 +14521,7 @@
         <v>432844.4091783401</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14042,7 +14554,7 @@
         <v>407613.55197834</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14075,7 +14587,7 @@
         <v>450327.30337834</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14108,7 +14620,7 @@
         <v>410788.34247834</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14141,7 +14653,7 @@
         <v>364031.29697834</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14174,7 +14686,7 @@
         <v>322409.43477834</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14207,7 +14719,7 @@
         <v>334576.8188783401</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14240,7 +14752,7 @@
         <v>351542.9246303401</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14273,7 +14785,7 @@
         <v>351542.9246303401</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14306,7 +14818,7 @@
         <v>343772.1575303401</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14339,7 +14851,7 @@
         <v>343772.1575303401</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14372,7 +14884,7 @@
         <v>348774.7990303401</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14405,7 +14917,7 @@
         <v>340063.2703303401</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14438,7 +14950,7 @@
         <v>347279.7867303401</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14471,7 +14983,7 @@
         <v>332544.3690303401</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14504,7 +15016,7 @@
         <v>332544.3690303401</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14537,7 +15049,7 @@
         <v>350535.9994303401</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14570,7 +15082,7 @@
         <v>333423.8665303401</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14768,7 +15280,7 @@
         <v>427318.2271317201</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14801,7 +15313,7 @@
         <v>427318.2271317201</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14834,7 +15346,7 @@
         <v>422370.2444317201</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14867,7 +15379,7 @@
         <v>422370.2444317201</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14900,7 +15412,7 @@
         <v>426098.21593172</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14966,7 +15478,7 @@
         <v>434973.66933172</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14999,7 +15511,7 @@
         <v>447888.05163172</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15065,7 +15577,7 @@
         <v>462372.24332774</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15098,7 +15610,7 @@
         <v>462372.24332774</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15131,7 +15643,7 @@
         <v>461587.56292774</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15164,7 +15676,7 @@
         <v>456209.29212774</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15197,7 +15709,7 @@
         <v>475110.71272774</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15230,7 +15742,7 @@
         <v>481694.54602774</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15263,7 +15775,7 @@
         <v>471891.9484633</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15494,7 +16006,7 @@
         <v>412985.5235331501</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15527,7 +16039,7 @@
         <v>412985.5235331501</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15560,7 +16072,7 @@
         <v>412985.5235331501</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15593,7 +16105,7 @@
         <v>381944.2707331501</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15626,7 +16138,7 @@
         <v>382367.3540331501</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15659,7 +16171,7 @@
         <v>382104.60483315</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15758,7 +16270,7 @@
         <v>402714.5443331501</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15791,7 +16303,7 @@
         <v>402714.5443331501</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15824,7 +16336,7 @@
         <v>397346.1856331501</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15857,7 +16369,7 @@
         <v>392457.6951331501</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15890,7 +16402,7 @@
         <v>392457.6951331501</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15923,7 +16435,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15956,7 +16468,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15989,7 +16501,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16022,7 +16534,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16055,7 +16567,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16088,7 +16600,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16121,7 +16633,7 @@
         <v>382296.3741331501</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16154,7 +16666,7 @@
         <v>383499.3741331501</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16187,7 +16699,7 @@
         <v>383539.6133331501</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16220,7 +16732,7 @@
         <v>383439.6133331501</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16253,7 +16765,7 @@
         <v>373294.2835331501</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16286,7 +16798,7 @@
         <v>373294.2835331501</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16319,7 +16831,7 @@
         <v>369965.3379331501</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16352,7 +16864,7 @@
         <v>371815.7901331501</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16385,7 +16897,7 @@
         <v>371815.7901331501</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16418,7 +16930,7 @@
         <v>371815.7901331501</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16451,7 +16963,7 @@
         <v>366871.1531331501</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16649,7 +17161,7 @@
         <v>390484.9775777001</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16682,7 +17194,7 @@
         <v>390484.9775777001</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16715,7 +17227,7 @@
         <v>388310.0790777001</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16781,7 +17293,7 @@
         <v>394259.0666777001</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16847,7 +17359,7 @@
         <v>403368.2520777001</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16913,7 +17425,7 @@
         <v>394565.0481199201</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16946,7 +17458,7 @@
         <v>402750.7709199201</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16979,7 +17491,7 @@
         <v>393248.8760260401</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17078,7 +17590,7 @@
         <v>446536.5165321601</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17111,7 +17623,7 @@
         <v>464519.8838947901</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17144,7 +17656,7 @@
         <v>472868.2417947901</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17177,7 +17689,7 @@
         <v>462787.5794947901</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17210,7 +17722,7 @@
         <v>462787.5794947901</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17243,7 +17755,7 @@
         <v>462787.5794947901</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17276,7 +17788,7 @@
         <v>462787.5794947901</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17309,7 +17821,7 @@
         <v>457869.45785083</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17342,7 +17854,7 @@
         <v>453426.0402508301</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17375,7 +17887,7 @@
         <v>452923.3066508301</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17408,7 +17920,7 @@
         <v>448802.3186569501</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17441,7 +17953,7 @@
         <v>471788.2193569501</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17474,7 +17986,7 @@
         <v>471788.2193569501</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17507,7 +18019,7 @@
         <v>471788.2193569501</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17540,7 +18052,7 @@
         <v>484324.1713569501</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17573,7 +18085,7 @@
         <v>480663.2611569501</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17606,7 +18118,7 @@
         <v>481463.9436569501</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17639,7 +18151,7 @@
         <v>476850.0540569501</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17672,7 +18184,7 @@
         <v>464005.3171138201</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17705,7 +18217,7 @@
         <v>466520.7188138201</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17738,7 +18250,7 @@
         <v>472250.7648138201</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17771,7 +18283,7 @@
         <v>475751.5382138201</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17804,7 +18316,7 @@
         <v>477114.4820418801</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17837,7 +18349,7 @@
         <v>476891.4586418801</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17870,7 +18382,7 @@
         <v>471415.4439418801</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17903,7 +18415,7 @@
         <v>471414.4439418801</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17936,7 +18448,7 @@
         <v>472330.0795668301</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17969,7 +18481,7 @@
         <v>468630.7737668301</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18002,7 +18514,7 @@
         <v>468630.7737668301</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18035,7 +18547,7 @@
         <v>457370.6614370101</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18068,7 +18580,7 @@
         <v>457370.6614370101</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18101,7 +18613,7 @@
         <v>457370.6614370101</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18134,7 +18646,7 @@
         <v>457370.6614370101</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18167,7 +18679,7 @@
         <v>464425.3747370101</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18200,7 +18712,7 @@
         <v>463372.5131370101</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18233,7 +18745,7 @@
         <v>463372.5131370101</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18266,7 +18778,7 @@
         <v>463372.5131370101</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18299,7 +18811,7 @@
         <v>464446.0086370101</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18332,7 +18844,7 @@
         <v>484440.8119370101</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18365,7 +18877,7 @@
         <v>482642.4628370102</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18398,7 +18910,7 @@
         <v>482891.4628370102</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18431,7 +18943,7 @@
         <v>481093.1137370102</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18464,7 +18976,7 @@
         <v>480633.7707370102</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18497,7 +19009,7 @@
         <v>480633.7707370102</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18530,7 +19042,7 @@
         <v>480633.7707370102</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18563,7 +19075,7 @@
         <v>480633.7707370102</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18596,7 +19108,7 @@
         <v>485816.1291370102</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18629,7 +19141,7 @@
         <v>485816.1291370102</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18662,7 +19174,7 @@
         <v>485816.1291370102</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18695,7 +19207,7 @@
         <v>456970.2546370102</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18728,7 +19240,7 @@
         <v>455359.5810370102</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18761,7 +19273,7 @@
         <v>443295.9310370102</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18794,7 +19306,7 @@
         <v>442789.4095370102</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18827,7 +19339,7 @@
         <v>445419.4229370102</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18860,7 +19372,7 @@
         <v>448049.4692370102</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18893,7 +19405,7 @@
         <v>448055.8175736002</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18926,7 +19438,7 @@
         <v>448045.8175736002</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18959,7 +19471,7 @@
         <v>461819.0792736002</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18992,7 +19504,7 @@
         <v>461670.7298736002</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19025,7 +19537,7 @@
         <v>462361.6966392202</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19058,7 +19570,7 @@
         <v>457051.4954673502</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19091,7 +19603,7 @@
         <v>457051.4954673502</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19124,7 +19636,7 @@
         <v>451291.4954673502</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19157,7 +19669,7 @@
         <v>451291.4954673502</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19190,7 +19702,7 @@
         <v>452178.2287673502</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19223,7 +19735,7 @@
         <v>449556.6211673502</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19256,7 +19768,7 @@
         <v>448590.6569673502</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19289,7 +19801,7 @@
         <v>455188.2933673502</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19322,7 +19834,7 @@
         <v>453339.9064673503</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19355,7 +19867,7 @@
         <v>450407.1008673502</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19388,7 +19900,7 @@
         <v>451252.2924673503</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19421,7 +19933,7 @@
         <v>448461.9650673502</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19454,7 +19966,7 @@
         <v>431497.1680673502</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19487,7 +19999,7 @@
         <v>431497.1680673502</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19520,7 +20032,7 @@
         <v>429571.7066673503</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19553,7 +20065,7 @@
         <v>434835.1357673503</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19586,7 +20098,7 @@
         <v>433729.1542673503</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19619,7 +20131,7 @@
         <v>401174.9284673503</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19652,7 +20164,7 @@
         <v>405848.3868673503</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19685,7 +20197,7 @@
         <v>422844.9092358503</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19718,7 +20230,7 @@
         <v>422844.9092358503</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19751,7 +20263,7 @@
         <v>415795.0721358503</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19784,7 +20296,7 @@
         <v>415795.0721358503</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19817,7 +20329,7 @@
         <v>415795.0721358503</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19850,7 +20362,7 @@
         <v>400928.8485358502</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19883,7 +20395,7 @@
         <v>404359.7346358502</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19916,7 +20428,7 @@
         <v>405220.6484358502</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19949,7 +20461,7 @@
         <v>400641.5319358502</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19982,7 +20494,7 @@
         <v>400641.5319358502</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20015,7 +20527,7 @@
         <v>397151.5397358502</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20048,7 +20560,7 @@
         <v>395125.9170358502</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20081,7 +20593,7 @@
         <v>395125.9170358502</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20114,7 +20626,7 @@
         <v>395125.9170358502</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20147,7 +20659,7 @@
         <v>400592.5380358502</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20180,7 +20692,7 @@
         <v>400592.5380358502</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20213,7 +20725,7 @@
         <v>401545.6529358502</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20246,7 +20758,7 @@
         <v>401545.6529358502</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20279,7 +20791,7 @@
         <v>397439.9143358502</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20312,7 +20824,7 @@
         <v>396793.3491358502</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20345,7 +20857,7 @@
         <v>400598.0247358502</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20378,7 +20890,7 @@
         <v>400598.0247358502</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20411,7 +20923,7 @@
         <v>397275.9028358502</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20444,7 +20956,7 @@
         <v>397275.9028358502</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20477,7 +20989,7 @@
         <v>397275.9028358502</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20510,7 +21022,7 @@
         <v>397275.9028358502</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20543,7 +21055,7 @@
         <v>397301.5126358502</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20576,7 +21088,7 @@
         <v>397301.5126358502</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20609,7 +21121,7 @@
         <v>398379.1652358501</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20642,7 +21154,7 @@
         <v>392960.5227358501</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20741,7 +21253,7 @@
         <v>400273.1460348502</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21005,7 +21517,7 @@
         <v>408395.7662348501</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21071,7 +21583,7 @@
         <v>408395.7662348501</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21203,7 +21715,7 @@
         <v>409668.5732348501</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21236,7 +21748,7 @@
         <v>409668.5732348501</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21269,7 +21781,7 @@
         <v>409668.5732348501</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21302,7 +21814,7 @@
         <v>401403.3355348501</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21335,7 +21847,7 @@
         <v>401592.3355348501</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21368,7 +21880,7 @@
         <v>399755.2795348501</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21401,7 +21913,7 @@
         <v>386708.0978348501</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21434,7 +21946,7 @@
         <v>387236.8855348501</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21467,7 +21979,7 @@
         <v>394053.3833348501</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21500,7 +22012,7 @@
         <v>394593.3465348501</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21533,7 +22045,7 @@
         <v>394593.3465348501</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21566,7 +22078,7 @@
         <v>394593.3465348501</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21599,7 +22111,7 @@
         <v>395480.4488348501</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21632,7 +22144,7 @@
         <v>388571.7752348501</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21665,7 +22177,7 @@
         <v>389948.9997348501</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21698,7 +22210,7 @@
         <v>398171.1401663501</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21731,7 +22243,7 @@
         <v>407769.8811663501</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21764,7 +22276,7 @@
         <v>407522.7706663501</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21797,7 +22309,7 @@
         <v>407528.7706663501</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21830,7 +22342,7 @@
         <v>407528.7706663501</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21863,7 +22375,7 @@
         <v>407528.7706663501</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21896,7 +22408,7 @@
         <v>403610.6225663501</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21929,7 +22441,7 @@
         <v>387812.3236663501</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21962,7 +22474,7 @@
         <v>387812.3236663501</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21995,7 +22507,7 @@
         <v>387812.3236663501</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22028,7 +22540,7 @@
         <v>364362.6583663501</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22061,7 +22573,7 @@
         <v>361409.3195663501</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22094,7 +22606,7 @@
         <v>354329.0081663501</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22127,7 +22639,7 @@
         <v>354397.0081663501</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22160,7 +22672,7 @@
         <v>350942.7844663501</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22193,7 +22705,7 @@
         <v>350942.7844663501</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22226,7 +22738,7 @@
         <v>350942.7844663501</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22259,7 +22771,7 @@
         <v>349930.6367663501</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22292,7 +22804,7 @@
         <v>349930.6367663501</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22325,7 +22837,7 @@
         <v>349933.6367663501</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22358,7 +22870,7 @@
         <v>341685.2744663502</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22391,7 +22903,7 @@
         <v>332322.4755663502</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22424,7 +22936,7 @@
         <v>324785.6982663501</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22457,7 +22969,7 @@
         <v>318546.7673663502</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22490,7 +23002,7 @@
         <v>318546.7673663502</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22523,7 +23035,7 @@
         <v>323597.9630663501</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22556,7 +23068,7 @@
         <v>323597.9630663501</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22589,7 +23101,7 @@
         <v>316761.5421129701</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22622,7 +23134,7 @@
         <v>318173.0832129701</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22655,7 +23167,7 @@
         <v>318173.0832129701</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22721,7 +23233,7 @@
         <v>318173.0832129701</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22754,7 +23266,7 @@
         <v>314264.7305129701</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -30916,6 +31428,6 @@
       <c r="M894" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest MTL.xlsx
+++ b/BackTest/2019-11-02 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2200,11 +2200,9 @@
         <v>54486.4019</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2239,11 +2237,9 @@
         <v>54428.157</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2278,11 +2274,9 @@
         <v>54428.157</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2317,11 +2311,9 @@
         <v>54400.9898</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2356,11 +2348,9 @@
         <v>53101.71459999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2395,11 +2385,9 @@
         <v>53101.71459999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2434,11 +2422,9 @@
         <v>53101.71459999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2473,11 +2459,9 @@
         <v>50695.39169999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2512,11 +2496,9 @@
         <v>51116.39379999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -3370,11 +3352,9 @@
         <v>45676.0092</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3409,11 +3389,9 @@
         <v>45048.6562</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -4423,11 +4401,9 @@
         <v>33407.89430000001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4462,11 +4438,9 @@
         <v>35202.25659218001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4540,11 +4514,9 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4579,11 +4551,9 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4618,11 +4588,9 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4657,11 +4625,9 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4696,11 +4662,9 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4735,11 +4699,9 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4774,11 +4736,9 @@
         <v>15944.57366684001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4813,11 +4773,9 @@
         <v>11056.93856684001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4852,11 +4810,9 @@
         <v>11057.93856684001</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4891,11 +4847,9 @@
         <v>11057.93856684001</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4930,11 +4884,9 @@
         <v>11057.93856684001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4969,11 +4921,9 @@
         <v>11057.93856684001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -5008,11 +4958,9 @@
         <v>11058.93856684001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -5047,11 +4995,9 @@
         <v>11058.93856684001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5086,11 +5032,9 @@
         <v>11058.93856684001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5125,11 +5069,9 @@
         <v>-38815.43956387999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5386,11 +5328,9 @@
         <v>-35928.48756387999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5425,11 +5365,9 @@
         <v>-37051.21226387999</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5464,11 +5402,9 @@
         <v>-36958.50066387999</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5503,11 +5439,9 @@
         <v>-38770.24976387999</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5542,11 +5476,9 @@
         <v>-36052.20856387999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5581,11 +5513,9 @@
         <v>-40937.10126387999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5620,11 +5550,9 @@
         <v>-40937.10126387999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5659,11 +5587,9 @@
         <v>-40936.10126387999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5698,11 +5624,9 @@
         <v>-40936.10126387999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5737,11 +5661,9 @@
         <v>-42405.70581957999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5776,11 +5698,9 @@
         <v>91232.39838931001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -6074,18 +5994,16 @@
         <v>46562.63898783001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -6115,11 +6033,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6152,11 +6066,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6185,17 +6095,11 @@
         <v>-41544.05000105</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6228,11 +6132,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6265,11 +6165,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6298,17 +6194,11 @@
         <v>-84319.59420104999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6337,17 +6227,11 @@
         <v>-90846.41570104999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6376,17 +6260,11 @@
         <v>-93507.17240104999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6419,11 +6297,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6456,11 +6330,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6493,11 +6363,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6530,11 +6396,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6567,11 +6429,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6604,11 +6462,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6641,11 +6495,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6678,11 +6528,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6711,17 +6557,11 @@
         <v>-83940.50830104998</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6594,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6791,11 +6627,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6828,11 +6660,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6865,11 +6693,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6902,11 +6726,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6939,11 +6759,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6976,11 +6792,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7013,11 +6825,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7050,11 +6858,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7087,11 +6891,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7124,11 +6924,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7161,11 +6957,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7198,11 +6990,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7235,11 +7023,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7272,11 +7056,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7309,11 +7089,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7346,11 +7122,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7383,11 +7155,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7420,11 +7188,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7457,11 +7221,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7494,11 +7254,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7531,11 +7287,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7568,11 +7320,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7605,11 +7353,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7642,11 +7386,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7679,11 +7419,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +7452,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7753,11 +7485,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7790,11 +7518,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7827,11 +7551,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7864,11 +7584,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7901,11 +7617,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7938,11 +7650,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +7683,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8012,11 +7716,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8049,11 +7749,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8086,11 +7782,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8123,11 +7815,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8160,11 +7848,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8197,11 +7881,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8234,11 +7914,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8271,11 +7947,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +7980,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8345,11 +8013,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8382,11 +8046,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8419,11 +8079,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8456,11 +8112,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8493,11 +8145,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8530,11 +8178,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8567,11 +8211,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8604,11 +8244,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8641,11 +8277,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8678,11 +8310,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8715,11 +8343,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8752,11 +8376,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8789,11 +8409,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8826,11 +8442,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8863,11 +8475,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8900,11 +8508,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8937,11 +8541,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8974,11 +8574,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9011,11 +8607,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9048,11 +8640,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9081,15 +8669,11 @@
         <v>62891.02699818003</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9122,11 +8706,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9159,11 +8739,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +8772,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9233,11 +8805,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9270,11 +8838,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9307,11 +8871,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9344,11 +8904,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9377,15 +8933,11 @@
         <v>138606.1871824</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9414,15 +8966,11 @@
         <v>212363.85752814</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9451,15 +8999,11 @@
         <v>235918.28082814</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9488,15 +9032,11 @@
         <v>235918.28082814</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9525,15 +9065,11 @@
         <v>235918.28082814</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9562,15 +9098,11 @@
         <v>250587.50154184</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9599,15 +9131,11 @@
         <v>240609.69634184</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9636,15 +9164,11 @@
         <v>232608.38074184</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9673,15 +9197,11 @@
         <v>247994.15134184</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9710,15 +9230,11 @@
         <v>250266.22394184</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9747,15 +9263,11 @@
         <v>266289.62824184</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9784,15 +9296,11 @@
         <v>296702.15054184</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9821,15 +9329,11 @@
         <v>264611.88604184</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9858,15 +9362,11 @@
         <v>308361.36354184</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9895,15 +9395,11 @@
         <v>382622.53274184</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9932,15 +9428,11 @@
         <v>445888.47391515</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9969,15 +9461,11 @@
         <v>521572.02474184</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10006,15 +9494,11 @@
         <v>452704.15416701</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10047,11 +9531,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10084,11 +9564,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10121,11 +9597,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10158,11 +9630,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10195,11 +9663,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10232,11 +9696,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10269,11 +9729,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10306,11 +9762,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10339,15 +9791,11 @@
         <v>330587.78059338</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10376,15 +9824,11 @@
         <v>296769.10929338</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10413,15 +9857,11 @@
         <v>296769.10929338</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10450,15 +9890,11 @@
         <v>273912.79279338</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10487,15 +9923,11 @@
         <v>293883.38279338</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10524,15 +9956,11 @@
         <v>305079.00099338</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10561,15 +9989,11 @@
         <v>347768.0138933801</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10602,11 +10026,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10635,15 +10055,11 @@
         <v>341067.3640004101</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10676,11 +10092,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10713,11 +10125,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10750,11 +10158,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10783,15 +10187,11 @@
         <v>325392.7601991901</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10820,15 +10220,11 @@
         <v>308994.3115612101</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10857,15 +10253,11 @@
         <v>309931.9043612101</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10894,15 +10286,11 @@
         <v>306011.0413612101</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10931,15 +10319,11 @@
         <v>319900.95666121</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10968,15 +10352,11 @@
         <v>319481.39986121</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11005,15 +10385,11 @@
         <v>325895.97096121</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11042,15 +10418,11 @@
         <v>400324.64486121</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11079,15 +10451,11 @@
         <v>440890.63026121</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11116,15 +10484,11 @@
         <v>461690.19484197</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11153,15 +10517,11 @@
         <v>437889.6790109</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11190,15 +10550,11 @@
         <v>446000.8081109</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11231,11 +10587,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11268,11 +10620,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11305,11 +10653,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11342,11 +10686,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11379,11 +10719,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11416,11 +10752,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11453,11 +10785,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11490,11 +10818,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11527,11 +10851,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11564,11 +10884,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11601,11 +10917,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +10950,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11675,11 +10983,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11712,11 +11016,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11749,11 +11049,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11786,11 +11082,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11823,11 +11115,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11860,11 +11148,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11897,11 +11181,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11934,11 +11214,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11971,11 +11247,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12008,11 +11280,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12045,11 +11313,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12082,11 +11346,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12119,11 +11379,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12156,11 +11412,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12193,11 +11445,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12230,11 +11478,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12267,11 +11511,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12304,11 +11544,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12341,11 +11577,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12374,16 +11606,14 @@
         <v>792046.58585636</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
       <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
@@ -12409,7 +11639,7 @@
         <v>792046.58585636</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12442,7 +11672,7 @@
         <v>735876.9092768601</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12508,7 +11738,7 @@
         <v>699781.5500455</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12541,7 +11771,7 @@
         <v>708776.80117221</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12574,7 +11804,7 @@
         <v>721174.01674867</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12607,7 +11837,7 @@
         <v>721174.01674867</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12640,7 +11870,7 @@
         <v>769423.67449894</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12673,7 +11903,7 @@
         <v>852156.1102411901</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12706,7 +11936,7 @@
         <v>782385.6513411901</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12739,7 +11969,7 @@
         <v>733879.90494119</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12772,7 +12002,7 @@
         <v>758319.1402411901</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12805,7 +12035,7 @@
         <v>706253.8114411901</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12838,7 +12068,7 @@
         <v>706253.8114411901</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12871,7 +12101,7 @@
         <v>732942.5654001001</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12904,7 +12134,7 @@
         <v>718868.6407169001</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12937,7 +12167,7 @@
         <v>718868.6407169001</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12970,7 +12200,7 @@
         <v>697026.5565450601</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13003,7 +12233,7 @@
         <v>713289.7887450601</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13036,7 +12266,7 @@
         <v>705549.8315022601</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13069,7 +12299,7 @@
         <v>719545.44280226</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13102,7 +12332,7 @@
         <v>726344.4521503201</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13135,7 +12365,7 @@
         <v>730573.81842528</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13168,7 +12398,7 @@
         <v>714246.6359206301</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13201,7 +12431,7 @@
         <v>714246.6359206301</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13234,7 +12464,7 @@
         <v>728901.85662063</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13267,7 +12497,7 @@
         <v>784824.46502063</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13300,7 +12530,7 @@
         <v>770978.24232063</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13333,7 +12563,7 @@
         <v>764992.69172063</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13366,7 +12596,7 @@
         <v>775542.81222063</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13399,7 +12629,7 @@
         <v>764729.36892063</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13432,7 +12662,7 @@
         <v>764729.36892063</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13465,7 +12695,7 @@
         <v>771685.7485206299</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13498,7 +12728,7 @@
         <v>770813.4104206299</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13597,7 +12827,7 @@
         <v>584941.7844206298</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13630,7 +12860,7 @@
         <v>490178.9959783399</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13663,7 +12893,7 @@
         <v>505628.9518783399</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13696,7 +12926,7 @@
         <v>522476.9717783399</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13729,7 +12959,7 @@
         <v>522476.9717783399</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13762,7 +12992,7 @@
         <v>551530.1595783399</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13795,7 +13025,7 @@
         <v>544435.8278783399</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13828,7 +13058,7 @@
         <v>544435.8278783399</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13861,7 +13091,7 @@
         <v>555417.1272783399</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13894,7 +13124,7 @@
         <v>555417.1272783399</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13927,7 +13157,7 @@
         <v>555417.1272783399</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13960,7 +13190,7 @@
         <v>555417.1272783399</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13993,7 +13223,7 @@
         <v>557619.6163783399</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14026,7 +13256,7 @@
         <v>557347.1486783399</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14059,7 +13289,7 @@
         <v>556188.3289783399</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14092,7 +13322,7 @@
         <v>501104.8641783399</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14125,7 +13355,7 @@
         <v>512814.3818783399</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14158,7 +13388,7 @@
         <v>512796.0024783399</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14191,7 +13421,7 @@
         <v>503524.80537834</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14224,7 +13454,7 @@
         <v>504066.49297834</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14257,7 +13487,7 @@
         <v>499993.71647834</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14290,7 +13520,7 @@
         <v>487729.66777834</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14323,7 +13553,7 @@
         <v>478526.05507834</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14488,7 +13718,7 @@
         <v>479972.89557834</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14521,7 +13751,7 @@
         <v>432844.4091783401</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14554,7 +13784,7 @@
         <v>407613.55197834</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14587,7 +13817,7 @@
         <v>450327.30337834</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14620,7 +13850,7 @@
         <v>410788.34247834</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14653,7 +13883,7 @@
         <v>364031.29697834</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14686,7 +13916,7 @@
         <v>322409.43477834</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14719,7 +13949,7 @@
         <v>334576.8188783401</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14752,7 +13982,7 @@
         <v>351542.9246303401</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14785,7 +14015,7 @@
         <v>351542.9246303401</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14818,7 +14048,7 @@
         <v>343772.1575303401</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14851,7 +14081,7 @@
         <v>343772.1575303401</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14884,7 +14114,7 @@
         <v>348774.7990303401</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14917,7 +14147,7 @@
         <v>340063.2703303401</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14950,7 +14180,7 @@
         <v>347279.7867303401</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14983,7 +14213,7 @@
         <v>332544.3690303401</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15016,7 +14246,7 @@
         <v>332544.3690303401</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15049,7 +14279,7 @@
         <v>350535.9994303401</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15082,7 +14312,7 @@
         <v>333423.8665303401</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15280,7 +14510,7 @@
         <v>427318.2271317201</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15313,7 +14543,7 @@
         <v>427318.2271317201</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15346,7 +14576,7 @@
         <v>422370.2444317201</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15379,7 +14609,7 @@
         <v>422370.2444317201</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15412,7 +14642,7 @@
         <v>426098.21593172</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15478,7 +14708,7 @@
         <v>434973.66933172</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15511,7 +14741,7 @@
         <v>447888.05163172</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15577,7 +14807,7 @@
         <v>462372.24332774</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15610,7 +14840,7 @@
         <v>462372.24332774</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15643,7 +14873,7 @@
         <v>461587.56292774</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15676,7 +14906,7 @@
         <v>456209.29212774</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15709,7 +14939,7 @@
         <v>475110.71272774</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16006,7 +15236,7 @@
         <v>412985.5235331501</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16039,7 +15269,7 @@
         <v>412985.5235331501</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16072,7 +15302,7 @@
         <v>412985.5235331501</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16105,7 +15335,7 @@
         <v>381944.2707331501</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16138,7 +15368,7 @@
         <v>382367.3540331501</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16171,7 +15401,7 @@
         <v>382104.60483315</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16270,7 +15500,7 @@
         <v>402714.5443331501</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16303,7 +15533,7 @@
         <v>402714.5443331501</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16336,7 +15566,7 @@
         <v>397346.1856331501</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16369,7 +15599,7 @@
         <v>392457.6951331501</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16402,7 +15632,7 @@
         <v>392457.6951331501</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16435,7 +15665,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16468,7 +15698,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16501,7 +15731,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16534,7 +15764,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16567,7 +15797,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16600,7 +15830,7 @@
         <v>389351.0902331501</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16633,7 +15863,7 @@
         <v>382296.3741331501</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16666,7 +15896,7 @@
         <v>383499.3741331501</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16699,7 +15929,7 @@
         <v>383539.6133331501</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16732,7 +15962,7 @@
         <v>383439.6133331501</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16765,7 +15995,7 @@
         <v>373294.2835331501</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16798,7 +16028,7 @@
         <v>373294.2835331501</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16831,7 +16061,7 @@
         <v>369965.3379331501</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16864,7 +16094,7 @@
         <v>371815.7901331501</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16897,7 +16127,7 @@
         <v>371815.7901331501</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16930,7 +16160,7 @@
         <v>371815.7901331501</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16963,7 +16193,7 @@
         <v>366871.1531331501</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17656,7 +16886,7 @@
         <v>472868.2417947901</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17689,7 +16919,7 @@
         <v>462787.5794947901</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17722,7 +16952,7 @@
         <v>462787.5794947901</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17755,7 +16985,7 @@
         <v>462787.5794947901</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17788,7 +17018,7 @@
         <v>462787.5794947901</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17821,7 +17051,7 @@
         <v>457869.45785083</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17854,7 +17084,7 @@
         <v>453426.0402508301</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17887,7 +17117,7 @@
         <v>452923.3066508301</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17920,7 +17150,7 @@
         <v>448802.3186569501</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17953,7 +17183,7 @@
         <v>471788.2193569501</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17986,7 +17216,7 @@
         <v>471788.2193569501</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18019,7 +17249,7 @@
         <v>471788.2193569501</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18052,7 +17282,7 @@
         <v>484324.1713569501</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18085,7 +17315,7 @@
         <v>480663.2611569501</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18118,7 +17348,7 @@
         <v>481463.9436569501</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18151,7 +17381,7 @@
         <v>476850.0540569501</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18184,7 +17414,7 @@
         <v>464005.3171138201</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18217,7 +17447,7 @@
         <v>466520.7188138201</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18250,7 +17480,7 @@
         <v>472250.7648138201</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18283,7 +17513,7 @@
         <v>475751.5382138201</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18316,7 +17546,7 @@
         <v>477114.4820418801</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18349,7 +17579,7 @@
         <v>476891.4586418801</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18382,7 +17612,7 @@
         <v>471415.4439418801</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18415,7 +17645,7 @@
         <v>471414.4439418801</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18448,7 +17678,7 @@
         <v>472330.0795668301</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18481,7 +17711,7 @@
         <v>468630.7737668301</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18514,7 +17744,7 @@
         <v>468630.7737668301</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18547,7 +17777,7 @@
         <v>457370.6614370101</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18580,7 +17810,7 @@
         <v>457370.6614370101</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18613,7 +17843,7 @@
         <v>457370.6614370101</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18646,7 +17876,7 @@
         <v>457370.6614370101</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18679,7 +17909,7 @@
         <v>464425.3747370101</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18712,7 +17942,7 @@
         <v>463372.5131370101</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18745,7 +17975,7 @@
         <v>463372.5131370101</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18778,7 +18008,7 @@
         <v>463372.5131370101</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18811,7 +18041,7 @@
         <v>464446.0086370101</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18844,7 +18074,7 @@
         <v>484440.8119370101</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18877,7 +18107,7 @@
         <v>482642.4628370102</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18910,7 +18140,7 @@
         <v>482891.4628370102</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18943,7 +18173,7 @@
         <v>481093.1137370102</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18976,7 +18206,7 @@
         <v>480633.7707370102</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19009,7 +18239,7 @@
         <v>480633.7707370102</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19042,7 +18272,7 @@
         <v>480633.7707370102</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19075,7 +18305,7 @@
         <v>480633.7707370102</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19108,7 +18338,7 @@
         <v>485816.1291370102</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19141,7 +18371,7 @@
         <v>485816.1291370102</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19174,7 +18404,7 @@
         <v>485816.1291370102</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19207,7 +18437,7 @@
         <v>456970.2546370102</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19240,7 +18470,7 @@
         <v>455359.5810370102</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19273,7 +18503,7 @@
         <v>443295.9310370102</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19306,7 +18536,7 @@
         <v>442789.4095370102</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19339,7 +18569,7 @@
         <v>445419.4229370102</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19372,7 +18602,7 @@
         <v>448049.4692370102</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19405,7 +18635,7 @@
         <v>448055.8175736002</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19438,7 +18668,7 @@
         <v>448045.8175736002</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19471,7 +18701,7 @@
         <v>461819.0792736002</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19504,7 +18734,7 @@
         <v>461670.7298736002</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19537,7 +18767,7 @@
         <v>462361.6966392202</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19570,7 +18800,7 @@
         <v>457051.4954673502</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19603,7 +18833,7 @@
         <v>457051.4954673502</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19636,7 +18866,7 @@
         <v>451291.4954673502</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19669,7 +18899,7 @@
         <v>451291.4954673502</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19702,7 +18932,7 @@
         <v>452178.2287673502</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19735,7 +18965,7 @@
         <v>449556.6211673502</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19768,7 +18998,7 @@
         <v>448590.6569673502</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19801,7 +19031,7 @@
         <v>455188.2933673502</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19834,7 +19064,7 @@
         <v>453339.9064673503</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19867,7 +19097,7 @@
         <v>450407.1008673502</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19900,7 +19130,7 @@
         <v>451252.2924673503</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19933,7 +19163,7 @@
         <v>448461.9650673502</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19966,7 +19196,7 @@
         <v>431497.1680673502</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19999,7 +19229,7 @@
         <v>431497.1680673502</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20032,7 +19262,7 @@
         <v>429571.7066673503</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20065,7 +19295,7 @@
         <v>434835.1357673503</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20098,7 +19328,7 @@
         <v>433729.1542673503</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20131,7 +19361,7 @@
         <v>401174.9284673503</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20164,7 +19394,7 @@
         <v>405848.3868673503</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20197,7 +19427,7 @@
         <v>422844.9092358503</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20230,7 +19460,7 @@
         <v>422844.9092358503</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20263,7 +19493,7 @@
         <v>415795.0721358503</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20296,7 +19526,7 @@
         <v>415795.0721358503</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20329,7 +19559,7 @@
         <v>415795.0721358503</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20362,7 +19592,7 @@
         <v>400928.8485358502</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20395,7 +19625,7 @@
         <v>404359.7346358502</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20428,7 +19658,7 @@
         <v>405220.6484358502</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20461,7 +19691,7 @@
         <v>400641.5319358502</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20494,7 +19724,7 @@
         <v>400641.5319358502</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20527,7 +19757,7 @@
         <v>397151.5397358502</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20560,7 +19790,7 @@
         <v>395125.9170358502</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20593,7 +19823,7 @@
         <v>395125.9170358502</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20626,7 +19856,7 @@
         <v>395125.9170358502</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20659,7 +19889,7 @@
         <v>400592.5380358502</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20692,7 +19922,7 @@
         <v>400592.5380358502</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20725,7 +19955,7 @@
         <v>401545.6529358502</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20758,7 +19988,7 @@
         <v>401545.6529358502</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20791,7 +20021,7 @@
         <v>397439.9143358502</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20824,7 +20054,7 @@
         <v>396793.3491358502</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20890,7 +20120,7 @@
         <v>400598.0247358502</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20923,7 +20153,7 @@
         <v>397275.9028358502</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20956,7 +20186,7 @@
         <v>397275.9028358502</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20989,7 +20219,7 @@
         <v>397275.9028358502</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21022,7 +20252,7 @@
         <v>397275.9028358502</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21055,7 +20285,7 @@
         <v>397301.5126358502</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21088,7 +20318,7 @@
         <v>397301.5126358502</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21121,7 +20351,7 @@
         <v>398379.1652358501</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21154,7 +20384,7 @@
         <v>392960.5227358501</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21253,7 +20483,7 @@
         <v>400273.1460348502</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21517,7 +20747,7 @@
         <v>408395.7662348501</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21847,7 +21077,7 @@
         <v>401592.3355348501</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21880,7 +21110,7 @@
         <v>399755.2795348501</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21913,7 +21143,7 @@
         <v>386708.0978348501</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21946,7 +21176,7 @@
         <v>387236.8855348501</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21979,7 +21209,7 @@
         <v>394053.3833348501</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22012,7 +21242,7 @@
         <v>394593.3465348501</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22111,7 +21341,7 @@
         <v>395480.4488348501</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22144,7 +21374,7 @@
         <v>388571.7752348501</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22177,7 +21407,7 @@
         <v>389948.9997348501</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22210,7 +21440,7 @@
         <v>398171.1401663501</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22243,7 +21473,7 @@
         <v>407769.8811663501</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22276,7 +21506,7 @@
         <v>407522.7706663501</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22309,7 +21539,7 @@
         <v>407528.7706663501</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22342,7 +21572,7 @@
         <v>407528.7706663501</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22375,7 +21605,7 @@
         <v>407528.7706663501</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22408,7 +21638,7 @@
         <v>403610.6225663501</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22441,7 +21671,7 @@
         <v>387812.3236663501</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22474,7 +21704,7 @@
         <v>387812.3236663501</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22507,7 +21737,7 @@
         <v>387812.3236663501</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22540,7 +21770,7 @@
         <v>364362.6583663501</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22573,7 +21803,7 @@
         <v>361409.3195663501</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22606,7 +21836,7 @@
         <v>354329.0081663501</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22639,7 +21869,7 @@
         <v>354397.0081663501</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22672,7 +21902,7 @@
         <v>350942.7844663501</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22705,7 +21935,7 @@
         <v>350942.7844663501</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22738,7 +21968,7 @@
         <v>350942.7844663501</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22771,7 +22001,7 @@
         <v>349930.6367663501</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22804,7 +22034,7 @@
         <v>349930.6367663501</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22837,7 +22067,7 @@
         <v>349933.6367663501</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22870,7 +22100,7 @@
         <v>341685.2744663502</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22903,7 +22133,7 @@
         <v>332322.4755663502</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22936,7 +22166,7 @@
         <v>324785.6982663501</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22969,7 +22199,7 @@
         <v>318546.7673663502</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23002,7 +22232,7 @@
         <v>318546.7673663502</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23035,7 +22265,7 @@
         <v>323597.9630663501</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23068,7 +22298,7 @@
         <v>323597.9630663501</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23101,7 +22331,7 @@
         <v>316761.5421129701</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23134,7 +22364,7 @@
         <v>318173.0832129701</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23167,7 +22397,7 @@
         <v>318173.0832129701</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23233,7 +22463,7 @@
         <v>318173.0832129701</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23266,7 +22496,7 @@
         <v>314264.7305129701</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -31428,6 +30658,6 @@
       <c r="M894" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest MTL.xlsx
+++ b/BackTest/2019-11-02 BackTest MTL.xlsx
@@ -2005,11 +2005,9 @@
         <v>28152.488</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2083,11 +2081,9 @@
         <v>28152.488</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2122,11 +2118,9 @@
         <v>21920.9559</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2161,11 +2155,9 @@
         <v>54486.4019</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2533,11 +2525,9 @@
         <v>50998.74219999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2572,11 +2562,9 @@
         <v>50998.74219999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2611,11 +2599,9 @@
         <v>44466.0422</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2650,11 +2636,9 @@
         <v>44466.0422</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2689,11 +2673,9 @@
         <v>44466.0422</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2728,11 +2710,9 @@
         <v>44466.0422</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2767,11 +2747,9 @@
         <v>44166.0422</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -3352,9 +3330,11 @@
         <v>45676.0092</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>433</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3389,9 +3369,11 @@
         <v>45048.6562</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>433</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -4362,11 +4344,9 @@
         <v>53932.93520000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4475,11 +4455,9 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -5587,9 +5565,11 @@
         <v>-40936.10126387999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>436</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5994,16 +5974,18 @@
         <v>46562.63898783001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -6033,7 +6015,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6066,7 +6052,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6099,7 +6089,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6132,7 +6126,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6165,7 +6163,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6200,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6231,7 +6237,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6264,7 +6274,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6297,7 +6311,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6330,7 +6348,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6363,7 +6385,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6396,7 +6422,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6429,7 +6459,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6462,7 +6496,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6495,7 +6533,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6528,7 +6570,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6561,7 +6607,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6594,7 +6644,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6627,7 +6681,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6660,7 +6718,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6693,7 +6755,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6726,7 +6792,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6759,7 +6829,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6792,7 +6866,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6825,7 +6903,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6858,7 +6940,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6891,7 +6977,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6924,7 +7014,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6957,7 +7051,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6990,7 +7088,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7023,7 +7125,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7056,7 +7162,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7089,7 +7199,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7122,7 +7236,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7155,7 +7273,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7188,7 +7310,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7221,7 +7347,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7254,7 +7384,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7287,7 +7421,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7320,7 +7458,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7495,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7386,7 +7532,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7419,7 +7569,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7452,7 +7606,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7485,7 +7643,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7518,7 +7680,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7551,7 +7717,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7584,7 +7754,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7617,7 +7791,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7650,7 +7828,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7683,7 +7865,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7716,7 +7902,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7749,7 +7939,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7782,7 +7976,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7815,7 +8013,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7848,7 +8050,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7881,7 +8087,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7914,7 +8124,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7947,7 +8161,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7980,7 +8198,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8013,7 +8235,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8046,7 +8272,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8079,7 +8309,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8112,7 +8346,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8145,7 +8383,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8178,7 +8420,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8211,7 +8457,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8244,7 +8494,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8277,7 +8531,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8310,7 +8568,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8343,7 +8605,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8376,7 +8642,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8409,7 +8679,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8442,7 +8716,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8475,7 +8753,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +8790,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8541,7 +8827,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8574,7 +8864,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8607,7 +8901,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8640,7 +8938,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8669,11 +8971,15 @@
         <v>62891.02699818003</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8706,7 +9012,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8739,7 +9049,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8772,7 +9086,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8805,7 +9123,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8838,7 +9160,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8871,7 +9197,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8904,7 +9234,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8933,11 +9267,15 @@
         <v>138606.1871824</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8966,11 +9304,15 @@
         <v>212363.85752814</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8999,11 +9341,15 @@
         <v>235918.28082814</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9032,11 +9378,15 @@
         <v>235918.28082814</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9065,11 +9415,15 @@
         <v>235918.28082814</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9098,11 +9452,15 @@
         <v>250587.50154184</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9131,11 +9489,15 @@
         <v>240609.69634184</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9164,11 +9526,15 @@
         <v>232608.38074184</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9197,11 +9563,15 @@
         <v>247994.15134184</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9230,11 +9600,15 @@
         <v>250266.22394184</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9263,11 +9637,15 @@
         <v>266289.62824184</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9296,11 +9674,15 @@
         <v>296702.15054184</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9329,11 +9711,15 @@
         <v>264611.88604184</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +9748,15 @@
         <v>308361.36354184</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9395,11 +9785,15 @@
         <v>382622.53274184</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9428,11 +9822,15 @@
         <v>445888.47391515</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9461,11 +9859,15 @@
         <v>521572.02474184</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9494,11 +9896,15 @@
         <v>452704.15416701</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9531,7 +9937,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9564,7 +9974,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9597,7 +10011,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9630,7 +10048,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +10085,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9696,7 +10122,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9729,7 +10159,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9762,7 +10196,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9791,11 +10229,15 @@
         <v>330587.78059338</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9824,11 +10266,15 @@
         <v>296769.10929338</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9857,11 +10303,15 @@
         <v>296769.10929338</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9890,11 +10340,15 @@
         <v>273912.79279338</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9923,11 +10377,15 @@
         <v>293883.38279338</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9956,11 +10414,15 @@
         <v>305079.00099338</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9989,11 +10451,15 @@
         <v>347768.0138933801</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10026,7 +10492,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10055,11 +10525,15 @@
         <v>341067.3640004101</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10092,7 +10566,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10125,7 +10603,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10158,7 +10640,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10187,11 +10673,15 @@
         <v>325392.7601991901</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10220,11 +10710,15 @@
         <v>308994.3115612101</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10253,11 +10747,15 @@
         <v>309931.9043612101</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10286,11 +10784,15 @@
         <v>306011.0413612101</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10319,11 +10821,15 @@
         <v>319900.95666121</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10352,11 +10858,15 @@
         <v>319481.39986121</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10385,11 +10895,15 @@
         <v>325895.97096121</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10418,11 +10932,15 @@
         <v>400324.64486121</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10451,11 +10969,15 @@
         <v>440890.63026121</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10484,11 +11006,15 @@
         <v>461690.19484197</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10517,11 +11043,15 @@
         <v>437889.6790109</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10550,11 +11080,15 @@
         <v>446000.8081109</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10587,7 +11121,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10620,7 +11158,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10653,7 +11195,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10686,7 +11232,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10719,7 +11269,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10752,7 +11306,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10785,7 +11343,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10818,7 +11380,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10851,7 +11417,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10884,7 +11454,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10917,7 +11491,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10950,7 +11528,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10983,7 +11565,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11016,7 +11602,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11049,7 +11639,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11082,7 +11676,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11115,7 +11713,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11148,7 +11750,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11181,7 +11787,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11214,7 +11824,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11247,7 +11861,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11280,7 +11898,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11313,7 +11935,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11346,7 +11972,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11379,7 +12009,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11408,14 +12042,16 @@
         <v>740058.08719938</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
@@ -11441,7 +12077,7 @@
         <v>740058.08719938</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11474,7 +12110,7 @@
         <v>720878.76519938</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11507,7 +12143,7 @@
         <v>764312.02419938</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11540,7 +12176,7 @@
         <v>804851.12758469</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11573,7 +12209,7 @@
         <v>781032.97386963</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11606,7 +12242,7 @@
         <v>792046.58585636</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11639,7 +12275,7 @@
         <v>792046.58585636</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11672,7 +12308,7 @@
         <v>735876.9092768601</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11705,7 +12341,7 @@
         <v>730741.98950368</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11738,7 +12374,7 @@
         <v>699781.5500455</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11771,7 +12407,7 @@
         <v>708776.80117221</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11804,7 +12440,7 @@
         <v>721174.01674867</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11837,7 +12473,7 @@
         <v>721174.01674867</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11870,7 +12506,7 @@
         <v>769423.67449894</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11903,7 +12539,7 @@
         <v>852156.1102411901</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11936,7 +12572,7 @@
         <v>782385.6513411901</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11969,7 +12605,7 @@
         <v>733879.90494119</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12002,7 +12638,7 @@
         <v>758319.1402411901</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12035,7 +12671,7 @@
         <v>706253.8114411901</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12068,7 +12704,7 @@
         <v>706253.8114411901</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12101,7 +12737,7 @@
         <v>732942.5654001001</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12134,7 +12770,7 @@
         <v>718868.6407169001</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12167,7 +12803,7 @@
         <v>718868.6407169001</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12200,7 +12836,7 @@
         <v>697026.5565450601</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12233,7 +12869,7 @@
         <v>713289.7887450601</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12266,7 +12902,7 @@
         <v>705549.8315022601</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12299,7 +12935,7 @@
         <v>719545.44280226</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12332,7 +12968,7 @@
         <v>726344.4521503201</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12365,7 +13001,7 @@
         <v>730573.81842528</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12398,7 +13034,7 @@
         <v>714246.6359206301</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12431,7 +13067,7 @@
         <v>714246.6359206301</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12464,7 +13100,7 @@
         <v>728901.85662063</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12497,7 +13133,7 @@
         <v>784824.46502063</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12530,7 +13166,7 @@
         <v>770978.24232063</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12563,7 +13199,7 @@
         <v>764992.69172063</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12596,7 +13232,7 @@
         <v>775542.81222063</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12629,7 +13265,7 @@
         <v>764729.36892063</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12662,7 +13298,7 @@
         <v>764729.36892063</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12695,7 +13331,7 @@
         <v>771685.7485206299</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12728,7 +13364,7 @@
         <v>770813.4104206299</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12761,7 +13397,7 @@
         <v>717664.4522206299</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12794,7 +13430,7 @@
         <v>611323.1434206299</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12827,7 +13463,7 @@
         <v>584941.7844206298</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
